--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DavidTerroso\D\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F922B6-BCB7-4052-AD27-478AE9709E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{FEA0A319-C276-4791-AAF5-570EFC036404}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Preliminar" sheetId="9" r:id="rId1"/>
@@ -22,8 +21,9 @@
     <sheet name="Vert7NoRot" sheetId="6" r:id="rId7"/>
     <sheet name="Vert7Rot5" sheetId="7" r:id="rId8"/>
     <sheet name="Vert4Rot5" sheetId="8" r:id="rId9"/>
+    <sheet name="IRF" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,14 +44,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="2569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3426" uniqueCount="2581">
   <si>
     <t>Run001</t>
   </si>
@@ -7773,13 +7773,49 @@
   </si>
   <si>
     <t>Iteration17 (with Run099)</t>
+  </si>
+  <si>
+    <t>Run063</t>
+  </si>
+  <si>
+    <t>0.478 (0.442)</t>
+  </si>
+  <si>
+    <t>0.634 (0.226)</t>
+  </si>
+  <si>
+    <t>0.412 (0.493)</t>
+  </si>
+  <si>
+    <t>0.695 (0.357)</t>
+  </si>
+  <si>
+    <t>0.669 (0.152)</t>
+  </si>
+  <si>
+    <t>0.714 (0.453)</t>
+  </si>
+  <si>
+    <t>0.735 (0.387)</t>
+  </si>
+  <si>
+    <t>0.569 (0.258)</t>
+  </si>
+  <si>
+    <t>0.604 (0.427)</t>
+  </si>
+  <si>
+    <t>0.625 (0.222)</t>
+  </si>
+  <si>
+    <t>0.595 (0.491)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7892,7 +7928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7949,6 +7985,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8286,164 +8325,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A734947A-DF3F-4721-B604-3DE234F2D342}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="17"/>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="17"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:40">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+    <row r="3" spans="1:40">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -8562,7 +8601,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="15" t="s">
         <v>2217</v>
       </c>
@@ -8684,7 +8723,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="15" t="s">
         <v>2254</v>
       </c>
@@ -8806,7 +8845,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="15" t="s">
         <v>2290</v>
       </c>
@@ -8928,7 +8967,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="15" t="s">
         <v>2327</v>
       </c>
@@ -9050,7 +9089,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="15" t="s">
         <v>2362</v>
       </c>
@@ -9172,7 +9211,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="15" t="s">
         <v>2399</v>
       </c>
@@ -9294,7 +9333,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="28.5">
       <c r="A10" s="15" t="s">
         <v>2437</v>
       </c>
@@ -9416,7 +9455,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="28.5">
       <c r="A11" s="15" t="s">
         <v>2473</v>
       </c>
@@ -9538,15 +9577,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="15">
       <c r="A13" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="15">
       <c r="A14" s="17" t="s">
         <v>2509</v>
       </c>
@@ -9557,7 +9596,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="15">
       <c r="A15" s="17" t="s">
         <v>2528</v>
       </c>
@@ -9568,7 +9607,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="15">
       <c r="A16" s="17" t="s">
         <v>2510</v>
       </c>
@@ -9579,7 +9618,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" s="17" t="s">
         <v>2511</v>
       </c>
@@ -9590,7 +9629,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="17" t="s">
         <v>2512</v>
       </c>
@@ -9601,7 +9640,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19" s="17" t="s">
         <v>2513</v>
       </c>
@@ -9612,7 +9651,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15">
       <c r="A20" s="17" t="s">
         <v>2514</v>
       </c>
@@ -9623,7 +9662,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15">
       <c r="G21" s="18" t="s">
         <v>2473</v>
       </c>
@@ -9633,12 +9672,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="B2:D2"/>
@@ -9650,170 +9683,362 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="22" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
+        <v>2099</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
+        <v>2092</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="22"/>
+      <c r="B3" s="21" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="28.5">
+      <c r="A4" s="5" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>2574</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>2575</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>2576</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2577</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>2578</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>2579</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15">
+      <c r="A5" s="16" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="17" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="17" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="17" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="17" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="17" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="17" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB0392C-E8A9-4EBF-B6AE-B4320D8CEDA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="92" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:40">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+    <row r="3" spans="1:40">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -9932,7 +10157,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -10054,7 +10279,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
@@ -10176,7 +10401,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>80</v>
       </c>
@@ -10298,7 +10523,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>119</v>
       </c>
@@ -10420,7 +10645,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>311</v>
       </c>
@@ -10542,7 +10767,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="5" t="s">
         <v>158</v>
       </c>
@@ -10664,7 +10889,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="28.5">
       <c r="A10" s="7" t="s">
         <v>196</v>
       </c>
@@ -10786,7 +11011,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="28.5">
       <c r="A11" s="9" t="s">
         <v>234</v>
       </c>
@@ -10908,7 +11133,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="28.5">
       <c r="A12" s="11" t="s">
         <v>273</v>
       </c>
@@ -11030,7 +11255,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="28.5">
       <c r="A13" s="2" t="s">
         <v>336</v>
       </c>
@@ -11152,7 +11377,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -11194,7 +11419,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="15">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
@@ -11238,7 +11463,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2509</v>
       </c>
@@ -11282,7 +11507,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="17" t="s">
         <v>2527</v>
       </c>
@@ -11326,7 +11551,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="17" t="s">
         <v>2510</v>
       </c>
@@ -11370,7 +11595,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="17" t="s">
         <v>2511</v>
       </c>
@@ -11414,18 +11639,19 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40">
       <c r="A21" s="17" t="s">
         <v>2513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -11442,170 +11668,169 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:S1"/>
-    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDDC8B2-94FA-497C-9313-E833F9B05693}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:40">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+    <row r="3" spans="1:40">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -11724,7 +11949,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>361</v>
       </c>
@@ -11846,7 +12071,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>401</v>
       </c>
@@ -11968,7 +12193,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>441</v>
       </c>
@@ -12090,7 +12315,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>478</v>
       </c>
@@ -12212,7 +12437,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>557</v>
       </c>
@@ -12334,7 +12559,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="7" t="s">
         <v>517</v>
       </c>
@@ -12456,7 +12681,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -12498,7 +12723,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="15">
       <c r="A11" s="16" t="s">
         <v>2508</v>
       </c>
@@ -12542,7 +12767,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12" s="17" t="s">
         <v>2515</v>
       </c>
@@ -12586,7 +12811,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2516</v>
       </c>
@@ -12630,7 +12855,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2510</v>
       </c>
@@ -12674,7 +12899,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2511</v>
       </c>
@@ -12718,7 +12943,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2517</v>
       </c>
@@ -12762,7 +12987,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="17" t="s">
         <v>2513</v>
       </c>
@@ -12806,7 +13031,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -12848,7 +13073,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -12892,6 +13117,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -12905,173 +13134,169 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC90BFA-3CE8-40A1-B6C6-966DC950A0A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:40">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+    <row r="3" spans="1:40">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -13190,7 +13415,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>580</v>
       </c>
@@ -13312,7 +13537,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>619</v>
       </c>
@@ -13434,7 +13659,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>658</v>
       </c>
@@ -13556,7 +13781,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>698</v>
       </c>
@@ -13678,7 +13903,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>737</v>
       </c>
@@ -13800,7 +14025,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="5" t="s">
         <v>759</v>
       </c>
@@ -13922,7 +14147,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="28.5">
       <c r="A10" s="7" t="s">
         <v>797</v>
       </c>
@@ -14044,7 +14269,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="28.5">
       <c r="A11" s="9" t="s">
         <v>835</v>
       </c>
@@ -14166,7 +14391,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="28.5">
       <c r="A12" s="11" t="s">
         <v>874</v>
       </c>
@@ -14288,7 +14513,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="28.5">
       <c r="A13" s="2" t="s">
         <v>912</v>
       </c>
@@ -14410,7 +14635,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -14452,7 +14677,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="15">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
@@ -14496,7 +14721,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
@@ -14540,7 +14765,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="17" t="s">
         <v>2532</v>
       </c>
@@ -14584,7 +14809,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="17" t="s">
         <v>2529</v>
       </c>
@@ -14628,7 +14853,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="17" t="s">
         <v>2511</v>
       </c>
@@ -14672,18 +14897,22 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40">
       <c r="A21" s="17" t="s">
         <v>2530</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -14697,177 +14926,173 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77025DC0-E312-4B3C-AE36-B84E8715CD74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN28"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:40">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+    <row r="3" spans="1:40">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -14986,7 +15211,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>937</v>
       </c>
@@ -15108,7 +15333,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="5" t="s">
         <v>975</v>
       </c>
@@ -15230,7 +15455,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="5" t="s">
         <v>1010</v>
       </c>
@@ -15352,7 +15577,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="5" t="s">
         <v>1048</v>
       </c>
@@ -15474,7 +15699,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="5" t="s">
         <v>1084</v>
       </c>
@@ -15596,7 +15821,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="2" t="s">
         <v>1440</v>
       </c>
@@ -15718,7 +15943,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="28.5">
       <c r="A10" s="7" t="s">
         <v>1120</v>
       </c>
@@ -15840,7 +16065,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="28.5">
       <c r="A11" s="7" t="s">
         <v>1156</v>
       </c>
@@ -15962,7 +16187,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="28.5">
       <c r="A12" s="7" t="s">
         <v>1193</v>
       </c>
@@ -16084,7 +16309,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="28.5">
       <c r="A13" s="7" t="s">
         <v>1227</v>
       </c>
@@ -16206,7 +16431,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="28.5">
       <c r="A14" s="13" t="s">
         <v>1263</v>
       </c>
@@ -16328,7 +16553,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="28.5">
       <c r="A15" s="3" t="s">
         <v>2102</v>
       </c>
@@ -16450,7 +16675,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="28.5">
       <c r="A16" s="7" t="s">
         <v>1299</v>
       </c>
@@ -16572,7 +16797,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="28.5">
       <c r="A17" s="7" t="s">
         <v>1333</v>
       </c>
@@ -16694,7 +16919,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="28.5">
       <c r="A18" s="7" t="s">
         <v>1372</v>
       </c>
@@ -16816,7 +17041,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="28.5">
       <c r="A19" s="7" t="s">
         <v>1407</v>
       </c>
@@ -16938,7 +17163,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="28.5">
       <c r="A20" s="3" t="s">
         <v>2101</v>
       </c>
@@ -17099,43 +17324,47 @@
         <v>0.68 (0.11)</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="15">
       <c r="A22" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40">
       <c r="A23" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40">
       <c r="A24" s="17" t="s">
         <v>2532</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40">
       <c r="A25" s="17" t="s">
         <v>2529</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40">
       <c r="A26" s="17" t="s">
         <v>2511</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40">
       <c r="A27" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40">
       <c r="A28" s="17" t="s">
         <v>2513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -17149,173 +17378,169 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6226C300-7E1A-401D-8ECC-5F5AB98248BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:40">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+    <row r="3" spans="1:40">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -17434,7 +17659,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>1478</v>
       </c>
@@ -17556,7 +17781,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>1548</v>
       </c>
@@ -17678,7 +17903,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="5" t="s">
         <v>1514</v>
       </c>
@@ -17800,7 +18025,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="7" t="s">
         <v>1580</v>
       </c>
@@ -17922,7 +18147,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="15">
       <c r="A9" s="16" t="s">
         <v>2508</v>
       </c>
@@ -17966,7 +18191,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40">
       <c r="A10" s="17" t="s">
         <v>2518</v>
       </c>
@@ -18010,7 +18235,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40">
       <c r="A11" s="17" t="s">
         <v>2533</v>
       </c>
@@ -18054,7 +18279,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12" s="17" t="s">
         <v>2529</v>
       </c>
@@ -18098,7 +18323,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2511</v>
       </c>
@@ -18142,7 +18367,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2512</v>
       </c>
@@ -18186,7 +18411,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2513</v>
       </c>
@@ -18230,7 +18455,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -18272,7 +18497,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -18314,7 +18539,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -18356,7 +18581,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -18400,6 +18625,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -18413,173 +18642,169 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69BF256-4031-4DDD-97A8-270AC342A9BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:40">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+    <row r="3" spans="1:40">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -18698,7 +18923,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>1617</v>
       </c>
@@ -18820,7 +19045,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>1649</v>
       </c>
@@ -18942,7 +19167,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>1681</v>
       </c>
@@ -19064,7 +19289,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>1717</v>
       </c>
@@ -19186,7 +19411,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>1751</v>
       </c>
@@ -19308,7 +19533,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -19350,7 +19575,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="15">
       <c r="A10" s="16" t="s">
         <v>2508</v>
       </c>
@@ -19394,7 +19619,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40">
       <c r="A11" s="17" t="s">
         <v>2518</v>
       </c>
@@ -19438,7 +19663,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12" s="17" t="s">
         <v>2531</v>
       </c>
@@ -19482,7 +19707,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2529</v>
       </c>
@@ -19526,7 +19751,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2511</v>
       </c>
@@ -19570,7 +19795,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2512</v>
       </c>
@@ -19614,7 +19839,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2534</v>
       </c>
@@ -19658,7 +19883,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -19700,7 +19925,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -19742,7 +19967,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -19786,6 +20011,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -19799,174 +20028,170 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2774DFCF-7254-46E3-9BFB-424FCA98E06A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:40">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+    <row r="3" spans="1:40">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -20085,7 +20310,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>1772</v>
       </c>
@@ -20207,7 +20432,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>1806</v>
       </c>
@@ -20329,7 +20554,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>1842</v>
       </c>
@@ -20451,7 +20676,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>1880</v>
       </c>
@@ -20573,7 +20798,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>1917</v>
       </c>
@@ -20695,7 +20920,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="8" t="s">
         <v>2536</v>
       </c>
@@ -20817,7 +21042,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="42.75">
       <c r="A10" s="3" t="s">
         <v>2568</v>
       </c>
@@ -20978,7 +21203,7 @@
         <v>0.63 (0.15)</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -21019,7 +21244,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="15">
       <c r="A12" s="16" t="s">
         <v>2508</v>
       </c>
@@ -21063,7 +21288,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2518</v>
       </c>
@@ -21107,7 +21332,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2531</v>
       </c>
@@ -21151,7 +21376,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2529</v>
       </c>
@@ -21195,7 +21420,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2535</v>
       </c>
@@ -21239,7 +21464,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="17" t="s">
         <v>2512</v>
       </c>
@@ -21283,7 +21508,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="17" t="s">
         <v>2534</v>
       </c>
@@ -21327,7 +21552,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -21370,6 +21595,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -21383,173 +21612,169 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E79EAD-0C87-4C7C-997B-B44D5BC3BCC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AN4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:40">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+    <row r="3" spans="1:40">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -21668,7 +21893,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>1954</v>
       </c>
@@ -21790,7 +22015,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>1988</v>
       </c>
@@ -21912,7 +22137,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>2024</v>
       </c>
@@ -22034,7 +22259,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>2057</v>
       </c>
@@ -22156,7 +22381,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>1937</v>
       </c>
@@ -22278,7 +22503,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -22320,7 +22545,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="15">
       <c r="A10" s="16" t="s">
         <v>2508</v>
       </c>
@@ -22364,7 +22589,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40">
       <c r="A11" s="17" t="s">
         <v>2518</v>
       </c>
@@ -22408,7 +22633,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12" s="17" t="s">
         <v>2532</v>
       </c>
@@ -22452,7 +22677,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2529</v>
       </c>
@@ -22496,7 +22721,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2535</v>
       </c>
@@ -22540,7 +22765,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2512</v>
       </c>
@@ -22584,7 +22809,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2534</v>
       </c>
@@ -22628,7 +22853,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -22670,7 +22895,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -22712,7 +22937,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -22756,6 +22981,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -22769,10 +22998,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -21,7 +21,8 @@
     <sheet name="Vert7NoRot" sheetId="6" r:id="rId7"/>
     <sheet name="Vert7Rot5" sheetId="7" r:id="rId8"/>
     <sheet name="Vert4Rot5" sheetId="8" r:id="rId9"/>
-    <sheet name="IRF" sheetId="10" r:id="rId10"/>
+    <sheet name="MultiClassFinal" sheetId="11" r:id="rId10"/>
+    <sheet name="IRF" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3426" uniqueCount="2581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="2618">
   <si>
     <t>Run001</t>
   </si>
@@ -7809,6 +7810,117 @@
   </si>
   <si>
     <t>0.595 (0.491)</t>
+  </si>
+  <si>
+    <t>0.852 (0.261)</t>
+  </si>
+  <si>
+    <t>0.654 (0.195)</t>
+  </si>
+  <si>
+    <t>0.941 (0.237)</t>
+  </si>
+  <si>
+    <t>0.918 (0.182)</t>
+  </si>
+  <si>
+    <t>0.799 (0.156)</t>
+  </si>
+  <si>
+    <t>0.972 (0.166)</t>
+  </si>
+  <si>
+    <t>0.934 (0.180)</t>
+  </si>
+  <si>
+    <t>0.767 (0.197)</t>
+  </si>
+  <si>
+    <t>0.978 (0.147)</t>
+  </si>
+  <si>
+    <t>0.645 (0.383)</t>
+  </si>
+  <si>
+    <t>0.645 (0.238)</t>
+  </si>
+  <si>
+    <t>0.646 (0.480)</t>
+  </si>
+  <si>
+    <t>0.821 (0.331)</t>
+  </si>
+  <si>
+    <t>0.687 (0.322)</t>
+  </si>
+  <si>
+    <t>0.889 (0.315)</t>
+  </si>
+  <si>
+    <t>0.852 (0.310)</t>
+  </si>
+  <si>
+    <t>0.703 (0.209)</t>
+  </si>
+  <si>
+    <t>0.885 (0.320)</t>
+  </si>
+  <si>
+    <t>0.818 (0.330)</t>
+  </si>
+  <si>
+    <t>0.624 (0.278)</t>
+  </si>
+  <si>
+    <t>0.884 (0.321)</t>
+  </si>
+  <si>
+    <t>0.929 (0.215)</t>
+  </si>
+  <si>
+    <t>0.744 (0.229)</t>
+  </si>
+  <si>
+    <t>0.960 (0.197)</t>
+  </si>
+  <si>
+    <t>0.755 (0.415)</t>
+  </si>
+  <si>
+    <t>0.799 (0.325)</t>
+  </si>
+  <si>
+    <t>0.641 (0.238)</t>
+  </si>
+  <si>
+    <t>0.873 (0.334)</t>
+  </si>
+  <si>
+    <t>0.905 (0.233)</t>
+  </si>
+  <si>
+    <t>0.756 (0.231)</t>
+  </si>
+  <si>
+    <t>0.952 (0.213)</t>
+  </si>
+  <si>
+    <t>0.716 (0.212)</t>
+  </si>
+  <si>
+    <t>0.742 (0.326)</t>
+  </si>
+  <si>
+    <t>0.702 (0.218)</t>
+  </si>
+  <si>
+    <t>0.786 (0.410)</t>
+  </si>
+  <si>
+    <t>Run058 (final)</t>
+  </si>
+  <si>
+    <t>Used the model from run 58 to infer the predictions for the testing set</t>
   </si>
 </sst>
 </file>
@@ -7844,7 +7956,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7884,6 +7996,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7928,7 +8046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7992,12 +8110,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -8364,125 +8493,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -9669,6 +9798,454 @@
       <c r="H21" s="19" t="s">
         <v>2526</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AF1:AH2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40">
+      <c r="A1" s="23" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
+        <v>2098</v>
+      </c>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23" t="s">
+        <v>2099</v>
+      </c>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23" t="s">
+        <v>2096</v>
+      </c>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
+        <v>2096</v>
+      </c>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23" t="s">
+        <v>2097</v>
+      </c>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23" t="s">
+        <v>2092</v>
+      </c>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23" t="s">
+        <v>2096</v>
+      </c>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="23"/>
+      <c r="B3" s="22" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>2095</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>2093</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>2094</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>2093</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>2094</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>2095</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>2093</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>2094</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>2095</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>2093</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>2094</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Z3" s="22" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AB3" s="22" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AC3" s="22" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AD3" s="22" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AE3" s="22" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AF3" s="22" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AG3" s="22" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AH3" s="22" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AI3" s="22" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AJ3" s="22" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AK3" s="22" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AL3" s="22" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AM3" s="22" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AN3" s="22" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="28.5">
+      <c r="A4" s="24" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>2584</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>2585</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>2586</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>2587</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>2588</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>2589</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>2590</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>2591</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>2592</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>2593</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>2594</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>2595</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>2596</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>2597</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>2598</v>
+      </c>
+      <c r="T4" s="24" t="s">
+        <v>2599</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>2600</v>
+      </c>
+      <c r="V4" s="24" t="s">
+        <v>2601</v>
+      </c>
+      <c r="W4" s="24" t="s">
+        <v>2602</v>
+      </c>
+      <c r="X4" s="24" t="s">
+        <v>2603</v>
+      </c>
+      <c r="Y4" s="24" t="s">
+        <v>2604</v>
+      </c>
+      <c r="Z4" s="24" t="s">
+        <v>2605</v>
+      </c>
+      <c r="AA4" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC4" s="24" t="s">
+        <v>2606</v>
+      </c>
+      <c r="AD4" s="24" t="s">
+        <v>2607</v>
+      </c>
+      <c r="AE4" s="24" t="s">
+        <v>2608</v>
+      </c>
+      <c r="AF4" s="24" t="s">
+        <v>2609</v>
+      </c>
+      <c r="AG4" s="24" t="s">
+        <v>2610</v>
+      </c>
+      <c r="AH4" s="24" t="s">
+        <v>2611</v>
+      </c>
+      <c r="AI4" s="24" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AJ4" s="24" t="s">
+        <v>2612</v>
+      </c>
+      <c r="AK4" s="24" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AL4" s="24" t="s">
+        <v>2613</v>
+      </c>
+      <c r="AM4" s="24" t="s">
+        <v>2614</v>
+      </c>
+      <c r="AN4" s="24" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="15">
+      <c r="A6" s="16" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" s="17" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" s="17"/>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="17"/>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="17"/>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="17"/>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -9682,77 +10259,76 @@
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="T1:AB1"/>
     <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="Z2:AB2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="21" t="s">
         <v>2093</v>
       </c>
@@ -9868,6 +10444,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="K1:M2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
@@ -9875,7 +10452,6 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9920,125 +10496,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -11651,23 +12227,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="T1:AB1"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11712,125 +12288,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -13117,6 +13693,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -13133,7 +13710,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13178,125 +13754,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -14909,6 +15485,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -14925,7 +15502,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14974,125 +15550,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -17361,6 +17937,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -17377,7 +17954,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17422,125 +17998,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -18625,6 +19201,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -18641,7 +19218,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18686,125 +19262,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -20011,6 +20587,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -20027,7 +20604,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20073,125 +20649,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -21595,6 +22171,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -21611,7 +22188,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21622,7 +22198,7 @@
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AN4"/>
+      <selection activeCell="A10" sqref="A10:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -21656,125 +22232,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -22981,6 +23557,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -22997,7 +23574,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DavidTerroso\D\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\D\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009462E6-9656-4571-A7D3-6D72B12599F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Preliminar" sheetId="9" r:id="rId1"/>
@@ -23,8 +24,10 @@
     <sheet name="Vert4Rot5" sheetId="8" r:id="rId9"/>
     <sheet name="MultiClassFinal" sheetId="11" r:id="rId10"/>
     <sheet name="IRF" sheetId="10" r:id="rId11"/>
+    <sheet name="SRF" sheetId="12" r:id="rId12"/>
+    <sheet name="PED" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,14 +48,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -67,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="2618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3763" uniqueCount="2774">
   <si>
     <t>Run001</t>
   </si>
@@ -7656,9 +7659,6 @@
     <t>Randomly extracted in every epoch from the ROI</t>
   </si>
   <si>
-    <t>Resized to 496x128</t>
-  </si>
-  <si>
     <t>100 (Runs 023 to 026) and 200 (Runs 027 to 030)</t>
   </si>
   <si>
@@ -7921,13 +7921,484 @@
   </si>
   <si>
     <t>Used the model from run 58 to infer the predictions for the testing set</t>
+  </si>
+  <si>
+    <t>Run064</t>
+  </si>
+  <si>
+    <t>0.536 (0.451)</t>
+  </si>
+  <si>
+    <t>0.452 (0.281)</t>
+  </si>
+  <si>
+    <t>0.567 (0.496)</t>
+  </si>
+  <si>
+    <t>0.514 (0.430)</t>
+  </si>
+  <si>
+    <t>0.588 (0.230)</t>
+  </si>
+  <si>
+    <t>0.475 (0.501)</t>
+  </si>
+  <si>
+    <t>0.820 (0.342)</t>
+  </si>
+  <si>
+    <t>0.706 (0.211)</t>
+  </si>
+  <si>
+    <t>0.847 (0.361)</t>
+  </si>
+  <si>
+    <t>0.637 (0.433)</t>
+  </si>
+  <si>
+    <t>0.553 (0.273)</t>
+  </si>
+  <si>
+    <t>0.665 (0.472)</t>
+  </si>
+  <si>
+    <t>Run065</t>
+  </si>
+  <si>
+    <t>0.545 (0.440)</t>
+  </si>
+  <si>
+    <t>0.683 (0.202)</t>
+  </si>
+  <si>
+    <t>0.482 (0.500)</t>
+  </si>
+  <si>
+    <t>0.617 (0.399)</t>
+  </si>
+  <si>
+    <t>0.670 (0.167)</t>
+  </si>
+  <si>
+    <t>0.581 (0.495)</t>
+  </si>
+  <si>
+    <t>0.540 (0.441)</t>
+  </si>
+  <si>
+    <t>0.484 (0.264)</t>
+  </si>
+  <si>
+    <t>0.564 (0.496)</t>
+  </si>
+  <si>
+    <t>0.552 (0.435)</t>
+  </si>
+  <si>
+    <t>0.600 (0.244)</t>
+  </si>
+  <si>
+    <t>Run066</t>
+  </si>
+  <si>
+    <t>0.576 (0.418)</t>
+  </si>
+  <si>
+    <t>0.619 (0.162)</t>
+  </si>
+  <si>
+    <t>0.555 (0.498)</t>
+  </si>
+  <si>
+    <t>0.695 (0.353)</t>
+  </si>
+  <si>
+    <t>0.682 (0.174)</t>
+  </si>
+  <si>
+    <t>0.705 (0.458)</t>
+  </si>
+  <si>
+    <t>0.661 (0.408)</t>
+  </si>
+  <si>
+    <t>0.599 (0.182)</t>
+  </si>
+  <si>
+    <t>0.628 (0.406)</t>
+  </si>
+  <si>
+    <t>0.628 (0.174)</t>
+  </si>
+  <si>
+    <t>0.628 (0.484)</t>
+  </si>
+  <si>
+    <t>Resized to 496x512</t>
+  </si>
+  <si>
+    <t>Run067</t>
+  </si>
+  <si>
+    <t>0.866 (0.263)</t>
+  </si>
+  <si>
+    <t>0.784 (0.176)</t>
+  </si>
+  <si>
+    <t>0.908 (0.289)</t>
+  </si>
+  <si>
+    <t>0.882 (0.280)</t>
+  </si>
+  <si>
+    <t>0.826 (0.181)</t>
+  </si>
+  <si>
+    <t>0.956 (0.175)</t>
+  </si>
+  <si>
+    <t>0.645 (0.332)</t>
+  </si>
+  <si>
+    <t>0.988 (0.110)</t>
+  </si>
+  <si>
+    <t>0.899 (0.244)</t>
+  </si>
+  <si>
+    <t>0.774 (0.210)</t>
+  </si>
+  <si>
+    <t>0.938 (0.241)</t>
+  </si>
+  <si>
+    <t>Run068</t>
+  </si>
+  <si>
+    <t>0.599 (0.433)</t>
+  </si>
+  <si>
+    <t>0.574 (0.217)</t>
+  </si>
+  <si>
+    <t>0.741 (0.407)</t>
+  </si>
+  <si>
+    <t>0.843 (0.156)</t>
+  </si>
+  <si>
+    <t>0.708 (0.456)</t>
+  </si>
+  <si>
+    <t>0.820 (0.350)</t>
+  </si>
+  <si>
+    <t>0.737 (0.121)</t>
+  </si>
+  <si>
+    <t>0.834 (0.373)</t>
+  </si>
+  <si>
+    <t>0.705 (0.412)</t>
+  </si>
+  <si>
+    <t>0.666 (0.216)</t>
+  </si>
+  <si>
+    <t>0.715 (0.451)</t>
+  </si>
+  <si>
+    <t>Run069</t>
+  </si>
+  <si>
+    <t>0.769 (0.410)</t>
+  </si>
+  <si>
+    <t>0.645 (0.221)</t>
+  </si>
+  <si>
+    <t>0.874 (0.286)</t>
+  </si>
+  <si>
+    <t>0.873 (0.136)</t>
+  </si>
+  <si>
+    <t>0.845 (0.303)</t>
+  </si>
+  <si>
+    <t>0.689 (0.230)</t>
+  </si>
+  <si>
+    <t>0.728 (0.225)</t>
+  </si>
+  <si>
+    <t>0.833 (0.373)</t>
+  </si>
+  <si>
+    <t>Run070</t>
+  </si>
+  <si>
+    <t>0.667 (0.440)</t>
+  </si>
+  <si>
+    <t>0.795 (0.085)</t>
+  </si>
+  <si>
+    <t>0.637 (0.481)</t>
+  </si>
+  <si>
+    <t>0.765 (0.380)</t>
+  </si>
+  <si>
+    <t>0.776 (0.248)</t>
+  </si>
+  <si>
+    <t>0.760 (0.428)</t>
+  </si>
+  <si>
+    <t>0.773 (0.404)</t>
+  </si>
+  <si>
+    <t>0.643 (0.234)</t>
+  </si>
+  <si>
+    <t>0.783 (0.413)</t>
+  </si>
+  <si>
+    <t>0.723 (0.420)</t>
+  </si>
+  <si>
+    <t>0.765 (0.188)</t>
+  </si>
+  <si>
+    <t>Only segments SRF</t>
+  </si>
+  <si>
+    <t>Only segments IRF</t>
+  </si>
+  <si>
+    <t>Run071</t>
+  </si>
+  <si>
+    <t>0.305 (0.392)</t>
+  </si>
+  <si>
+    <t>0.482 (0.179)</t>
+  </si>
+  <si>
+    <t>0.239 (0.427)</t>
+  </si>
+  <si>
+    <t>0.555 (0.460)</t>
+  </si>
+  <si>
+    <t>0.623 (0.198)</t>
+  </si>
+  <si>
+    <t>0.540 (0.500)</t>
+  </si>
+  <si>
+    <t>0.626 (0.446)</t>
+  </si>
+  <si>
+    <t>0.552 (0.164)</t>
+  </si>
+  <si>
+    <t>0.640 (0.481)</t>
+  </si>
+  <si>
+    <t>0.459 (0.449)</t>
+  </si>
+  <si>
+    <t>0.522 (0.185)</t>
+  </si>
+  <si>
+    <t>Run072</t>
+  </si>
+  <si>
+    <t>0.447 (0.457)</t>
+  </si>
+  <si>
+    <t>0.508 (0.249)</t>
+  </si>
+  <si>
+    <t>0.431 (0.496)</t>
+  </si>
+  <si>
+    <t>0.437 (0.437)</t>
+  </si>
+  <si>
+    <t>0.628 (0.242)</t>
+  </si>
+  <si>
+    <t>0.347 (0.478)</t>
+  </si>
+  <si>
+    <t>0.769 (0.345)</t>
+  </si>
+  <si>
+    <t>0.623 (0.203)</t>
+  </si>
+  <si>
+    <t>0.563 (0.444)</t>
+  </si>
+  <si>
+    <t>0.583 (0.235)</t>
+  </si>
+  <si>
+    <t>Run073</t>
+  </si>
+  <si>
+    <t>0.368 (0.449)</t>
+  </si>
+  <si>
+    <t>0.594 (0.150)</t>
+  </si>
+  <si>
+    <t>0.330 (0.471)</t>
+  </si>
+  <si>
+    <t>0.346 (0.381)</t>
+  </si>
+  <si>
+    <t>0.566 (0.218)</t>
+  </si>
+  <si>
+    <t>0.191 (0.395)</t>
+  </si>
+  <si>
+    <t>0.328 (0.395)</t>
+  </si>
+  <si>
+    <t>0.618 (0.126)</t>
+  </si>
+  <si>
+    <t>0.208 (0.406)</t>
+  </si>
+  <si>
+    <t>0.348 (0.418)</t>
+  </si>
+  <si>
+    <t>0.600 (0.158)</t>
+  </si>
+  <si>
+    <t>0.266 (0.442)</t>
+  </si>
+  <si>
+    <t>Run074</t>
+  </si>
+  <si>
+    <t>0.484 (0.466)</t>
+  </si>
+  <si>
+    <t>0.547 (0.277)</t>
+  </si>
+  <si>
+    <t>0.469 (0.500)</t>
+  </si>
+  <si>
+    <t>0.326 (0.419)</t>
+  </si>
+  <si>
+    <t>0.639 (0.160)</t>
+  </si>
+  <si>
+    <t>0.240 (0.428)</t>
+  </si>
+  <si>
+    <t>0.460 (0.169)</t>
+  </si>
+  <si>
+    <t>0.729 (0.445)</t>
+  </si>
+  <si>
+    <t>0.534 (0.465)</t>
+  </si>
+  <si>
+    <t>0.545 (0.238)</t>
+  </si>
+  <si>
+    <t>0.532 (0.499)</t>
+  </si>
+  <si>
+    <t>Only segments PED</t>
+  </si>
+  <si>
+    <t>Iteration21</t>
+  </si>
+  <si>
+    <t>0.40 (0.07)</t>
+  </si>
+  <si>
+    <t>0.37 (0.09)</t>
+  </si>
+  <si>
+    <t>0.42 (0.09)</t>
+  </si>
+  <si>
+    <t>0.33 (0.13)</t>
+  </si>
+  <si>
+    <t>0.61 (0.17)</t>
+  </si>
+  <si>
+    <t>0.56 (0.07)</t>
+  </si>
+  <si>
+    <t>0.60 (0.24)</t>
+  </si>
+  <si>
+    <t>0.45 (0.11)</t>
+  </si>
+  <si>
+    <t>Iteration20</t>
+  </si>
+  <si>
+    <t>0.73 (0.10)</t>
+  </si>
+  <si>
+    <t>0.70 (0.09)</t>
+  </si>
+  <si>
+    <t>0.73 (0.12)</t>
+  </si>
+  <si>
+    <t>0.85 (0.07)</t>
+  </si>
+  <si>
+    <t>0.68 (0.04)</t>
+  </si>
+  <si>
+    <t>0.87 (0.08)</t>
+  </si>
+  <si>
+    <t>0.73 (0.04)</t>
+  </si>
+  <si>
+    <t>0.80 (0.09)</t>
+  </si>
+  <si>
+    <t>Iteration19</t>
+  </si>
+  <si>
+    <t>0.50 (0.06)</t>
+  </si>
+  <si>
+    <t>0.69 (0.10)</t>
+  </si>
+  <si>
+    <t>0.72 (0.11)</t>
+  </si>
+  <si>
+    <t>0.60 (0.05)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8046,7 +8517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8104,17 +8575,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8454,164 +8919,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="17"/>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="17"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -8730,7 +9195,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>2217</v>
       </c>
@@ -8852,7 +9317,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>2254</v>
       </c>
@@ -8974,7 +9439,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>2290</v>
       </c>
@@ -9096,7 +9561,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>2327</v>
       </c>
@@ -9218,7 +9683,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>2362</v>
       </c>
@@ -9340,7 +9805,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.5">
+    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>2399</v>
       </c>
@@ -9462,7 +9927,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.5">
+    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>2437</v>
       </c>
@@ -9584,7 +10049,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.5">
+    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>2473</v>
       </c>
@@ -9706,15 +10171,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:40" ht="15">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="15">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>2509</v>
       </c>
@@ -9725,7 +10190,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="15">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>2528</v>
       </c>
@@ -9736,7 +10201,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="15">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2510</v>
       </c>
@@ -9747,7 +10212,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2511</v>
       </c>
@@ -9758,7 +10223,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>2512</v>
       </c>
@@ -9769,7 +10234,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>2513</v>
       </c>
@@ -9780,7 +10245,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>2514</v>
       </c>
@@ -9791,13 +10256,461 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G21" s="18" t="s">
         <v>2473</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>2526</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AN12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
+        <v>2098</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
+        <v>2099</v>
+      </c>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
+        <v>2096</v>
+      </c>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
+        <v>2096</v>
+      </c>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
+        <v>2097</v>
+      </c>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
+        <v>2092</v>
+      </c>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
+        <v>2096</v>
+      </c>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>2584</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>2585</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>2586</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>2587</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>2589</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>2590</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>2591</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>2592</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>2593</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>2594</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>2595</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>2596</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>2597</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>2598</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>2599</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>2600</v>
+      </c>
+      <c r="W4" s="21" t="s">
+        <v>2601</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>2602</v>
+      </c>
+      <c r="Y4" s="21" t="s">
+        <v>2603</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>2605</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>2606</v>
+      </c>
+      <c r="AE4" s="21" t="s">
+        <v>2607</v>
+      </c>
+      <c r="AF4" s="21" t="s">
+        <v>2608</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>2609</v>
+      </c>
+      <c r="AH4" s="21" t="s">
+        <v>2610</v>
+      </c>
+      <c r="AI4" s="21" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
+        <v>2611</v>
+      </c>
+      <c r="AK4" s="21" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AL4" s="21" t="s">
+        <v>2612</v>
+      </c>
+      <c r="AM4" s="21" t="s">
+        <v>2613</v>
+      </c>
+      <c r="AN4" s="21" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -9819,627 +10732,351 @@
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AF1:AH2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="23" t="s">
-        <v>2100</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>2091</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23" t="s">
-        <v>2098</v>
-      </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23" t="s">
-        <v>2099</v>
-      </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23" t="s">
-        <v>2092</v>
-      </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23" t="s">
-        <v>2096</v>
-      </c>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23" t="s">
-        <v>2092</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
-        <v>2096</v>
-      </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
-        <v>2097</v>
-      </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23" t="s">
-        <v>2092</v>
-      </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
-        <v>2096</v>
-      </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23" t="s">
-        <v>2097</v>
-      </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23" t="s">
-        <v>2092</v>
-      </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
-        <v>2096</v>
-      </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="23"/>
-      <c r="B3" s="22" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>2094</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>2095</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>2093</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>2094</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>2095</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>2093</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>2094</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>2095</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>2093</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>2094</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>2095</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>2093</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>2094</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>2093</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>2094</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>2095</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>2093</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>2094</v>
-      </c>
-      <c r="V3" s="22" t="s">
-        <v>2095</v>
-      </c>
-      <c r="W3" s="22" t="s">
-        <v>2093</v>
-      </c>
-      <c r="X3" s="22" t="s">
-        <v>2094</v>
-      </c>
-      <c r="Y3" s="22" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Z3" s="22" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AA3" s="22" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AB3" s="22" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AC3" s="22" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AD3" s="22" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AE3" s="22" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AF3" s="22" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AG3" s="22" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AH3" s="22" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AI3" s="22" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AJ3" s="22" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AK3" s="22" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AL3" s="22" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AM3" s="22" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AN3" s="22" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" ht="28.5">
-      <c r="A4" s="24" t="s">
-        <v>2616</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>2581</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>2582</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>2583</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>2584</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>2585</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>2586</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>2587</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>2588</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>2589</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>2590</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>2591</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>2592</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>2593</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>2594</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>2595</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>2596</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>2597</v>
-      </c>
-      <c r="S4" s="24" t="s">
-        <v>2598</v>
-      </c>
-      <c r="T4" s="24" t="s">
-        <v>2599</v>
-      </c>
-      <c r="U4" s="24" t="s">
-        <v>2600</v>
-      </c>
-      <c r="V4" s="24" t="s">
-        <v>2601</v>
-      </c>
-      <c r="W4" s="24" t="s">
-        <v>2602</v>
-      </c>
-      <c r="X4" s="24" t="s">
-        <v>2603</v>
-      </c>
-      <c r="Y4" s="24" t="s">
-        <v>2604</v>
-      </c>
-      <c r="Z4" s="24" t="s">
-        <v>2605</v>
-      </c>
-      <c r="AA4" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB4" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="AC4" s="24" t="s">
-        <v>2606</v>
-      </c>
-      <c r="AD4" s="24" t="s">
-        <v>2607</v>
-      </c>
-      <c r="AE4" s="24" t="s">
-        <v>2608</v>
-      </c>
-      <c r="AF4" s="24" t="s">
-        <v>2609</v>
-      </c>
-      <c r="AG4" s="24" t="s">
-        <v>2610</v>
-      </c>
-      <c r="AH4" s="24" t="s">
-        <v>2611</v>
-      </c>
-      <c r="AI4" s="24" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AJ4" s="24" t="s">
-        <v>2612</v>
-      </c>
-      <c r="AK4" s="24" t="s">
-        <v>1257</v>
-      </c>
-      <c r="AL4" s="24" t="s">
-        <v>2613</v>
-      </c>
-      <c r="AM4" s="24" t="s">
-        <v>2614</v>
-      </c>
-      <c r="AN4" s="24" t="s">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" ht="15">
-      <c r="A6" s="16" t="s">
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
-      <c r="A7" s="17" t="s">
-        <v>2617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:40">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:40">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:40">
-      <c r="A11" s="17"/>
-    </row>
-    <row r="12" spans="1:40">
-      <c r="A12" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="Z2:AB2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="23"/>
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="2" t="s">
         <v>2094</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="2" t="s">
         <v>2095</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="2" t="s">
         <v>2093</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="2" t="s">
         <v>2094</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="2" t="s">
         <v>2095</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="2" t="s">
         <v>2093</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="2" t="s">
         <v>2094</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="2" t="s">
         <v>2095</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="2" t="s">
         <v>2093</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="2" t="s">
         <v>2094</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="2" t="s">
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.5">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>2569</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>2570</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>2571</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>2572</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>2573</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>2574</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>2575</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>2576</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>2577</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>816</v>
       </c>
       <c r="K4" s="6" t="s">
+        <v>2577</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>2578</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>2579</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>2580</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" ht="15">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>2619</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>2620</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>2621</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>2624</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>2625</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>2626</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>2627</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>2628</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>2634</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>2635</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>2636</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>2637</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>2638</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>2639</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>2640</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>2641</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>2645</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>2647</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>2648</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>2649</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>2650</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>2651</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>2652</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>2771</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>2772</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>2140</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="17" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="17" t="s">
-        <v>2531</v>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>2530</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="17" t="s">
-        <v>2529</v>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>2654</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="17" t="s">
-        <v>2535</v>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>2534</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="17" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="17" t="s">
-        <v>2534</v>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>2701</v>
       </c>
     </row>
   </sheetData>
@@ -10457,164 +11094,880 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1EEC59-894B-4B52-815A-E545BB54A325}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
+        <v>2099</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
+        <v>2096</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
+        <v>2096</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2658</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2659</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>2660</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>1891</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>2661</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2662</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>2663</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>2664</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>2665</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>2670</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>2671</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>2672</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>2673</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>2674</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>2675</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>2676</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>2677</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>2682</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>2683</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>2684</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>2685</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>2061</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>2686</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>2691</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>2692</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>2693</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>2694</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>2695</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>2696</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>2697</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>2698</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>2699</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2763</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>2130</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>2764</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>2765</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>2766</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>2767</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6667545-6260-4094-9849-C7CB05A87B3A}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
+        <v>2099</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
+        <v>2097</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2706</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>2707</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>2708</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>2709</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2710</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>2711</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>2712</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>2713</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>2717</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>2718</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>2719</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>2720</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>2721</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>2722</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>2723</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>2724</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2727</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>2728</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>2729</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>2730</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>2731</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>2732</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>2733</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>2734</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>2735</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>2736</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>2742</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>2743</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>2744</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>2745</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>2746</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>2747</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>2748</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2753</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2754</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>2756</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>2757</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>2758</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>2203</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -10733,7 +12086,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -10855,7 +12208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
@@ -10977,7 +12330,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>80</v>
       </c>
@@ -11099,7 +12452,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>119</v>
       </c>
@@ -11221,7 +12574,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>311</v>
       </c>
@@ -11343,7 +12696,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.5">
+    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>158</v>
       </c>
@@ -11465,7 +12818,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.5">
+    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>196</v>
       </c>
@@ -11587,7 +12940,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.5">
+    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>234</v>
       </c>
@@ -11709,7 +13062,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.5">
+    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>273</v>
       </c>
@@ -11831,7 +13184,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.5">
+    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>336</v>
       </c>
@@ -11953,7 +13306,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -11995,7 +13348,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" ht="15">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
@@ -12039,7 +13392,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2509</v>
       </c>
@@ -12083,7 +13436,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2527</v>
       </c>
@@ -12127,7 +13480,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>2510</v>
       </c>
@@ -12171,7 +13524,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>2511</v>
       </c>
@@ -12215,18 +13568,22 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>2513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -12240,173 +13597,169 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -12525,7 +13878,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>361</v>
       </c>
@@ -12647,7 +14000,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>401</v>
       </c>
@@ -12769,7 +14122,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>441</v>
       </c>
@@ -12891,7 +14244,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>478</v>
       </c>
@@ -13013,7 +14366,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>557</v>
       </c>
@@ -13135,7 +14488,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.5">
+    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>517</v>
       </c>
@@ -13257,7 +14610,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -13299,7 +14652,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" ht="15">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>2508</v>
       </c>
@@ -13343,7 +14696,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>2515</v>
       </c>
@@ -13387,7 +14740,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>2516</v>
       </c>
@@ -13431,7 +14784,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>2510</v>
       </c>
@@ -13475,7 +14828,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>2511</v>
       </c>
@@ -13519,7 +14872,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2517</v>
       </c>
@@ -13563,7 +14916,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2513</v>
       </c>
@@ -13607,7 +14960,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -13649,7 +15002,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -13693,11 +15046,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -13710,169 +15058,174 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A21"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -13991,7 +15344,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>580</v>
       </c>
@@ -14113,7 +15466,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>619</v>
       </c>
@@ -14235,7 +15588,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>658</v>
       </c>
@@ -14357,7 +15710,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>698</v>
       </c>
@@ -14479,7 +15832,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>737</v>
       </c>
@@ -14601,7 +15954,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.5">
+    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>759</v>
       </c>
@@ -14723,7 +16076,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.5">
+    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>797</v>
       </c>
@@ -14845,7 +16198,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.5">
+    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>835</v>
       </c>
@@ -14967,7 +16320,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.5">
+    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>874</v>
       </c>
@@ -15089,7 +16442,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.5">
+    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>912</v>
       </c>
@@ -15211,7 +16564,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -15253,7 +16606,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" ht="15">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
@@ -15297,7 +16650,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
@@ -15341,9 +16694,9 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -15385,9 +16738,9 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>2529</v>
+        <v>2654</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -15429,7 +16782,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>2511</v>
       </c>
@@ -15473,23 +16826,18 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -15502,173 +16850,178 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AN28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" customWidth="1"/>
-    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -15787,7 +17140,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>937</v>
       </c>
@@ -15909,7 +17262,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>975</v>
       </c>
@@ -16031,7 +17384,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>1010</v>
       </c>
@@ -16153,7 +17506,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>1048</v>
       </c>
@@ -16275,7 +17628,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>1084</v>
       </c>
@@ -16397,7 +17750,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.5">
+    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1440</v>
       </c>
@@ -16519,7 +17872,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.5">
+    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1120</v>
       </c>
@@ -16641,7 +17994,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.5">
+    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1156</v>
       </c>
@@ -16763,7 +18116,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.5">
+    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1193</v>
       </c>
@@ -16885,7 +18238,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.5">
+    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1227</v>
       </c>
@@ -17007,7 +18360,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="28.5">
+    <row r="14" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>1263</v>
       </c>
@@ -17129,7 +18482,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="28.5">
+    <row r="15" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>2102</v>
       </c>
@@ -17251,7 +18604,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="28.5">
+    <row r="16" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>1299</v>
       </c>
@@ -17373,7 +18726,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="28.5">
+    <row r="17" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>1333</v>
       </c>
@@ -17495,7 +18848,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="28.5">
+    <row r="18" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>1372</v>
       </c>
@@ -17617,7 +18970,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="28.5">
+    <row r="19" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>1407</v>
       </c>
@@ -17739,7 +19092,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="28.5">
+    <row r="20" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>2101</v>
       </c>
@@ -17900,48 +19253,43 @@
         <v>0.68 (0.11)</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="15">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>2529</v>
+        <v>2654</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>2511</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>2513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -17954,169 +19302,174 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -18235,7 +19588,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1478</v>
       </c>
@@ -18357,7 +19710,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1548</v>
       </c>
@@ -18479,7 +19832,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>1514</v>
       </c>
@@ -18601,7 +19954,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1580</v>
       </c>
@@ -18723,7 +20076,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="15">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>2508</v>
       </c>
@@ -18767,7 +20120,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>2518</v>
       </c>
@@ -18811,9 +20164,9 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -18855,9 +20208,9 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>2529</v>
+        <v>2654</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -18899,7 +20252,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>2511</v>
       </c>
@@ -18943,7 +20296,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>2512</v>
       </c>
@@ -18987,7 +20340,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>2513</v>
       </c>
@@ -19031,7 +20384,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -19073,7 +20426,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -19115,7 +20468,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -19157,7 +20510,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -19201,11 +20554,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -19218,169 +20566,174 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -19499,7 +20852,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1617</v>
       </c>
@@ -19621,7 +20974,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1649</v>
       </c>
@@ -19743,7 +21096,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>1681</v>
       </c>
@@ -19865,7 +21218,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>1717</v>
       </c>
@@ -19987,7 +21340,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1751</v>
       </c>
@@ -20109,7 +21462,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -20151,7 +21504,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" ht="15">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>2508</v>
       </c>
@@ -20195,7 +21548,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>2518</v>
       </c>
@@ -20239,9 +21592,9 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -20283,9 +21636,9 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>2529</v>
+        <v>2654</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -20327,7 +21680,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>2511</v>
       </c>
@@ -20371,7 +21724,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>2512</v>
       </c>
@@ -20415,9 +21768,9 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -20459,7 +21812,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -20501,7 +21854,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -20543,7 +21896,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -20587,11 +21940,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -20604,170 +21952,175 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A18"/>
+      <selection activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -20886,7 +22239,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1772</v>
       </c>
@@ -21008,7 +22361,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1806</v>
       </c>
@@ -21130,7 +22483,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>1842</v>
       </c>
@@ -21252,7 +22605,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>1880</v>
       </c>
@@ -21374,7 +22727,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1917</v>
       </c>
@@ -21496,66 +22849,66 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.5">
+    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>2536</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>2537</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>2538</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>447</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>2539</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>2540</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>410</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>2540</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>2541</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>2542</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>834</v>
       </c>
       <c r="K9" s="8" t="s">
+        <v>2542</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>2543</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>2544</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="N9" s="8" t="s">
         <v>2545</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="O9" s="8" t="s">
         <v>2546</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>2547</v>
       </c>
       <c r="P9" s="8" t="s">
         <v>1241</v>
       </c>
       <c r="Q9" s="8" t="s">
+        <v>2547</v>
+      </c>
+      <c r="R9" s="8" t="s">
         <v>2548</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="S9" s="8" t="s">
         <v>2549</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="T9" s="8" t="s">
         <v>2550</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>2551</v>
       </c>
       <c r="U9" s="8" t="s">
         <v>884</v>
@@ -21564,63 +22917,63 @@
         <v>1207</v>
       </c>
       <c r="W9" s="8" t="s">
+        <v>2551</v>
+      </c>
+      <c r="X9" s="8" t="s">
         <v>2552</v>
       </c>
-      <c r="X9" s="8" t="s">
+      <c r="Y9" s="8" t="s">
         <v>2553</v>
       </c>
-      <c r="Y9" s="8" t="s">
+      <c r="Z9" s="8" t="s">
         <v>2554</v>
       </c>
-      <c r="Z9" s="8" t="s">
+      <c r="AA9" s="8" t="s">
         <v>2555</v>
       </c>
-      <c r="AA9" s="8" t="s">
+      <c r="AB9" s="8" t="s">
         <v>2556</v>
       </c>
-      <c r="AB9" s="8" t="s">
+      <c r="AC9" s="8" t="s">
         <v>2557</v>
       </c>
-      <c r="AC9" s="8" t="s">
+      <c r="AD9" s="8" t="s">
         <v>2558</v>
       </c>
-      <c r="AD9" s="8" t="s">
+      <c r="AE9" s="8" t="s">
         <v>2559</v>
       </c>
-      <c r="AE9" s="8" t="s">
+      <c r="AF9" s="8" t="s">
         <v>2560</v>
       </c>
-      <c r="AF9" s="8" t="s">
+      <c r="AG9" s="8" t="s">
         <v>2561</v>
-      </c>
-      <c r="AG9" s="8" t="s">
-        <v>2562</v>
       </c>
       <c r="AH9" s="8" t="s">
         <v>691</v>
       </c>
       <c r="AI9" s="8" t="s">
+        <v>2562</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
         <v>2563</v>
-      </c>
-      <c r="AJ9" s="8" t="s">
-        <v>2564</v>
       </c>
       <c r="AK9" s="8" t="s">
         <v>419</v>
       </c>
       <c r="AL9" s="8" t="s">
+        <v>2564</v>
+      </c>
+      <c r="AM9" s="8" t="s">
         <v>2565</v>
       </c>
-      <c r="AM9" s="8" t="s">
+      <c r="AN9" s="8" t="s">
         <v>2566</v>
       </c>
-      <c r="AN9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>2567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" ht="42.75">
-      <c r="A10" s="3" t="s">
-        <v>2568</v>
       </c>
       <c r="B10" s="3" t="str" cm="1">
         <f t="array" ref="B10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(B4,B6:B7,B9)), FIND(" (", _xlfn.VSTACK(B4,B6:B7,B9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(B4,B6:B7,B9)), FIND(" (", _xlfn.VSTACK(B4,B6:B7,B9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
@@ -21779,7 +23132,7 @@
         <v>0.63 (0.15)</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -21820,7 +23173,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" ht="15">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>2508</v>
       </c>
@@ -21864,7 +23217,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>2518</v>
       </c>
@@ -21908,9 +23261,9 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -21952,9 +23305,9 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>2529</v>
+        <v>2654</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -21996,9 +23349,9 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -22040,7 +23393,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2512</v>
       </c>
@@ -22084,9 +23437,9 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -22128,7 +23481,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -22171,11 +23524,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -22188,169 +23536,174 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A16"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -22469,7 +23822,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1954</v>
       </c>
@@ -22591,7 +23944,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1988</v>
       </c>
@@ -22713,7 +24066,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2024</v>
       </c>
@@ -22835,7 +24188,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>2057</v>
       </c>
@@ -22957,7 +24310,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1937</v>
       </c>
@@ -23079,7 +24432,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -23121,7 +24474,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" ht="15">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>2508</v>
       </c>
@@ -23165,7 +24518,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>2518</v>
       </c>
@@ -23209,9 +24562,9 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -23253,9 +24606,9 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>2529</v>
+        <v>2654</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -23297,9 +24650,9 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -23341,7 +24694,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>2512</v>
       </c>
@@ -23385,9 +24738,9 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -23429,7 +24782,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -23471,7 +24824,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -23513,7 +24866,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -23557,11 +24910,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -23574,6 +24922,11 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\D\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009462E6-9656-4571-A7D3-6D72B12599F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3C7F32-8F44-4DB5-B8A9-36F6DAD9C7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3763" uniqueCount="2774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="2824">
   <si>
     <t>Run001</t>
   </si>
@@ -8392,6 +8392,156 @@
   </si>
   <si>
     <t>0.60 (0.05)</t>
+  </si>
+  <si>
+    <t>Run075</t>
+  </si>
+  <si>
+    <t>0.636 (0.424)</t>
+  </si>
+  <si>
+    <t>0.702 (0.184)</t>
+  </si>
+  <si>
+    <t>0.676 (0.375)</t>
+  </si>
+  <si>
+    <t>0.710 (0.147)</t>
+  </si>
+  <si>
+    <t>0.650 (0.479)</t>
+  </si>
+  <si>
+    <t>0.772 (0.363)</t>
+  </si>
+  <si>
+    <t>0.717 (0.166)</t>
+  </si>
+  <si>
+    <t>0.689 (0.400)</t>
+  </si>
+  <si>
+    <t>0.708 (0.170)</t>
+  </si>
+  <si>
+    <t>0.681 (0.466)</t>
+  </si>
+  <si>
+    <t>Run076</t>
+  </si>
+  <si>
+    <t>0.637 (0.423)</t>
+  </si>
+  <si>
+    <t>0.583 (0.218)</t>
+  </si>
+  <si>
+    <t>0.726 (0.370)</t>
+  </si>
+  <si>
+    <t>0.670 (0.205)</t>
+  </si>
+  <si>
+    <t>0.889 (0.266)</t>
+  </si>
+  <si>
+    <t>0.781 (0.142)</t>
+  </si>
+  <si>
+    <t>0.914 (0.281)</t>
+  </si>
+  <si>
+    <t>0.745 (0.380)</t>
+  </si>
+  <si>
+    <t>0.657 (0.214)</t>
+  </si>
+  <si>
+    <t>Run077</t>
+  </si>
+  <si>
+    <t>0.640 (0.420)</t>
+  </si>
+  <si>
+    <t>0.729 (0.157)</t>
+  </si>
+  <si>
+    <t>0.600 (0.490)</t>
+  </si>
+  <si>
+    <t>0.631 (0.392)</t>
+  </si>
+  <si>
+    <t>0.667 (0.157)</t>
+  </si>
+  <si>
+    <t>0.607 (0.491)</t>
+  </si>
+  <si>
+    <t>0.365 (0.414)</t>
+  </si>
+  <si>
+    <t>0.541 (0.220)</t>
+  </si>
+  <si>
+    <t>0.289 (0.454)</t>
+  </si>
+  <si>
+    <t>0.520 (0.435)</t>
+  </si>
+  <si>
+    <t>0.642 (0.205)</t>
+  </si>
+  <si>
+    <t>Run078</t>
+  </si>
+  <si>
+    <t>0.783 (0.324)</t>
+  </si>
+  <si>
+    <t>0.701 (0.122)</t>
+  </si>
+  <si>
+    <t>0.824 (0.263)</t>
+  </si>
+  <si>
+    <t>0.775 (0.120)</t>
+  </si>
+  <si>
+    <t>0.661 (0.411)</t>
+  </si>
+  <si>
+    <t>0.666 (0.150)</t>
+  </si>
+  <si>
+    <t>0.745 (0.355)</t>
+  </si>
+  <si>
+    <t>Iteration22</t>
+  </si>
+  <si>
+    <t>0.67 (0.06)</t>
+  </si>
+  <si>
+    <t>0.67 (0.09)</t>
+  </si>
+  <si>
+    <t>0.71 (0.07)</t>
+  </si>
+  <si>
+    <t>0.72 (0.10)</t>
+  </si>
+  <si>
+    <t>0.67 (0.19)</t>
+  </si>
+  <si>
+    <t>0.66 (0.23)</t>
+  </si>
+  <si>
+    <t>0.68 (0.03)</t>
+  </si>
+  <si>
+    <t>0.67 (0.13)</t>
   </si>
 </sst>
 </file>
@@ -8427,7 +8577,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8476,6 +8626,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB9B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8989"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5353"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD5D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8517,7 +8691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8581,6 +8755,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8589,6 +8775,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFD5D5"/>
+      <color rgb="FFFF5353"/>
+      <color rgb="FFFFB9B9"/>
+      <color rgb="FFFFEBEB"/>
+      <color rgb="FFFF8989"/>
+      <color rgb="FFFFFFFF"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
@@ -10266,6 +10458,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="B2:D2"/>
@@ -10277,12 +10475,6 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10714,12 +10906,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="B2:D2"/>
@@ -10731,6 +10917,12 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10738,10 +10930,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11039,43 +11231,248 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>2508</v>
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>2776</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>2777</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>2778</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>2779</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>2780</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>2781</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>816</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>2782</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>2783</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>2784</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>2518</v>
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>2786</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>2788</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>2789</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>2790</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>2791</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>2792</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>2793</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>2794</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>1226</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>2530</v>
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>2797</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>2798</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>2799</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>2800</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>2801</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>2802</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>2803</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>2804</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>2805</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>2806</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>1616</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>2654</v>
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>877</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>2811</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>710</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>2813</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>2814</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>1654</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>1290</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>2534</v>
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>2819</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>2820</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>2821</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>2817</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>2822</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>2823</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>2512</v>
+      <c r="A15" s="16" t="s">
+        <v>2508</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>2533</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
         <v>2701</v>
       </c>
     </row>
@@ -13580,6 +13977,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="AC1:AE2"/>
@@ -13596,7 +13994,6 @@
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15046,6 +15443,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -15059,10 +15460,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16838,6 +17235,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -16851,10 +17252,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19290,6 +19687,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -19303,10 +19704,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20554,6 +20951,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -20567,10 +20968,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21940,6 +22337,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -21953,10 +22354,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23524,6 +23921,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -23537,10 +23938,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24910,6 +25307,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -24923,10 +25324,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\D\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3C7F32-8F44-4DB5-B8A9-36F6DAD9C7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4E274E-328C-48E3-A667-B90707BA994B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Preliminar" sheetId="9" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="2824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="2877">
   <si>
     <t>Run001</t>
   </si>
@@ -8542,6 +8542,165 @@
   </si>
   <si>
     <t>0.67 (0.13)</t>
+  </si>
+  <si>
+    <t>Run079</t>
+  </si>
+  <si>
+    <t>0.661 (0.421)</t>
+  </si>
+  <si>
+    <t>0.802 (0.143)</t>
+  </si>
+  <si>
+    <t>0.590 (0.492)</t>
+  </si>
+  <si>
+    <t>0.856 (0.123)</t>
+  </si>
+  <si>
+    <t>0.913 (0.252)</t>
+  </si>
+  <si>
+    <t>0.637 (0.246)</t>
+  </si>
+  <si>
+    <t>0.941 (0.236)</t>
+  </si>
+  <si>
+    <t>0.782 (0.372)</t>
+  </si>
+  <si>
+    <t>0.790 (0.169)</t>
+  </si>
+  <si>
+    <t>Run080</t>
+  </si>
+  <si>
+    <t>0.675 (0.408)</t>
+  </si>
+  <si>
+    <t>0.626 (0.188)</t>
+  </si>
+  <si>
+    <t>0.693 (0.462)</t>
+  </si>
+  <si>
+    <t>0.761 (0.405)</t>
+  </si>
+  <si>
+    <t>0.909 (0.097)</t>
+  </si>
+  <si>
+    <t>0.896 (0.260)</t>
+  </si>
+  <si>
+    <t>0.706 (0.155)</t>
+  </si>
+  <si>
+    <t>0.927 (0.260)</t>
+  </si>
+  <si>
+    <t>0.771 (0.373)</t>
+  </si>
+  <si>
+    <t>0.701 (0.198)</t>
+  </si>
+  <si>
+    <t>0.790 (0.407)</t>
+  </si>
+  <si>
+    <t>Run081</t>
+  </si>
+  <si>
+    <t>0.897 (0.291)</t>
+  </si>
+  <si>
+    <t>0.629 (0.318)</t>
+  </si>
+  <si>
+    <t>0.913 (0.283)</t>
+  </si>
+  <si>
+    <t>0.923 (0.205)</t>
+  </si>
+  <si>
+    <t>0.948 (0.223)</t>
+  </si>
+  <si>
+    <t>0.875 (0.287)</t>
+  </si>
+  <si>
+    <t>0.857 (0.095)</t>
+  </si>
+  <si>
+    <t>0.880 (0.325)</t>
+  </si>
+  <si>
+    <t>0.891 (0.280)</t>
+  </si>
+  <si>
+    <t>0.829 (0.174)</t>
+  </si>
+  <si>
+    <t>0.904 (0.295)</t>
+  </si>
+  <si>
+    <t>Run082</t>
+  </si>
+  <si>
+    <t>0.790 (0.384)</t>
+  </si>
+  <si>
+    <t>0.876 (0.069)</t>
+  </si>
+  <si>
+    <t>0.843 (0.314)</t>
+  </si>
+  <si>
+    <t>0.826 (0.189)</t>
+  </si>
+  <si>
+    <t>0.934 (0.221)</t>
+  </si>
+  <si>
+    <t>0.731 (0.127)</t>
+  </si>
+  <si>
+    <t>0.852 (0.327)</t>
+  </si>
+  <si>
+    <t>0.837 (0.139)</t>
+  </si>
+  <si>
+    <t>0.855 (0.353)</t>
+  </si>
+  <si>
+    <t>Iteration23</t>
+  </si>
+  <si>
+    <t>0.76 (0.10)</t>
+  </si>
+  <si>
+    <t>0.74 (0.12)</t>
+  </si>
+  <si>
+    <t>0.85 (0.06)</t>
+  </si>
+  <si>
+    <t>0.86 (0.03)</t>
+  </si>
+  <si>
+    <t>0.84 (0.08)</t>
+  </si>
+  <si>
+    <t>0.90 (0.02)</t>
+  </si>
+  <si>
+    <t>0.92 (0.03)</t>
+  </si>
+  <si>
+    <t>0.83 (0.05)</t>
   </si>
 </sst>
 </file>
@@ -8577,7 +8736,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8650,6 +8809,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F5DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1EAB0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4E18F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8691,7 +8874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8752,9 +8935,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8767,6 +8947,21 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8775,13 +8970,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA4E18F"/>
+      <color rgb="FFC1EAB0"/>
+      <color rgb="FFE2F5DB"/>
+      <color rgb="FFD6F1CB"/>
       <color rgb="FFFFD5D5"/>
       <color rgb="FFFF5353"/>
       <color rgb="FFFFB9B9"/>
       <color rgb="FFFFEBEB"/>
       <color rgb="FFFF8989"/>
       <color rgb="FFFFFFFF"/>
-      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -9150,125 +9348,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -10458,12 +10656,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="B2:D2"/>
@@ -10475,6 +10667,12 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10520,125 +10718,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -10906,6 +11104,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="B2:D2"/>
@@ -10917,12 +11121,6 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10932,8 +11130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10942,53 +11140,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -11232,166 +11430,166 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>2774</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>2775</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>2776</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>1652</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>2777</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>2778</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="25" t="s">
         <v>2779</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="25" t="s">
         <v>2780</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="25" t="s">
         <v>2781</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="25" t="s">
         <v>816</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="25" t="s">
         <v>2782</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="25" t="s">
         <v>2783</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="25" t="s">
         <v>2784</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>2785</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>2786</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>2787</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>1230</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>2788</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>2789</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>1856</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="22" t="s">
         <v>2790</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="22" t="s">
         <v>2791</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="22" t="s">
         <v>2792</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="22" t="s">
         <v>2793</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="22" t="s">
         <v>2794</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="22" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>2795</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>2796</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>2797</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>2798</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>2799</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>2800</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>2801</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>2802</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="23" t="s">
         <v>2803</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="23" t="s">
         <v>2804</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="23" t="s">
         <v>2805</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="23" t="s">
         <v>2806</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="23" t="s">
         <v>1616</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>2807</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>2808</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>2809</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>877</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>2810</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="24" t="s">
         <v>2811</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="24" t="s">
         <v>710</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="24" t="s">
         <v>2812</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="24" t="s">
         <v>2813</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="24" t="s">
         <v>1170</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="24" t="s">
         <v>2814</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="24" t="s">
         <v>1654</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="24" t="s">
         <v>1290</v>
       </c>
     </row>
@@ -11493,10 +11691,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1EEC59-894B-4B52-815A-E545BB54A325}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K12" sqref="K12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11505,53 +11703,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -11794,43 +11992,248 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>2508</v>
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>2826</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>989</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>2828</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>1491</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>2829</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>2830</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>2831</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>2832</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>2833</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>2518</v>
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>2836</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>2837</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>2838</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>2839</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>2840</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>2841</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>2842</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>2843</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>2844</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>2845</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>2530</v>
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>2851</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>2852</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>2853</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>2854</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>2855</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>2856</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>2857</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>2654</v>
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>2861</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>2862</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>2863</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>2864</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>2865</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>2866</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>2867</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>2534</v>
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2870</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2871</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>2872</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>2873</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>2874</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>1952</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>2875</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>2876</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>2512</v>
+      <c r="A15" s="16" t="s">
+        <v>2508</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>2533</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
         <v>2700</v>
       </c>
     </row>
@@ -11853,8 +12256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6667545-6260-4094-9849-C7CB05A87B3A}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11863,53 +12266,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -12246,125 +12649,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -13977,11 +14380,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -13994,6 +14392,11 @@
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14038,125 +14441,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -15443,6 +15846,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -15459,7 +15863,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15504,125 +15907,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -17235,6 +17638,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -17251,7 +17655,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17300,125 +17703,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -19687,6 +20090,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -19703,7 +20107,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19713,7 +20116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -19748,125 +20151,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -20951,6 +21354,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -20967,7 +21371,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21012,125 +21415,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -22337,6 +22740,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -22353,7 +22757,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22363,7 +22766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
@@ -22399,125 +22802,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -23921,6 +24324,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -23937,7 +24341,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23947,7 +24350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -23982,125 +24385,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -25307,6 +25710,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -25323,7 +25727,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\D\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4E274E-328C-48E3-A667-B90707BA994B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D51D0E-7080-4A4C-A40C-D57C404EF10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Preliminar" sheetId="9" r:id="rId1"/>
@@ -8736,7 +8736,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8833,6 +8833,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6EA7E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8874,7 +8892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8947,9 +8965,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8962,6 +8977,18 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8970,6 +8997,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF6EA7E0"/>
       <color rgb="FFA4E18F"/>
       <color rgb="FFC1EAB0"/>
       <color rgb="FFE2F5DB"/>
@@ -8979,7 +9007,6 @@
       <color rgb="FFFFB9B9"/>
       <color rgb="FFFFEBEB"/>
       <color rgb="FFFF8989"/>
-      <color rgb="FFFFFFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -9348,125 +9375,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26" t="s">
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26" t="s">
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26" t="s">
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26" t="s">
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26" t="s">
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26" t="s">
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -10656,6 +10683,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="B2:D2"/>
@@ -10667,12 +10700,6 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10718,125 +10745,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26" t="s">
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26" t="s">
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26" t="s">
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26" t="s">
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26" t="s">
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26" t="s">
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -11104,12 +11131,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="B2:D2"/>
@@ -11121,6 +11142,12 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11140,53 +11167,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -11693,8 +11720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1EEC59-894B-4B52-815A-E545BB54A325}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:L12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11703,53 +11730,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -11993,166 +12020,166 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>2824</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>2825</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>2826</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>2827</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>989</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>2828</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>1491</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="27" t="s">
         <v>2829</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="27" t="s">
         <v>2830</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="27" t="s">
         <v>2831</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="27" t="s">
         <v>2832</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="27" t="s">
         <v>2833</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="27" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>2834</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>2835</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>2836</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>2837</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>2838</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="28" t="s">
         <v>2839</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="28" t="s">
         <v>2574</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="28" t="s">
         <v>2840</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="28" t="s">
         <v>2841</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="28" t="s">
         <v>2842</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="28" t="s">
         <v>2843</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="28" t="s">
         <v>2844</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="28" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>2846</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>2847</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>2848</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>2849</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>2850</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>1313</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="29" t="s">
         <v>2851</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="29" t="s">
         <v>2852</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="29" t="s">
         <v>2853</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="29" t="s">
         <v>2854</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="29" t="s">
         <v>2855</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="29" t="s">
         <v>2856</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="M11" s="29" t="s">
         <v>2857</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>2858</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>2859</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>2860</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>1368</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>2861</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="26" t="s">
         <v>2862</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="26" t="s">
         <v>1064</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="26" t="s">
         <v>2863</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="26" t="s">
         <v>2864</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="26" t="s">
         <v>722</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="26" t="s">
         <v>2865</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="26" t="s">
         <v>2866</v>
       </c>
-      <c r="M12" s="27" t="s">
+      <c r="M12" s="26" t="s">
         <v>2867</v>
       </c>
     </row>
@@ -12254,10 +12281,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6667545-6260-4094-9849-C7CB05A87B3A}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12266,53 +12293,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -12555,43 +12582,118 @@
         <v>2759</v>
       </c>
     </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>2508</v>
-      </c>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>2518</v>
-      </c>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>2530</v>
-      </c>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>2534</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>2512</v>
+      <c r="A15" s="16" t="s">
+        <v>2508</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>2533</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
         <v>2750</v>
       </c>
     </row>
@@ -12649,125 +12751,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26" t="s">
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26" t="s">
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26" t="s">
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26" t="s">
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26" t="s">
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26" t="s">
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -14380,6 +14482,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -14393,10 +14499,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14441,125 +14543,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26" t="s">
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26" t="s">
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26" t="s">
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26" t="s">
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26" t="s">
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26" t="s">
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -15846,11 +15948,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -15863,6 +15960,11 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15907,125 +16009,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26" t="s">
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26" t="s">
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26" t="s">
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26" t="s">
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26" t="s">
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26" t="s">
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -17638,11 +17740,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -17655,6 +17752,11 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17703,125 +17805,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26" t="s">
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26" t="s">
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26" t="s">
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26" t="s">
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26" t="s">
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26" t="s">
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -20090,11 +20192,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -20107,6 +20204,11 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20151,125 +20253,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26" t="s">
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26" t="s">
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26" t="s">
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26" t="s">
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26" t="s">
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26" t="s">
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -21354,11 +21456,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -21371,6 +21468,11 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21415,125 +21517,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26" t="s">
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26" t="s">
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26" t="s">
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26" t="s">
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26" t="s">
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26" t="s">
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -22740,11 +22842,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -22757,6 +22854,11 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22766,8 +22868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AO8" sqref="AO8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22802,125 +22904,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26" t="s">
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26" t="s">
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26" t="s">
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26" t="s">
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26" t="s">
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26" t="s">
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -24324,11 +24426,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -24341,6 +24438,11 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24385,125 +24487,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26" t="s">
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26" t="s">
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26" t="s">
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26" t="s">
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26" t="s">
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26" t="s">
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -25710,11 +25812,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -25727,6 +25824,11 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\D\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D51D0E-7080-4A4C-A40C-D57C404EF10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451EA349-2294-496F-BD36-55D3D9D3D50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="2877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3958" uniqueCount="2929">
   <si>
     <t>Run001</t>
   </si>
@@ -8701,6 +8701,162 @@
   </si>
   <si>
     <t>0.83 (0.05)</t>
+  </si>
+  <si>
+    <t>Run083</t>
+  </si>
+  <si>
+    <t>0.432 (0.428)</t>
+  </si>
+  <si>
+    <t>0.498 (0.128)</t>
+  </si>
+  <si>
+    <t>0.602 (0.463)</t>
+  </si>
+  <si>
+    <t>0.789 (0.164)</t>
+  </si>
+  <si>
+    <t>0.560 (0.498)</t>
+  </si>
+  <si>
+    <t>0.752 (0.395)</t>
+  </si>
+  <si>
+    <t>0.683 (0.164)</t>
+  </si>
+  <si>
+    <t>0.571 (0.447)</t>
+  </si>
+  <si>
+    <t>0.590 (0.184)</t>
+  </si>
+  <si>
+    <t>0.566 (0.496)</t>
+  </si>
+  <si>
+    <t>Run084</t>
+  </si>
+  <si>
+    <t>0.308 (0.417)</t>
+  </si>
+  <si>
+    <t>0.617 (0.203)</t>
+  </si>
+  <si>
+    <t>0.229 (0.421)</t>
+  </si>
+  <si>
+    <t>0.532 (0.446)</t>
+  </si>
+  <si>
+    <t>0.735 (0.186)</t>
+  </si>
+  <si>
+    <t>0.437 (0.498)</t>
+  </si>
+  <si>
+    <t>0.625 (0.427)</t>
+  </si>
+  <si>
+    <t>0.715 (0.171)</t>
+  </si>
+  <si>
+    <t>0.585 (0.493)</t>
+  </si>
+  <si>
+    <t>0.463 (0.450)</t>
+  </si>
+  <si>
+    <t>0.684 (0.193)</t>
+  </si>
+  <si>
+    <t>Run085</t>
+  </si>
+  <si>
+    <t>0.638 (0.448)</t>
+  </si>
+  <si>
+    <t>0.655 (0.107)</t>
+  </si>
+  <si>
+    <t>0.635 (0.482)</t>
+  </si>
+  <si>
+    <t>0.577 (0.421)</t>
+  </si>
+  <si>
+    <t>0.767 (0.120)</t>
+  </si>
+  <si>
+    <t>0.443 (0.499)</t>
+  </si>
+  <si>
+    <t>0.686 (0.411)</t>
+  </si>
+  <si>
+    <t>0.767 (0.146)</t>
+  </si>
+  <si>
+    <t>0.653 (0.477)</t>
+  </si>
+  <si>
+    <t>0.651 (0.430)</t>
+  </si>
+  <si>
+    <t>0.738 (0.140)</t>
+  </si>
+  <si>
+    <t>Run086</t>
+  </si>
+  <si>
+    <t>0.488 (0.466)</t>
+  </si>
+  <si>
+    <t>0.641 (0.236)</t>
+  </si>
+  <si>
+    <t>0.504 (0.466)</t>
+  </si>
+  <si>
+    <t>0.784 (0.119)</t>
+  </si>
+  <si>
+    <t>0.684 (0.436)</t>
+  </si>
+  <si>
+    <t>0.514 (0.178)</t>
+  </si>
+  <si>
+    <t>0.707 (0.455)</t>
+  </si>
+  <si>
+    <t>0.563 (0.464)</t>
+  </si>
+  <si>
+    <t>0.640 (0.221)</t>
+  </si>
+  <si>
+    <t>Iteration24</t>
+  </si>
+  <si>
+    <t>0.43 (0.14)</t>
+  </si>
+  <si>
+    <t>0.77 (0.02)</t>
+  </si>
+  <si>
+    <t>0.47 (0.05)</t>
+  </si>
+  <si>
+    <t>0.69 (0.05)</t>
+  </si>
+  <si>
+    <t>0.68 (0.07)</t>
+  </si>
+  <si>
+    <t>0.53 (0.09)</t>
   </si>
 </sst>
 </file>
@@ -8977,9 +9133,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8988,6 +9141,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9375,125 +9531,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30" t="s">
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30" t="s">
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -10683,12 +10839,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="B2:D2"/>
@@ -10700,6 +10850,12 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10745,125 +10901,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30" t="s">
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30" t="s">
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -11131,6 +11287,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="B2:D2"/>
@@ -11142,12 +11304,6 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11158,7 +11314,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:L12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11167,53 +11323,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -11720,8 +11876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1EEC59-894B-4B52-815A-E545BB54A325}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11730,53 +11886,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -12284,7 +12440,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12293,53 +12449,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -12582,80 +12738,210 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>2880</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>2881</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>2882</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>2883</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>2884</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>2885</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>2886</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>2887</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>2891</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>2892</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>2894</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>2895</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>2896</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>2897</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>2898</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>2899</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>1841</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>2901</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>2903</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>2904</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>2905</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>2906</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>2907</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>2908</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>2909</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>2910</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>2911</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>526</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>2916</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>2917</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>2918</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>2919</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>2920</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>2921</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>1657</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>2926</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>2927</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>2757</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>2928</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
@@ -12751,125 +13037,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30" t="s">
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30" t="s">
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -14482,6 +14768,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="AC1:AE2"/>
@@ -14498,7 +14785,6 @@
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14543,125 +14829,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30" t="s">
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30" t="s">
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -15948,6 +16234,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -15961,10 +16251,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16009,125 +16295,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30" t="s">
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30" t="s">
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -17740,6 +18026,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -17753,10 +18043,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17805,125 +18091,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30" t="s">
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30" t="s">
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -20192,6 +20478,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -20205,10 +20495,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20253,125 +20539,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30" t="s">
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30" t="s">
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -21456,6 +21742,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -21469,10 +21759,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21517,125 +21803,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30" t="s">
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30" t="s">
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -22842,6 +23128,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -22855,10 +23145,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22904,125 +23190,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30" t="s">
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30" t="s">
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -24426,6 +24712,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -24439,10 +24729,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24487,125 +24773,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30" t="s">
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30" t="s">
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -25812,6 +26098,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -25825,10 +26115,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\D\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DavidTerroso\D\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451EA349-2294-496F-BD36-55D3D9D3D50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Preliminar" sheetId="9" r:id="rId1"/>
@@ -48,14 +47,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3958" uniqueCount="2929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3958" uniqueCount="2936">
   <si>
     <t>Run001</t>
   </si>
@@ -8397,473 +8396,494 @@
     <t>Run075</t>
   </si>
   <si>
-    <t>0.636 (0.424)</t>
-  </si>
-  <si>
-    <t>0.702 (0.184)</t>
-  </si>
-  <si>
-    <t>0.676 (0.375)</t>
-  </si>
-  <si>
-    <t>0.710 (0.147)</t>
-  </si>
-  <si>
-    <t>0.650 (0.479)</t>
-  </si>
-  <si>
-    <t>0.772 (0.363)</t>
-  </si>
-  <si>
-    <t>0.717 (0.166)</t>
-  </si>
-  <si>
-    <t>0.689 (0.400)</t>
-  </si>
-  <si>
-    <t>0.708 (0.170)</t>
-  </si>
-  <si>
-    <t>0.681 (0.466)</t>
-  </si>
-  <si>
     <t>Run076</t>
   </si>
   <si>
-    <t>0.637 (0.423)</t>
-  </si>
-  <si>
-    <t>0.583 (0.218)</t>
-  </si>
-  <si>
-    <t>0.726 (0.370)</t>
-  </si>
-  <si>
-    <t>0.670 (0.205)</t>
-  </si>
-  <si>
-    <t>0.889 (0.266)</t>
-  </si>
-  <si>
-    <t>0.781 (0.142)</t>
-  </si>
-  <si>
-    <t>0.914 (0.281)</t>
-  </si>
-  <si>
-    <t>0.745 (0.380)</t>
-  </si>
-  <si>
-    <t>0.657 (0.214)</t>
-  </si>
-  <si>
     <t>Run077</t>
   </si>
   <si>
-    <t>0.640 (0.420)</t>
-  </si>
-  <si>
-    <t>0.729 (0.157)</t>
-  </si>
-  <si>
-    <t>0.600 (0.490)</t>
-  </si>
-  <si>
-    <t>0.631 (0.392)</t>
-  </si>
-  <si>
-    <t>0.667 (0.157)</t>
-  </si>
-  <si>
-    <t>0.607 (0.491)</t>
-  </si>
-  <si>
-    <t>0.365 (0.414)</t>
-  </si>
-  <si>
-    <t>0.541 (0.220)</t>
-  </si>
-  <si>
-    <t>0.289 (0.454)</t>
-  </si>
-  <si>
-    <t>0.520 (0.435)</t>
-  </si>
-  <si>
-    <t>0.642 (0.205)</t>
-  </si>
-  <si>
     <t>Run078</t>
   </si>
   <si>
-    <t>0.783 (0.324)</t>
-  </si>
-  <si>
-    <t>0.701 (0.122)</t>
-  </si>
-  <si>
-    <t>0.824 (0.263)</t>
-  </si>
-  <si>
-    <t>0.775 (0.120)</t>
-  </si>
-  <si>
-    <t>0.661 (0.411)</t>
-  </si>
-  <si>
-    <t>0.666 (0.150)</t>
-  </si>
-  <si>
-    <t>0.745 (0.355)</t>
-  </si>
-  <si>
     <t>Iteration22</t>
   </si>
   <si>
-    <t>0.67 (0.06)</t>
-  </si>
-  <si>
-    <t>0.67 (0.09)</t>
-  </si>
-  <si>
-    <t>0.71 (0.07)</t>
-  </si>
-  <si>
-    <t>0.72 (0.10)</t>
-  </si>
-  <si>
-    <t>0.67 (0.19)</t>
-  </si>
-  <si>
-    <t>0.66 (0.23)</t>
-  </si>
-  <si>
-    <t>0.68 (0.03)</t>
-  </si>
-  <si>
-    <t>0.67 (0.13)</t>
-  </si>
-  <si>
     <t>Run079</t>
   </si>
   <si>
-    <t>0.661 (0.421)</t>
-  </si>
-  <si>
-    <t>0.802 (0.143)</t>
-  </si>
-  <si>
-    <t>0.590 (0.492)</t>
-  </si>
-  <si>
-    <t>0.856 (0.123)</t>
-  </si>
-  <si>
-    <t>0.913 (0.252)</t>
-  </si>
-  <si>
-    <t>0.637 (0.246)</t>
-  </si>
-  <si>
-    <t>0.941 (0.236)</t>
-  </si>
-  <si>
-    <t>0.782 (0.372)</t>
-  </si>
-  <si>
-    <t>0.790 (0.169)</t>
-  </si>
-  <si>
     <t>Run080</t>
   </si>
   <si>
-    <t>0.675 (0.408)</t>
-  </si>
-  <si>
-    <t>0.626 (0.188)</t>
-  </si>
-  <si>
-    <t>0.693 (0.462)</t>
-  </si>
-  <si>
-    <t>0.761 (0.405)</t>
-  </si>
-  <si>
-    <t>0.909 (0.097)</t>
-  </si>
-  <si>
-    <t>0.896 (0.260)</t>
-  </si>
-  <si>
-    <t>0.706 (0.155)</t>
-  </si>
-  <si>
-    <t>0.927 (0.260)</t>
-  </si>
-  <si>
-    <t>0.771 (0.373)</t>
-  </si>
-  <si>
-    <t>0.701 (0.198)</t>
-  </si>
-  <si>
-    <t>0.790 (0.407)</t>
-  </si>
-  <si>
     <t>Run081</t>
   </si>
   <si>
-    <t>0.897 (0.291)</t>
-  </si>
-  <si>
-    <t>0.629 (0.318)</t>
-  </si>
-  <si>
-    <t>0.913 (0.283)</t>
-  </si>
-  <si>
-    <t>0.923 (0.205)</t>
-  </si>
-  <si>
-    <t>0.948 (0.223)</t>
-  </si>
-  <si>
-    <t>0.875 (0.287)</t>
-  </si>
-  <si>
-    <t>0.857 (0.095)</t>
-  </si>
-  <si>
-    <t>0.880 (0.325)</t>
-  </si>
-  <si>
-    <t>0.891 (0.280)</t>
-  </si>
-  <si>
-    <t>0.829 (0.174)</t>
-  </si>
-  <si>
-    <t>0.904 (0.295)</t>
-  </si>
-  <si>
     <t>Run082</t>
   </si>
   <si>
-    <t>0.790 (0.384)</t>
-  </si>
-  <si>
-    <t>0.876 (0.069)</t>
-  </si>
-  <si>
-    <t>0.843 (0.314)</t>
-  </si>
-  <si>
-    <t>0.826 (0.189)</t>
-  </si>
-  <si>
-    <t>0.934 (0.221)</t>
-  </si>
-  <si>
-    <t>0.731 (0.127)</t>
-  </si>
-  <si>
-    <t>0.852 (0.327)</t>
-  </si>
-  <si>
-    <t>0.837 (0.139)</t>
-  </si>
-  <si>
-    <t>0.855 (0.353)</t>
-  </si>
-  <si>
     <t>Iteration23</t>
   </si>
   <si>
-    <t>0.76 (0.10)</t>
-  </si>
-  <si>
-    <t>0.74 (0.12)</t>
-  </si>
-  <si>
-    <t>0.85 (0.06)</t>
-  </si>
-  <si>
-    <t>0.86 (0.03)</t>
-  </si>
-  <si>
-    <t>0.84 (0.08)</t>
-  </si>
-  <si>
-    <t>0.90 (0.02)</t>
-  </si>
-  <si>
-    <t>0.92 (0.03)</t>
-  </si>
-  <si>
-    <t>0.83 (0.05)</t>
-  </si>
-  <si>
     <t>Run083</t>
   </si>
   <si>
-    <t>0.432 (0.428)</t>
-  </si>
-  <si>
-    <t>0.498 (0.128)</t>
-  </si>
-  <si>
-    <t>0.602 (0.463)</t>
-  </si>
-  <si>
-    <t>0.789 (0.164)</t>
-  </si>
-  <si>
-    <t>0.560 (0.498)</t>
-  </si>
-  <si>
-    <t>0.752 (0.395)</t>
-  </si>
-  <si>
-    <t>0.683 (0.164)</t>
-  </si>
-  <si>
-    <t>0.571 (0.447)</t>
-  </si>
-  <si>
-    <t>0.590 (0.184)</t>
-  </si>
-  <si>
-    <t>0.566 (0.496)</t>
-  </si>
-  <si>
     <t>Run084</t>
   </si>
   <si>
-    <t>0.308 (0.417)</t>
-  </si>
-  <si>
-    <t>0.617 (0.203)</t>
-  </si>
-  <si>
-    <t>0.229 (0.421)</t>
-  </si>
-  <si>
-    <t>0.532 (0.446)</t>
-  </si>
-  <si>
-    <t>0.735 (0.186)</t>
-  </si>
-  <si>
-    <t>0.437 (0.498)</t>
-  </si>
-  <si>
-    <t>0.625 (0.427)</t>
-  </si>
-  <si>
-    <t>0.715 (0.171)</t>
-  </si>
-  <si>
     <t>0.585 (0.493)</t>
   </si>
   <si>
-    <t>0.463 (0.450)</t>
-  </si>
-  <si>
-    <t>0.684 (0.193)</t>
-  </si>
-  <si>
     <t>Run085</t>
   </si>
   <si>
-    <t>0.638 (0.448)</t>
-  </si>
-  <si>
-    <t>0.655 (0.107)</t>
-  </si>
-  <si>
-    <t>0.635 (0.482)</t>
-  </si>
-  <si>
-    <t>0.577 (0.421)</t>
-  </si>
-  <si>
-    <t>0.767 (0.120)</t>
-  </si>
-  <si>
-    <t>0.443 (0.499)</t>
-  </si>
-  <si>
-    <t>0.686 (0.411)</t>
-  </si>
-  <si>
-    <t>0.767 (0.146)</t>
-  </si>
-  <si>
-    <t>0.653 (0.477)</t>
-  </si>
-  <si>
-    <t>0.651 (0.430)</t>
-  </si>
-  <si>
-    <t>0.738 (0.140)</t>
-  </si>
-  <si>
     <t>Run086</t>
   </si>
   <si>
-    <t>0.488 (0.466)</t>
-  </si>
-  <si>
-    <t>0.641 (0.236)</t>
-  </si>
-  <si>
-    <t>0.504 (0.466)</t>
-  </si>
-  <si>
-    <t>0.784 (0.119)</t>
-  </si>
-  <si>
-    <t>0.684 (0.436)</t>
-  </si>
-  <si>
-    <t>0.514 (0.178)</t>
-  </si>
-  <si>
-    <t>0.707 (0.455)</t>
-  </si>
-  <si>
-    <t>0.563 (0.464)</t>
-  </si>
-  <si>
-    <t>0.640 (0.221)</t>
-  </si>
-  <si>
     <t>Iteration24</t>
   </si>
   <si>
-    <t>0.43 (0.14)</t>
-  </si>
-  <si>
-    <t>0.77 (0.02)</t>
-  </si>
-  <si>
-    <t>0.47 (0.05)</t>
-  </si>
-  <si>
-    <t>0.69 (0.05)</t>
-  </si>
-  <si>
-    <t>0.68 (0.07)</t>
-  </si>
-  <si>
-    <t>0.53 (0.09)</t>
+    <t>0.654 (0.412)</t>
+  </si>
+  <si>
+    <t>0.663 (0.246)</t>
+  </si>
+  <si>
+    <t>0.649 (0.478)</t>
+  </si>
+  <si>
+    <t>0.541 (0.386)</t>
+  </si>
+  <si>
+    <t>0.606 (0.218)</t>
+  </si>
+  <si>
+    <t>0.648 (0.409)</t>
+  </si>
+  <si>
+    <t>0.619 (0.196)</t>
+  </si>
+  <si>
+    <t>0.632 (0.408)</t>
+  </si>
+  <si>
+    <t>0.635 (0.225)</t>
+  </si>
+  <si>
+    <t>0.630 (0.483)</t>
+  </si>
+  <si>
+    <t>0.507 (0.428)</t>
+  </si>
+  <si>
+    <t>0.641 (0.157)</t>
+  </si>
+  <si>
+    <t>0.442 (0.497)</t>
+  </si>
+  <si>
+    <t>0.741 (0.338)</t>
+  </si>
+  <si>
+    <t>0.670 (0.179)</t>
+  </si>
+  <si>
+    <t>0.775 (0.379)</t>
+  </si>
+  <si>
+    <t>0.675 (0.221)</t>
+  </si>
+  <si>
+    <t>0.649 (0.418)</t>
+  </si>
+  <si>
+    <t>0.656 (0.180)</t>
+  </si>
+  <si>
+    <t>0.646 (0.478)</t>
+  </si>
+  <si>
+    <t>0.583 (0.455)</t>
+  </si>
+  <si>
+    <t>0.516 (0.279)</t>
+  </si>
+  <si>
+    <t>0.689 (0.344)</t>
+  </si>
+  <si>
+    <t>0.660 (0.184)</t>
+  </si>
+  <si>
+    <t>0.719 (0.451)</t>
+  </si>
+  <si>
+    <t>0.310 (0.419)</t>
+  </si>
+  <si>
+    <t>0.451 (0.251)</t>
+  </si>
+  <si>
+    <t>0.272 (0.446)</t>
+  </si>
+  <si>
+    <t>0.502 (0.450)</t>
+  </si>
+  <si>
+    <t>0.546 (0.256)</t>
+  </si>
+  <si>
+    <t>0.486 (0.500)</t>
+  </si>
+  <si>
+    <t>0.618 (0.419)</t>
+  </si>
+  <si>
+    <t>0.566 (0.248)</t>
+  </si>
+  <si>
+    <t>0.643 (0.480)</t>
+  </si>
+  <si>
+    <t>0.644 (0.433)</t>
+  </si>
+  <si>
+    <t>0.686 (0.127)</t>
+  </si>
+  <si>
+    <t>0.588 (0.417)</t>
+  </si>
+  <si>
+    <t>0.600 (0.198)</t>
+  </si>
+  <si>
+    <t>0.582 (0.494)</t>
+  </si>
+  <si>
+    <t>0.611 (0.421)</t>
+  </si>
+  <si>
+    <t>0.594 (0.220)</t>
+  </si>
+  <si>
+    <t>0.619 (0.486)</t>
+  </si>
+  <si>
+    <t>0.59 (0.05)</t>
+  </si>
+  <si>
+    <t>0.58 (0.08)</t>
+  </si>
+  <si>
+    <t>0.65 (0.07)</t>
+  </si>
+  <si>
+    <t>0.66 (0.03)</t>
+  </si>
+  <si>
+    <t>0.65 (0.12)</t>
+  </si>
+  <si>
+    <t>0.58 (0.17)</t>
+  </si>
+  <si>
+    <t>0.58 (0.19)</t>
+  </si>
+  <si>
+    <t>0.61 (0.04)</t>
+  </si>
+  <si>
+    <t>0.63 (0.12)</t>
+  </si>
+  <si>
+    <t>0.66 (0.08)</t>
+  </si>
+  <si>
+    <t>0.79 (0.06)</t>
+  </si>
+  <si>
+    <t>0.78 (0.08)</t>
+  </si>
+  <si>
+    <t>0.66 (0.06)</t>
+  </si>
+  <si>
+    <t>0.73 (0.05)</t>
+  </si>
+  <si>
+    <t>0.70 (0.04)</t>
+  </si>
+  <si>
+    <t>0.74 (0.07)</t>
+  </si>
+  <si>
+    <t>0.634 (0.451)</t>
+  </si>
+  <si>
+    <t>0.798 (0.127)</t>
+  </si>
+  <si>
+    <t>0.593 (0.492)</t>
+  </si>
+  <si>
+    <t>0.791 (0.366)</t>
+  </si>
+  <si>
+    <t>0.811 (0.183)</t>
+  </si>
+  <si>
+    <t>0.719 (0.422)</t>
+  </si>
+  <si>
+    <t>0.696 (0.273)</t>
+  </si>
+  <si>
+    <t>0.693 (0.430)</t>
+  </si>
+  <si>
+    <t>0.768 (0.203)</t>
+  </si>
+  <si>
+    <t>0.673 (0.469)</t>
+  </si>
+  <si>
+    <t>0.590 (0.405)</t>
+  </si>
+  <si>
+    <t>0.864 (0.307)</t>
+  </si>
+  <si>
+    <t>0.855 (0.157)</t>
+  </si>
+  <si>
+    <t>0.706 (0.163)</t>
+  </si>
+  <si>
+    <t>0.736 (0.378)</t>
+  </si>
+  <si>
+    <t>0.686 (0.194)</t>
+  </si>
+  <si>
+    <t>0.821 (0.357)</t>
+  </si>
+  <si>
+    <t>0.603 (0.266)</t>
+  </si>
+  <si>
+    <t>0.694 (0.409)</t>
+  </si>
+  <si>
+    <t>0.779 (0.173)</t>
+  </si>
+  <si>
+    <t>0.654 (0.477)</t>
+  </si>
+  <si>
+    <t>0.859 (0.334)</t>
+  </si>
+  <si>
+    <t>0.555 (0.336)</t>
+  </si>
+  <si>
+    <t>0.819 (0.359)</t>
+  </si>
+  <si>
+    <t>0.654 (0.272)</t>
+  </si>
+  <si>
+    <t>0.487 (0.474)</t>
+  </si>
+  <si>
+    <t>0.602 (0.180)</t>
+  </si>
+  <si>
+    <t>0.471 (0.500)</t>
+  </si>
+  <si>
+    <t>0.815 (0.343)</t>
+  </si>
+  <si>
+    <t>0.798 (0.213)</t>
+  </si>
+  <si>
+    <t>0.822 (0.384)</t>
+  </si>
+  <si>
+    <t>0.876 (0.285)</t>
+  </si>
+  <si>
+    <t>0.689 (0.190)</t>
+  </si>
+  <si>
+    <t>0.687 (0.433)</t>
+  </si>
+  <si>
+    <t>0.693 (0.209)</t>
+  </si>
+  <si>
+    <t>0.398 (0.419)</t>
+  </si>
+  <si>
+    <t>0.475 (0.139)</t>
+  </si>
+  <si>
+    <t>0.369 (0.483)</t>
+  </si>
+  <si>
+    <t>0.683 (0.394)</t>
+  </si>
+  <si>
+    <t>0.644 (0.189)</t>
+  </si>
+  <si>
+    <t>0.701 (0.459)</t>
+  </si>
+  <si>
+    <t>0.607 (0.419)</t>
+  </si>
+  <si>
+    <t>0.566 (0.194)</t>
+  </si>
+  <si>
+    <t>0.625 (0.485)</t>
+  </si>
+  <si>
+    <t>0.525 (0.431)</t>
+  </si>
+  <si>
+    <t>0.541 (0.183)</t>
+  </si>
+  <si>
+    <t>0.518 (0.500)</t>
+  </si>
+  <si>
+    <t>0.283 (0.418)</t>
+  </si>
+  <si>
+    <t>0.504 (0.246)</t>
+  </si>
+  <si>
+    <t>0.244 (0.430)</t>
+  </si>
+  <si>
+    <t>0.495 (0.439)</t>
+  </si>
+  <si>
+    <t>0.636 (0.231)</t>
+  </si>
+  <si>
+    <t>0.428 (0.496)</t>
+  </si>
+  <si>
+    <t>0.434 (0.445)</t>
+  </si>
+  <si>
+    <t>0.537 (0.136)</t>
+  </si>
+  <si>
+    <t>0.407 (0.492)</t>
+  </si>
+  <si>
+    <t>0.373 (0.440)</t>
+  </si>
+  <si>
+    <t>0.555 (0.215)</t>
+  </si>
+  <si>
+    <t>0.327 (0.469)</t>
+  </si>
+  <si>
+    <t>0.374 (0.440)</t>
+  </si>
+  <si>
+    <t>0.592 (0.189)</t>
+  </si>
+  <si>
+    <t>0.320 (0.467)</t>
+  </si>
+  <si>
+    <t>0.293 (0.390)</t>
+  </si>
+  <si>
+    <t>0.556 (0.202)</t>
+  </si>
+  <si>
+    <t>0.196 (0.398)</t>
+  </si>
+  <si>
+    <t>0.555 (0.440)</t>
+  </si>
+  <si>
+    <t>0.485 (0.156)</t>
+  </si>
+  <si>
+    <t>0.577 (0.495)</t>
+  </si>
+  <si>
+    <t>0.426 (0.443)</t>
+  </si>
+  <si>
+    <t>0.543 (0.186)</t>
+  </si>
+  <si>
+    <t>0.392 (0.488)</t>
+  </si>
+  <si>
+    <t>0.592 (0.458)</t>
+  </si>
+  <si>
+    <t>0.622 (0.242)</t>
+  </si>
+  <si>
+    <t>0.482 (0.469)</t>
+  </si>
+  <si>
+    <t>0.690 (0.197)</t>
+  </si>
+  <si>
+    <t>0.438 (0.498)</t>
+  </si>
+  <si>
+    <t>0.764 (0.387)</t>
+  </si>
+  <si>
+    <t>0.680 (0.178)</t>
+  </si>
+  <si>
+    <t>0.652 (0.443)</t>
+  </si>
+  <si>
+    <t>0.655 (0.213)</t>
+  </si>
+  <si>
+    <t>0.41 (0.11)</t>
+  </si>
+  <si>
+    <t>0.55 (0.06)</t>
+  </si>
+  <si>
+    <t>0.49 (0.14)</t>
+  </si>
+  <si>
+    <t>0.63 (0.05)</t>
+  </si>
+  <si>
+    <t>0.44 (0.18)</t>
+  </si>
+  <si>
+    <t>0.59 (0.12)</t>
+  </si>
+  <si>
+    <t>0.57 (0.07)</t>
+  </si>
+  <si>
+    <t>0.60 (0.13)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9492,45 +9512,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="17"/>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="17"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
@@ -9588,7 +9608,7 @@
       <c r="AM1" s="33"/>
       <c r="AN1" s="33"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="33"/>
       <c r="B2" s="33" t="s">
         <v>2092</v>
@@ -9648,7 +9668,7 @@
       <c r="AM2" s="33"/>
       <c r="AN2" s="33"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -9768,7 +9788,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="15" t="s">
         <v>2217</v>
       </c>
@@ -9890,7 +9910,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="15" t="s">
         <v>2254</v>
       </c>
@@ -10012,7 +10032,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="15" t="s">
         <v>2290</v>
       </c>
@@ -10134,7 +10154,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="15" t="s">
         <v>2327</v>
       </c>
@@ -10256,7 +10276,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="15" t="s">
         <v>2362</v>
       </c>
@@ -10378,7 +10398,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="15" t="s">
         <v>2399</v>
       </c>
@@ -10500,7 +10520,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="28.5">
       <c r="A10" s="15" t="s">
         <v>2437</v>
       </c>
@@ -10622,7 +10642,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="28.5">
       <c r="A11" s="15" t="s">
         <v>2473</v>
       </c>
@@ -10744,15 +10764,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="15">
       <c r="A13" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="15">
       <c r="A14" s="17" t="s">
         <v>2509</v>
       </c>
@@ -10763,7 +10783,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="15">
       <c r="A15" s="17" t="s">
         <v>2528</v>
       </c>
@@ -10774,7 +10794,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="15">
       <c r="A16" s="17" t="s">
         <v>2510</v>
       </c>
@@ -10785,7 +10805,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" s="17" t="s">
         <v>2511</v>
       </c>
@@ -10796,7 +10816,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="17" t="s">
         <v>2512</v>
       </c>
@@ -10807,7 +10827,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19" s="17" t="s">
         <v>2513</v>
       </c>
@@ -10818,7 +10838,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15">
       <c r="A20" s="17" t="s">
         <v>2514</v>
       </c>
@@ -10829,13 +10849,461 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15">
       <c r="G21" s="18" t="s">
         <v>2473</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>2526</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AF1:AH2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40">
+      <c r="A1" s="33" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33" t="s">
+        <v>2098</v>
+      </c>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33" t="s">
+        <v>2099</v>
+      </c>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33" t="s">
+        <v>2096</v>
+      </c>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
+        <v>2096</v>
+      </c>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
+        <v>2097</v>
+      </c>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33" t="s">
+        <v>2092</v>
+      </c>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
+        <v>2096</v>
+      </c>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="33"/>
+      <c r="B3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="28.5">
+      <c r="A4" s="21" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>2584</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>2585</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>2586</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>2587</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>2589</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>2590</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>2591</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>2592</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>2593</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>2594</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>2595</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>2596</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>2597</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>2598</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>2599</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>2600</v>
+      </c>
+      <c r="W4" s="21" t="s">
+        <v>2601</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>2602</v>
+      </c>
+      <c r="Y4" s="21" t="s">
+        <v>2603</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>2605</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>2606</v>
+      </c>
+      <c r="AE4" s="21" t="s">
+        <v>2607</v>
+      </c>
+      <c r="AF4" s="21" t="s">
+        <v>2608</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>2609</v>
+      </c>
+      <c r="AH4" s="21" t="s">
+        <v>2610</v>
+      </c>
+      <c r="AI4" s="21" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
+        <v>2611</v>
+      </c>
+      <c r="AK4" s="21" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AL4" s="21" t="s">
+        <v>2612</v>
+      </c>
+      <c r="AM4" s="21" t="s">
+        <v>2613</v>
+      </c>
+      <c r="AN4" s="21" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="15">
+      <c r="A6" s="16" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" s="17" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" s="17"/>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="17"/>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="17"/>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="17"/>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -10857,472 +11325,24 @@
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="Z2:AB2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AN12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>2100</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>2091</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33" t="s">
-        <v>2098</v>
-      </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33" t="s">
-        <v>2099</v>
-      </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33" t="s">
-        <v>2092</v>
-      </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33" t="s">
-        <v>2096</v>
-      </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
-        <v>2092</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
-        <v>2096</v>
-      </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
-        <v>2097</v>
-      </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33" t="s">
-        <v>2092</v>
-      </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
-        <v>2096</v>
-      </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
-        <v>2097</v>
-      </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33" t="s">
-        <v>2092</v>
-      </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
-        <v>2096</v>
-      </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>2615</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>2580</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>2581</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>2582</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>2583</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>2584</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>2585</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>2586</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>2587</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>2588</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>2589</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>2590</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>2591</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>2592</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>2593</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>2594</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>2595</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>2596</v>
-      </c>
-      <c r="S4" s="21" t="s">
-        <v>2597</v>
-      </c>
-      <c r="T4" s="21" t="s">
-        <v>2598</v>
-      </c>
-      <c r="U4" s="21" t="s">
-        <v>2599</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>2600</v>
-      </c>
-      <c r="W4" s="21" t="s">
-        <v>2601</v>
-      </c>
-      <c r="X4" s="21" t="s">
-        <v>2602</v>
-      </c>
-      <c r="Y4" s="21" t="s">
-        <v>2603</v>
-      </c>
-      <c r="Z4" s="21" t="s">
-        <v>2604</v>
-      </c>
-      <c r="AA4" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB4" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="AC4" s="21" t="s">
-        <v>2605</v>
-      </c>
-      <c r="AD4" s="21" t="s">
-        <v>2606</v>
-      </c>
-      <c r="AE4" s="21" t="s">
-        <v>2607</v>
-      </c>
-      <c r="AF4" s="21" t="s">
-        <v>2608</v>
-      </c>
-      <c r="AG4" s="21" t="s">
-        <v>2609</v>
-      </c>
-      <c r="AH4" s="21" t="s">
-        <v>2610</v>
-      </c>
-      <c r="AI4" s="21" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AJ4" s="21" t="s">
-        <v>2611</v>
-      </c>
-      <c r="AK4" s="21" t="s">
-        <v>1257</v>
-      </c>
-      <c r="AL4" s="21" t="s">
-        <v>2612</v>
-      </c>
-      <c r="AM4" s="21" t="s">
-        <v>2613</v>
-      </c>
-      <c r="AN4" s="21" t="s">
-        <v>2614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AF1:AH2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
@@ -11347,7 +11367,7 @@
       <c r="L1" s="33"/>
       <c r="M1" s="33"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="33"/>
       <c r="B2" s="33" t="s">
         <v>2092</v>
@@ -11368,7 +11388,7 @@
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -11407,7 +11427,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="28.5">
       <c r="A4" s="6" t="s">
         <v>2568</v>
       </c>
@@ -11448,7 +11468,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="28.5">
       <c r="A5" s="8" t="s">
         <v>2617</v>
       </c>
@@ -11489,7 +11509,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="28.5">
       <c r="A6" s="10" t="s">
         <v>2630</v>
       </c>
@@ -11530,7 +11550,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="28.5">
       <c r="A7" s="12" t="s">
         <v>2642</v>
       </c>
@@ -11571,7 +11591,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="28.5">
       <c r="A8" s="3" t="s">
         <v>2769</v>
       </c>
@@ -11612,247 +11632,247 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="28.5">
       <c r="A9" s="25" t="s">
         <v>2774</v>
       </c>
       <c r="B9" s="25" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>2792</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>2793</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>2794</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>2035</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>2795</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>2796</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>2797</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>2798</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="28.5">
+      <c r="A10" s="22" t="s">
         <v>2775</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="B10" s="22" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>2802</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>2804</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>2805</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>2806</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>1623</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>2807</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>2808</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.5">
+      <c r="A11" s="23" t="s">
         <v>2776</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E9" s="25" t="s">
+      <c r="B11" s="23" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>2811</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>2812</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>2813</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>2814</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>2815</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>2816</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>2817</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>2818</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>2819</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="28.5">
+      <c r="A12" s="24" t="s">
         <v>2777</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="B12" s="24" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>2822</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>2824</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>2825</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>1781</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>2826</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>2827</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>2828</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>2829</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>2830</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28.5">
+      <c r="A13" s="3" t="s">
         <v>2778</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>2779</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>2780</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>2781</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>816</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>2782</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>2783</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>2784</v>
+      <c r="B13" s="3" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2833</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2834</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>2835</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>2836</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>2837</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>2838</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>1939</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>2839</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>1939</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>2785</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>2786</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>2787</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>2788</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>2789</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>1856</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>2790</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>2791</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>2792</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>2793</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>2794</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>2795</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>2796</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>2798</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>2799</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>2800</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>2801</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>2802</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>2803</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>2804</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>2805</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>2806</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>2807</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>2808</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>2809</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>877</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>2810</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>2811</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>710</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>2812</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>2813</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>1170</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>2814</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>1654</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>2815</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>2816</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>2817</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>2818</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>2819</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>2820</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>2821</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>2817</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>2822</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>2823</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="17" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="17" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="17" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="17" t="s">
         <v>2701</v>
       </c>
@@ -11873,19 +11893,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1EEC59-894B-4B52-815A-E545BB54A325}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
@@ -11910,7 +11930,7 @@
       <c r="L1" s="33"/>
       <c r="M1" s="33"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="33"/>
       <c r="B2" s="33" t="s">
         <v>2096</v>
@@ -11931,7 +11951,7 @@
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -11970,7 +11990,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="28.5">
       <c r="A4" s="6" t="s">
         <v>2655</v>
       </c>
@@ -12011,7 +12031,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="28.5">
       <c r="A5" s="8" t="s">
         <v>2667</v>
       </c>
@@ -12052,7 +12072,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="28.5">
       <c r="A6" s="10" t="s">
         <v>2679</v>
       </c>
@@ -12093,7 +12113,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="28.5">
       <c r="A7" s="12" t="s">
         <v>2688</v>
       </c>
@@ -12134,7 +12154,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="28.5">
       <c r="A8" s="3" t="s">
         <v>2760</v>
       </c>
@@ -12175,247 +12195,247 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="28.5">
       <c r="A9" s="27" t="s">
-        <v>2824</v>
+        <v>2779</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>2825</v>
+        <v>2848</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>2826</v>
+        <v>2849</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>2827</v>
+        <v>2850</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>989</v>
+        <v>2851</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>2828</v>
+        <v>2852</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>1491</v>
+        <v>2697</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>2829</v>
+        <v>2853</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>2830</v>
+        <v>2854</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>2831</v>
+        <v>1415</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>2832</v>
+        <v>2855</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>2833</v>
+        <v>2856</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>422</v>
+        <v>2857</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="28.5">
       <c r="A10" s="28" t="s">
-        <v>2834</v>
+        <v>2780</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>2835</v>
+        <v>2858</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>2836</v>
+        <v>2009</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>2837</v>
+        <v>589</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>2838</v>
+        <v>2859</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>2839</v>
+        <v>2860</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>2574</v>
+        <v>1737</v>
       </c>
       <c r="H10" s="28" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>2861</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>2862</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>2863</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.5">
+      <c r="A11" s="29" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>2865</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>2867</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>2868</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>2869</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>2870</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>2871</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>2872</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="28.5">
+      <c r="A12" s="26" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>2874</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>2875</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>2876</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>2877</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>2878</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>2879</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>2880</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>2071</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>2881</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>2882</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28.5">
+      <c r="A13" s="3" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>2840</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="C13" s="3" t="s">
         <v>2841</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="D13" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>2842</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="F13" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>2843</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="H13" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>2844</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="J13" s="3" t="s">
+        <v>2764</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>2845</v>
       </c>
+      <c r="L13" s="3" t="s">
+        <v>2846</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>2847</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>2846</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>2847</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>2848</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>2849</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>2850</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>1313</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>2851</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>2852</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>2853</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>2854</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>2855</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>2856</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>2857</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
-        <v>2858</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>2859</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>2860</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>2861</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>2862</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>2863</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>2864</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>722</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>2865</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>2866</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>2867</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>2868</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>2869</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1925</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>2870</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>2871</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>2872</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>2873</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>2874</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>1952</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>2875</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>2154</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>2876</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="17" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="17" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="17" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="17" t="s">
         <v>2700</v>
       </c>
@@ -12436,19 +12456,19 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6667545-6260-4094-9849-C7CB05A87B3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
@@ -12473,7 +12493,7 @@
       <c r="L1" s="33"/>
       <c r="M1" s="33"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="33"/>
       <c r="B2" s="33" t="s">
         <v>2097</v>
@@ -12494,7 +12514,7 @@
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -12533,7 +12553,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="28.5">
       <c r="A4" s="6" t="s">
         <v>2702</v>
       </c>
@@ -12574,7 +12594,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="28.5">
       <c r="A5" s="8" t="s">
         <v>2714</v>
       </c>
@@ -12615,7 +12635,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="28.5">
       <c r="A6" s="10" t="s">
         <v>2725</v>
       </c>
@@ -12656,7 +12676,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="28.5">
       <c r="A7" s="12" t="s">
         <v>2738</v>
       </c>
@@ -12697,7 +12717,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="28.5">
       <c r="A8" s="3" t="s">
         <v>2751</v>
       </c>
@@ -12738,247 +12758,247 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="28.5">
       <c r="A9" s="8" t="s">
-        <v>2877</v>
+        <v>2784</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>2878</v>
+        <v>2883</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>2879</v>
+        <v>2884</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>367</v>
+        <v>2885</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>2880</v>
+        <v>2886</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>2881</v>
+        <v>2887</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>2882</v>
+        <v>2888</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>2883</v>
+        <v>2889</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>2884</v>
+        <v>2890</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>643</v>
+        <v>2891</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>2885</v>
+        <v>2892</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>2886</v>
+        <v>2893</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>2887</v>
+        <v>2894</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="28.5">
       <c r="A10" s="30" t="s">
-        <v>2888</v>
+        <v>2785</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>2889</v>
+        <v>2895</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>2890</v>
+        <v>2896</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>2891</v>
+        <v>2897</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>2892</v>
+        <v>2898</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>2893</v>
+        <v>2899</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>2894</v>
+        <v>2900</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>2895</v>
+        <v>2901</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>2896</v>
+        <v>2902</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>2897</v>
+        <v>2903</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>2898</v>
+        <v>2904</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>2899</v>
+        <v>2905</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>1841</v>
+        <v>2906</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="28.5">
       <c r="A11" s="32" t="s">
-        <v>2900</v>
+        <v>2787</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>2901</v>
+        <v>2907</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>2902</v>
+        <v>2908</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>2903</v>
+        <v>2909</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>2904</v>
+        <v>2910</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>2905</v>
+        <v>2911</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>2906</v>
+        <v>2912</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>2907</v>
+        <v>2913</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>2908</v>
+        <v>2914</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>2909</v>
+        <v>2915</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>2910</v>
+        <v>2916</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>2911</v>
+        <v>2917</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>526</v>
+        <v>2918</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="28.5">
       <c r="A12" s="31" t="s">
-        <v>2912</v>
+        <v>2788</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>2913</v>
+        <v>2919</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>2914</v>
+        <v>2920</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>520</v>
+        <v>2786</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>2915</v>
+        <v>2921</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>2916</v>
+        <v>2922</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>291</v>
+        <v>2923</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>2917</v>
+        <v>2924</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>2918</v>
+        <v>2925</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>2919</v>
+        <v>1778</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>2920</v>
+        <v>2926</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>2921</v>
+        <v>2927</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>1657</v>
+        <v>697</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="28.5">
       <c r="A13" s="3" t="s">
-        <v>2922</v>
+        <v>2789</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2929</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2930</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>2931</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>2932</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>2933</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>2934</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>2935</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>1927</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>2115</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>1939</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>2923</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>1455</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>2924</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>2925</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>2926</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>2817</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>2927</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>2757</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>1458</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>2928</v>
-      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="17" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="17" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="17" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="17" t="s">
         <v>2750</v>
       </c>
@@ -12999,44 +13019,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
@@ -13094,7 +13114,7 @@
       <c r="AM1" s="33"/>
       <c r="AN1" s="33"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="33"/>
       <c r="B2" s="33" t="s">
         <v>2092</v>
@@ -13154,7 +13174,7 @@
       <c r="AM2" s="33"/>
       <c r="AN2" s="33"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -13274,7 +13294,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -13396,7 +13416,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
@@ -13518,7 +13538,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>80</v>
       </c>
@@ -13640,7 +13660,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>119</v>
       </c>
@@ -13762,7 +13782,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>311</v>
       </c>
@@ -13884,7 +13904,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="5" t="s">
         <v>158</v>
       </c>
@@ -14006,7 +14026,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="28.5">
       <c r="A10" s="7" t="s">
         <v>196</v>
       </c>
@@ -14128,7 +14148,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="28.5">
       <c r="A11" s="9" t="s">
         <v>234</v>
       </c>
@@ -14250,7 +14270,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="28.5">
       <c r="A12" s="11" t="s">
         <v>273</v>
       </c>
@@ -14372,7 +14392,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="28.5">
       <c r="A13" s="2" t="s">
         <v>336</v>
       </c>
@@ -14494,7 +14514,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -14536,7 +14556,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="15">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
@@ -14580,7 +14600,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2509</v>
       </c>
@@ -14624,7 +14644,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="17" t="s">
         <v>2527</v>
       </c>
@@ -14668,7 +14688,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="17" t="s">
         <v>2510</v>
       </c>
@@ -14712,7 +14732,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="17" t="s">
         <v>2511</v>
       </c>
@@ -14756,23 +14776,18 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40">
       <c r="A21" s="17" t="s">
         <v>2513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -14785,50 +14800,55 @@
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
@@ -14886,7 +14906,7 @@
       <c r="AM1" s="33"/>
       <c r="AN1" s="33"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="33"/>
       <c r="B2" s="33" t="s">
         <v>2092</v>
@@ -14946,7 +14966,7 @@
       <c r="AM2" s="33"/>
       <c r="AN2" s="33"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -15066,7 +15086,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>361</v>
       </c>
@@ -15188,7 +15208,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>401</v>
       </c>
@@ -15310,7 +15330,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>441</v>
       </c>
@@ -15432,7 +15452,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>478</v>
       </c>
@@ -15554,7 +15574,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>557</v>
       </c>
@@ -15676,7 +15696,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="7" t="s">
         <v>517</v>
       </c>
@@ -15798,7 +15818,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -15840,7 +15860,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="15">
       <c r="A11" s="16" t="s">
         <v>2508</v>
       </c>
@@ -15884,7 +15904,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12" s="17" t="s">
         <v>2515</v>
       </c>
@@ -15928,7 +15948,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2516</v>
       </c>
@@ -15972,7 +15992,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2510</v>
       </c>
@@ -16016,7 +16036,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2511</v>
       </c>
@@ -16060,7 +16080,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2517</v>
       </c>
@@ -16104,7 +16124,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="17" t="s">
         <v>2513</v>
       </c>
@@ -16148,7 +16168,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -16190,7 +16210,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -16234,6 +16254,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -16250,51 +16271,50 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
@@ -16352,7 +16372,7 @@
       <c r="AM1" s="33"/>
       <c r="AN1" s="33"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="33"/>
       <c r="B2" s="33" t="s">
         <v>2092</v>
@@ -16412,7 +16432,7 @@
       <c r="AM2" s="33"/>
       <c r="AN2" s="33"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -16532,7 +16552,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>580</v>
       </c>
@@ -16654,7 +16674,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>619</v>
       </c>
@@ -16776,7 +16796,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>658</v>
       </c>
@@ -16898,7 +16918,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>698</v>
       </c>
@@ -17020,7 +17040,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>737</v>
       </c>
@@ -17142,7 +17162,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="5" t="s">
         <v>759</v>
       </c>
@@ -17264,7 +17284,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="28.5">
       <c r="A10" s="7" t="s">
         <v>797</v>
       </c>
@@ -17386,7 +17406,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="28.5">
       <c r="A11" s="9" t="s">
         <v>835</v>
       </c>
@@ -17508,7 +17528,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="28.5">
       <c r="A12" s="11" t="s">
         <v>874</v>
       </c>
@@ -17630,7 +17650,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="28.5">
       <c r="A13" s="2" t="s">
         <v>912</v>
       </c>
@@ -17752,7 +17772,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -17794,7 +17814,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="15">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
@@ -17838,7 +17858,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
@@ -17882,7 +17902,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="17" t="s">
         <v>2531</v>
       </c>
@@ -17926,7 +17946,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="17" t="s">
         <v>2654</v>
       </c>
@@ -17970,7 +17990,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="17" t="s">
         <v>2511</v>
       </c>
@@ -18014,18 +18034,19 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40">
       <c r="A21" s="17" t="s">
         <v>2529</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -18042,55 +18063,54 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN28"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
@@ -18148,7 +18168,7 @@
       <c r="AM1" s="33"/>
       <c r="AN1" s="33"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="33"/>
       <c r="B2" s="33" t="s">
         <v>2092</v>
@@ -18208,7 +18228,7 @@
       <c r="AM2" s="33"/>
       <c r="AN2" s="33"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -18328,7 +18348,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>937</v>
       </c>
@@ -18450,7 +18470,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="5" t="s">
         <v>975</v>
       </c>
@@ -18572,7 +18592,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="5" t="s">
         <v>1010</v>
       </c>
@@ -18694,7 +18714,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="5" t="s">
         <v>1048</v>
       </c>
@@ -18816,7 +18836,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="5" t="s">
         <v>1084</v>
       </c>
@@ -18938,7 +18958,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="2" t="s">
         <v>1440</v>
       </c>
@@ -19060,7 +19080,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="28.5">
       <c r="A10" s="7" t="s">
         <v>1120</v>
       </c>
@@ -19182,7 +19202,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="28.5">
       <c r="A11" s="7" t="s">
         <v>1156</v>
       </c>
@@ -19304,7 +19324,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="28.5">
       <c r="A12" s="7" t="s">
         <v>1193</v>
       </c>
@@ -19426,7 +19446,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="28.5">
       <c r="A13" s="7" t="s">
         <v>1227</v>
       </c>
@@ -19548,7 +19568,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="28.5">
       <c r="A14" s="13" t="s">
         <v>1263</v>
       </c>
@@ -19670,7 +19690,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="28.5">
       <c r="A15" s="3" t="s">
         <v>2102</v>
       </c>
@@ -19792,7 +19812,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="28.5">
       <c r="A16" s="7" t="s">
         <v>1299</v>
       </c>
@@ -19914,7 +19934,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="28.5">
       <c r="A17" s="7" t="s">
         <v>1333</v>
       </c>
@@ -20036,7 +20056,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="28.5">
       <c r="A18" s="7" t="s">
         <v>1372</v>
       </c>
@@ -20158,7 +20178,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="28.5">
       <c r="A19" s="7" t="s">
         <v>1407</v>
       </c>
@@ -20280,7 +20300,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="28.5">
       <c r="A20" s="3" t="s">
         <v>2101</v>
       </c>
@@ -20441,43 +20461,44 @@
         <v>0.68 (0.11)</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="15">
       <c r="A22" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40">
       <c r="A23" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40">
       <c r="A24" s="17" t="s">
         <v>2531</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40">
       <c r="A25" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40">
       <c r="A26" s="17" t="s">
         <v>2511</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40">
       <c r="A27" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40">
       <c r="A28" s="17" t="s">
         <v>2513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -20494,51 +20515,50 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
@@ -20596,7 +20616,7 @@
       <c r="AM1" s="33"/>
       <c r="AN1" s="33"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="33"/>
       <c r="B2" s="33" t="s">
         <v>2092</v>
@@ -20656,7 +20676,7 @@
       <c r="AM2" s="33"/>
       <c r="AN2" s="33"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -20776,7 +20796,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>1478</v>
       </c>
@@ -20898,7 +20918,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>1548</v>
       </c>
@@ -21020,7 +21040,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="5" t="s">
         <v>1514</v>
       </c>
@@ -21142,7 +21162,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="7" t="s">
         <v>1580</v>
       </c>
@@ -21264,7 +21284,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="15">
       <c r="A9" s="16" t="s">
         <v>2508</v>
       </c>
@@ -21308,7 +21328,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40">
       <c r="A10" s="17" t="s">
         <v>2518</v>
       </c>
@@ -21352,7 +21372,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40">
       <c r="A11" s="17" t="s">
         <v>2532</v>
       </c>
@@ -21396,7 +21416,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12" s="17" t="s">
         <v>2654</v>
       </c>
@@ -21440,7 +21460,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2511</v>
       </c>
@@ -21484,7 +21504,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2512</v>
       </c>
@@ -21528,7 +21548,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2513</v>
       </c>
@@ -21572,7 +21592,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -21614,7 +21634,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -21656,7 +21676,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -21698,7 +21718,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -21742,6 +21762,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -21758,51 +21779,50 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
@@ -21860,7 +21880,7 @@
       <c r="AM1" s="33"/>
       <c r="AN1" s="33"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="33"/>
       <c r="B2" s="33" t="s">
         <v>2092</v>
@@ -21920,7 +21940,7 @@
       <c r="AM2" s="33"/>
       <c r="AN2" s="33"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -22040,7 +22060,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>1617</v>
       </c>
@@ -22162,7 +22182,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>1649</v>
       </c>
@@ -22284,7 +22304,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>1681</v>
       </c>
@@ -22406,7 +22426,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>1717</v>
       </c>
@@ -22528,7 +22548,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>1751</v>
       </c>
@@ -22650,7 +22670,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -22692,7 +22712,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="15">
       <c r="A10" s="16" t="s">
         <v>2508</v>
       </c>
@@ -22736,7 +22756,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40">
       <c r="A11" s="17" t="s">
         <v>2518</v>
       </c>
@@ -22780,7 +22800,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12" s="17" t="s">
         <v>2530</v>
       </c>
@@ -22824,7 +22844,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2654</v>
       </c>
@@ -22868,7 +22888,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2511</v>
       </c>
@@ -22912,7 +22932,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2512</v>
       </c>
@@ -22956,7 +22976,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2533</v>
       </c>
@@ -23000,7 +23020,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -23042,7 +23062,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -23084,7 +23104,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -23128,6 +23148,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -23144,52 +23165,51 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10:AE10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
@@ -23247,7 +23267,7 @@
       <c r="AM1" s="33"/>
       <c r="AN1" s="33"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="33"/>
       <c r="B2" s="33" t="s">
         <v>2092</v>
@@ -23307,7 +23327,7 @@
       <c r="AM2" s="33"/>
       <c r="AN2" s="33"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -23427,7 +23447,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>1772</v>
       </c>
@@ -23549,7 +23569,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>1806</v>
       </c>
@@ -23671,7 +23691,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>1842</v>
       </c>
@@ -23793,7 +23813,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>1880</v>
       </c>
@@ -23915,7 +23935,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>1917</v>
       </c>
@@ -24037,7 +24057,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="8" t="s">
         <v>2535</v>
       </c>
@@ -24159,7 +24179,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="42.75">
       <c r="A10" s="3" t="s">
         <v>2567</v>
       </c>
@@ -24320,7 +24340,7 @@
         <v>0.63 (0.15)</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -24361,7 +24381,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="15">
       <c r="A12" s="16" t="s">
         <v>2508</v>
       </c>
@@ -24405,7 +24425,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2518</v>
       </c>
@@ -24449,7 +24469,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2530</v>
       </c>
@@ -24493,7 +24513,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2654</v>
       </c>
@@ -24537,7 +24557,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2534</v>
       </c>
@@ -24581,7 +24601,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="17" t="s">
         <v>2512</v>
       </c>
@@ -24625,7 +24645,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="17" t="s">
         <v>2533</v>
       </c>
@@ -24669,7 +24689,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -24712,6 +24732,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -24728,51 +24749,50 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="A1" s="33" t="s">
         <v>2100</v>
       </c>
@@ -24830,7 +24850,7 @@
       <c r="AM1" s="33"/>
       <c r="AN1" s="33"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="33"/>
       <c r="B2" s="33" t="s">
         <v>2092</v>
@@ -24890,7 +24910,7 @@
       <c r="AM2" s="33"/>
       <c r="AN2" s="33"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -25010,7 +25030,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>1954</v>
       </c>
@@ -25132,7 +25152,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>1988</v>
       </c>
@@ -25254,7 +25274,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>2024</v>
       </c>
@@ -25376,7 +25396,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>2057</v>
       </c>
@@ -25498,7 +25518,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>1937</v>
       </c>
@@ -25620,7 +25640,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -25662,7 +25682,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="15">
       <c r="A10" s="16" t="s">
         <v>2508</v>
       </c>
@@ -25706,7 +25726,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40">
       <c r="A11" s="17" t="s">
         <v>2518</v>
       </c>
@@ -25750,7 +25770,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12" s="17" t="s">
         <v>2531</v>
       </c>
@@ -25794,7 +25814,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2654</v>
       </c>
@@ -25838,7 +25858,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2534</v>
       </c>
@@ -25882,7 +25902,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2512</v>
       </c>
@@ -25926,7 +25946,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2533</v>
       </c>
@@ -25970,7 +25990,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -26012,7 +26032,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -26054,7 +26074,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -26098,6 +26118,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -26114,7 +26135,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Preliminar" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="SRF" sheetId="12" r:id="rId12"/>
     <sheet name="PED" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3958" uniqueCount="2936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4056" uniqueCount="2972">
   <si>
     <t>Run001</t>
   </si>
@@ -8877,13 +8877,121 @@
   </si>
   <si>
     <t>0.60 (0.13)</t>
+  </si>
+  <si>
+    <t>Used the model from run 58 to infer the predictions for the training set</t>
+  </si>
+  <si>
+    <t>Run999_final</t>
+  </si>
+  <si>
+    <t>0.823 (0.310)</t>
+  </si>
+  <si>
+    <t>0.743 (0.151)</t>
+  </si>
+  <si>
+    <t>0.856 (0.351)</t>
+  </si>
+  <si>
+    <t>0.919 (0.216)</t>
+  </si>
+  <si>
+    <t>0.826 (0.125)</t>
+  </si>
+  <si>
+    <t>0.945 (0.229)</t>
+  </si>
+  <si>
+    <t>0.897 (0.259)</t>
+  </si>
+  <si>
+    <t>0.836 (0.114)</t>
+  </si>
+  <si>
+    <t>0.913 (0.282)</t>
+  </si>
+  <si>
+    <t>0.831 (0.269)</t>
+  </si>
+  <si>
+    <t>0.743 (0.131)</t>
+  </si>
+  <si>
+    <t>0.924 (0.222)</t>
+  </si>
+  <si>
+    <t>0.905 (0.077)</t>
+  </si>
+  <si>
+    <t>0.931 (0.254)</t>
+  </si>
+  <si>
+    <t>0.892 (0.243)</t>
+  </si>
+  <si>
+    <t>0.833 (0.116)</t>
+  </si>
+  <si>
+    <t>0.917 (0.276)</t>
+  </si>
+  <si>
+    <t>0.885 (0.240)</t>
+  </si>
+  <si>
+    <t>0.719 (0.161)</t>
+  </si>
+  <si>
+    <t>0.941 (0.236)</t>
+  </si>
+  <si>
+    <t>0.910 (0.238)</t>
+  </si>
+  <si>
+    <t>0.793 (0.123)</t>
+  </si>
+  <si>
+    <t>0.934 (0.249)</t>
+  </si>
+  <si>
+    <t>0.910 (0.215)</t>
+  </si>
+  <si>
+    <t>0.809 (0.137)</t>
+  </si>
+  <si>
+    <t>0.848 (0.280)</t>
+  </si>
+  <si>
+    <t>0.916 (0.226)</t>
+  </si>
+  <si>
+    <t>0.901 (0.240)</t>
+  </si>
+  <si>
+    <t>0.735 (0.151)</t>
+  </si>
+  <si>
+    <t>0.832 (0.123)</t>
+  </si>
+  <si>
+    <t>0.824 (0.125)</t>
+  </si>
+  <si>
+    <t>0.926 (0.262)</t>
+  </si>
+  <si>
+    <t>0.815 (0.287)</t>
+  </si>
+  <si>
+    <t>0.795 (0.139)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8909,6 +9017,19 @@
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -9068,7 +9189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9165,6 +9286,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9173,13 +9306,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5353"/>
       <color rgb="FF6EA7E0"/>
       <color rgb="FFA4E18F"/>
       <color rgb="FFC1EAB0"/>
       <color rgb="FFE2F5DB"/>
       <color rgb="FFD6F1CB"/>
       <color rgb="FFFFD5D5"/>
-      <color rgb="FFFF5353"/>
       <color rgb="FFFFB9B9"/>
       <color rgb="FFFFEBEB"/>
       <color rgb="FFFF8989"/>
@@ -9551,125 +9684,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33" t="s">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33" t="s">
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33" t="s">
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -10859,12 +10992,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="B2:D2"/>
@@ -10876,6 +11003,12 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10884,10 +11017,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN12"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10921,125 +11054,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33" t="s">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33" t="s">
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33" t="s">
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -11158,17 +11291,17 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="30">
       <c r="A4" s="21" t="s">
         <v>2615</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="35" t="s">
         <v>2580</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>2581</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="35" t="s">
         <v>2582</v>
       </c>
       <c r="E4" s="21" t="s">
@@ -11177,16 +11310,16 @@
       <c r="F4" s="21" t="s">
         <v>2584</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="35" t="s">
         <v>2585</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="35" t="s">
         <v>2586</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>2587</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="35" t="s">
         <v>2588</v>
       </c>
       <c r="K4" s="21" t="s">
@@ -11225,13 +11358,13 @@
       <c r="V4" s="21" t="s">
         <v>2600</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="W4" s="35" t="s">
         <v>2601</v>
       </c>
       <c r="X4" s="21" t="s">
         <v>2602</v>
       </c>
-      <c r="Y4" s="21" t="s">
+      <c r="Y4" s="35" t="s">
         <v>2603</v>
       </c>
       <c r="Z4" s="21" t="s">
@@ -11258,7 +11391,7 @@
       <c r="AG4" s="21" t="s">
         <v>2609</v>
       </c>
-      <c r="AH4" s="21" t="s">
+      <c r="AH4" s="35" t="s">
         <v>2610</v>
       </c>
       <c r="AI4" s="21" t="s">
@@ -11294,19 +11427,400 @@
       <c r="A8" s="17"/>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" s="17"/>
+      <c r="A9" s="34" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34" t="s">
+        <v>2098</v>
+      </c>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34" t="s">
+        <v>2099</v>
+      </c>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34" t="s">
+        <v>2096</v>
+      </c>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" s="17"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34" t="s">
+        <v>2096</v>
+      </c>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34" t="s">
+        <v>2097</v>
+      </c>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34" t="s">
+        <v>2092</v>
+      </c>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34" t="s">
+        <v>2096</v>
+      </c>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" s="17"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="33" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>2095</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>2093</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>2094</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>2093</v>
+      </c>
+      <c r="R11" s="33" t="s">
+        <v>2094</v>
+      </c>
+      <c r="S11" s="33" t="s">
+        <v>2095</v>
+      </c>
+      <c r="T11" s="33" t="s">
+        <v>2093</v>
+      </c>
+      <c r="U11" s="33" t="s">
+        <v>2094</v>
+      </c>
+      <c r="V11" s="33" t="s">
+        <v>2095</v>
+      </c>
+      <c r="W11" s="33" t="s">
+        <v>2093</v>
+      </c>
+      <c r="X11" s="33" t="s">
+        <v>2094</v>
+      </c>
+      <c r="Y11" s="33" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Z11" s="33" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AA11" s="33" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AB11" s="33" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AC11" s="33" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AD11" s="33" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AE11" s="33" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AF11" s="33" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AG11" s="33" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AH11" s="33" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AI11" s="33" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AJ11" s="33" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AK11" s="33" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AL11" s="33" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AM11" s="33" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AN11" s="33" t="s">
+        <v>2095</v>
+      </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:40" ht="30">
+      <c r="A12" s="24" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>2942</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>2943</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>2944</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>2948</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>961</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>2949</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>2950</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>2951</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>2952</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>2953</v>
+      </c>
+      <c r="S12" s="36" t="s">
+        <v>2954</v>
+      </c>
+      <c r="T12" s="36" t="s">
+        <v>2955</v>
+      </c>
+      <c r="U12" s="36" t="s">
+        <v>2956</v>
+      </c>
+      <c r="V12" s="36" t="s">
+        <v>2957</v>
+      </c>
+      <c r="W12" s="24" t="s">
+        <v>2958</v>
+      </c>
+      <c r="X12" s="36" t="s">
+        <v>2959</v>
+      </c>
+      <c r="Y12" s="24" t="s">
+        <v>2960</v>
+      </c>
+      <c r="Z12" s="36" t="s">
+        <v>2961</v>
+      </c>
+      <c r="AA12" s="36" t="s">
+        <v>2962</v>
+      </c>
+      <c r="AB12" s="36" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AC12" s="36" t="s">
+        <v>2963</v>
+      </c>
+      <c r="AD12" s="36" t="s">
+        <v>2966</v>
+      </c>
+      <c r="AE12" s="36" t="s">
+        <v>776</v>
+      </c>
+      <c r="AF12" s="36" t="s">
+        <v>2964</v>
+      </c>
+      <c r="AG12" s="36" t="s">
+        <v>2967</v>
+      </c>
+      <c r="AH12" s="37" t="s">
+        <v>2666</v>
+      </c>
+      <c r="AI12" s="36" t="s">
+        <v>2965</v>
+      </c>
+      <c r="AJ12" s="36" t="s">
+        <v>2968</v>
+      </c>
+      <c r="AK12" s="36" t="s">
+        <v>2969</v>
+      </c>
+      <c r="AL12" s="36" t="s">
+        <v>2970</v>
+      </c>
+      <c r="AM12" s="36" t="s">
+        <v>2971</v>
+      </c>
+      <c r="AN12" s="36" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="15">
+      <c r="A14" s="16" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="17" t="s">
+        <v>2936</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="34">
+    <mergeCell ref="AF9:AH10"/>
+    <mergeCell ref="AI9:AK10"/>
+    <mergeCell ref="AL9:AN10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:S9"/>
+    <mergeCell ref="T9:AB9"/>
+    <mergeCell ref="AC9:AE10"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="B2:D2"/>
@@ -11318,14 +11832,9 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11333,8 +11842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11343,53 +11852,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -11906,53 +12415,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -12469,53 +12978,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -13057,125 +13566,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33" t="s">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33" t="s">
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33" t="s">
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -14788,6 +15297,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -14801,10 +15314,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14849,125 +15358,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33" t="s">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33" t="s">
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33" t="s">
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -16254,11 +16763,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -16271,6 +16775,11 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16315,125 +16824,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33" t="s">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33" t="s">
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33" t="s">
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -18046,11 +18555,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -18063,6 +18567,11 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18111,125 +18620,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33" t="s">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33" t="s">
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33" t="s">
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -20498,11 +21007,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -20515,6 +21019,11 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20559,125 +21068,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33" t="s">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33" t="s">
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33" t="s">
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -21762,11 +22271,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -21779,6 +22283,11 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21823,125 +22332,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33" t="s">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33" t="s">
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33" t="s">
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -23148,11 +23657,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -23165,6 +23669,11 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23210,125 +23719,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33" t="s">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33" t="s">
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33" t="s">
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -24732,11 +25241,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -24749,6 +25253,11 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24793,125 +25302,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33" t="s">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33" t="s">
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33" t="s">
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -26118,11 +26627,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -26135,6 +26639,11 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DavidTerroso\D\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\D\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373A2DDF-BE11-49E9-8225-C71234593CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Preliminar" sheetId="9" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <sheet name="SRF" sheetId="12" r:id="rId12"/>
     <sheet name="PED" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,14 +48,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4056" uniqueCount="2972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4082" uniqueCount="2996">
   <si>
     <t>Run001</t>
   </si>
@@ -8985,13 +8986,85 @@
   </si>
   <si>
     <t>0.795 (0.139)</t>
+  </si>
+  <si>
+    <t>Run105</t>
+  </si>
+  <si>
+    <t>0.088 (0.172)</t>
+  </si>
+  <si>
+    <t>0.320 (0.173)</t>
+  </si>
+  <si>
+    <t>0.002 (0.046)</t>
+  </si>
+  <si>
+    <t>0.164 (0.264)</t>
+  </si>
+  <si>
+    <t>0.390 (0.211)</t>
+  </si>
+  <si>
+    <t>0.044 (0.205)</t>
+  </si>
+  <si>
+    <t>0.121 (0.256)</t>
+  </si>
+  <si>
+    <t>0.472 (0.171)</t>
+  </si>
+  <si>
+    <t>0.041 (0.198)</t>
+  </si>
+  <si>
+    <t>0.113 (0.225)</t>
+  </si>
+  <si>
+    <t>0.378 (0.193)</t>
+  </si>
+  <si>
+    <t>Run116</t>
+  </si>
+  <si>
+    <t>0.130 (0.214)</t>
+  </si>
+  <si>
+    <t>0.399 (0.183)</t>
+  </si>
+  <si>
+    <t>0.250 (0.323)</t>
+  </si>
+  <si>
+    <t>0.531 (0.216)</t>
+  </si>
+  <si>
+    <t>0.052 (0.223)</t>
+  </si>
+  <si>
+    <t>0.142 (0.288)</t>
+  </si>
+  <si>
+    <t>0.549 (0.176)</t>
+  </si>
+  <si>
+    <t>0.053 (0.224)</t>
+  </si>
+  <si>
+    <t>0.151 (0.266)</t>
+  </si>
+  <si>
+    <t>0.466 (0.201)</t>
+  </si>
+  <si>
+    <t>0.030 (0.172)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9024,12 +9097,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -9189,7 +9264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9283,12 +9358,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9298,6 +9367,9 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9306,6 +9378,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF8989"/>
       <color rgb="FFFF5353"/>
       <color rgb="FF6EA7E0"/>
       <color rgb="FFA4E18F"/>
@@ -9315,7 +9388,6 @@
       <color rgb="FFFFD5D5"/>
       <color rgb="FFFFB9B9"/>
       <color rgb="FFFFEBEB"/>
-      <color rgb="FFFF8989"/>
     </mruColors>
   </colors>
   <extLst>
@@ -9645,164 +9717,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="17"/>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="17"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34" t="s">
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34" t="s">
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34" t="s">
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="34"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -9921,7 +9993,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>2217</v>
       </c>
@@ -10043,7 +10115,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>2254</v>
       </c>
@@ -10165,7 +10237,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>2290</v>
       </c>
@@ -10287,7 +10359,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>2327</v>
       </c>
@@ -10409,7 +10481,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>2362</v>
       </c>
@@ -10531,7 +10603,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.5">
+    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>2399</v>
       </c>
@@ -10653,7 +10725,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.5">
+    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>2437</v>
       </c>
@@ -10775,7 +10847,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.5">
+    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>2473</v>
       </c>
@@ -10897,15 +10969,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:40" ht="15">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="15">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>2509</v>
       </c>
@@ -10916,7 +10988,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="15">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>2528</v>
       </c>
@@ -10927,7 +10999,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="15">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2510</v>
       </c>
@@ -10938,7 +11010,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2511</v>
       </c>
@@ -10949,7 +11021,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>2512</v>
       </c>
@@ -10960,7 +11032,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>2513</v>
       </c>
@@ -10971,7 +11043,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>2514</v>
       </c>
@@ -10982,7 +11054,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G21" s="18" t="s">
         <v>2473</v>
       </c>
@@ -10992,829 +11064,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="34" t="s">
-        <v>2100</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>2091</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
-        <v>2098</v>
-      </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34" t="s">
-        <v>2099</v>
-      </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34" t="s">
-        <v>2092</v>
-      </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34" t="s">
-        <v>2096</v>
-      </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
-        <v>2092</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34" t="s">
-        <v>2096</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
-        <v>2097</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34" t="s">
-        <v>2092</v>
-      </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
-        <v>2096</v>
-      </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
-        <v>2097</v>
-      </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34" t="s">
-        <v>2092</v>
-      </c>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34" t="s">
-        <v>2096</v>
-      </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="34"/>
-      <c r="B3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" ht="30">
-      <c r="A4" s="21" t="s">
-        <v>2615</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>2580</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>2581</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>2582</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>2583</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>2584</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>2585</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>2586</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>2587</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>2588</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>2589</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>2590</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>2591</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>2592</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>2593</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>2594</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>2595</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>2596</v>
-      </c>
-      <c r="S4" s="21" t="s">
-        <v>2597</v>
-      </c>
-      <c r="T4" s="21" t="s">
-        <v>2598</v>
-      </c>
-      <c r="U4" s="21" t="s">
-        <v>2599</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>2600</v>
-      </c>
-      <c r="W4" s="35" t="s">
-        <v>2601</v>
-      </c>
-      <c r="X4" s="21" t="s">
-        <v>2602</v>
-      </c>
-      <c r="Y4" s="35" t="s">
-        <v>2603</v>
-      </c>
-      <c r="Z4" s="21" t="s">
-        <v>2604</v>
-      </c>
-      <c r="AA4" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB4" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="AC4" s="21" t="s">
-        <v>2605</v>
-      </c>
-      <c r="AD4" s="21" t="s">
-        <v>2606</v>
-      </c>
-      <c r="AE4" s="21" t="s">
-        <v>2607</v>
-      </c>
-      <c r="AF4" s="21" t="s">
-        <v>2608</v>
-      </c>
-      <c r="AG4" s="21" t="s">
-        <v>2609</v>
-      </c>
-      <c r="AH4" s="35" t="s">
-        <v>2610</v>
-      </c>
-      <c r="AI4" s="21" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AJ4" s="21" t="s">
-        <v>2611</v>
-      </c>
-      <c r="AK4" s="21" t="s">
-        <v>1257</v>
-      </c>
-      <c r="AL4" s="21" t="s">
-        <v>2612</v>
-      </c>
-      <c r="AM4" s="21" t="s">
-        <v>2613</v>
-      </c>
-      <c r="AN4" s="21" t="s">
-        <v>2614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" ht="15">
-      <c r="A6" s="16" t="s">
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
-      <c r="A7" s="17" t="s">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:40">
-      <c r="A9" s="34" t="s">
-        <v>2100</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>2091</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34" t="s">
-        <v>2098</v>
-      </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34" t="s">
-        <v>2099</v>
-      </c>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34" t="s">
-        <v>2092</v>
-      </c>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34" t="s">
-        <v>2096</v>
-      </c>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-    </row>
-    <row r="10" spans="1:40">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34" t="s">
-        <v>2092</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34" t="s">
-        <v>2096</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34" t="s">
-        <v>2097</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34" t="s">
-        <v>2092</v>
-      </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34" t="s">
-        <v>2096</v>
-      </c>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34" t="s">
-        <v>2097</v>
-      </c>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34" t="s">
-        <v>2092</v>
-      </c>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34" t="s">
-        <v>2096</v>
-      </c>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-    </row>
-    <row r="11" spans="1:40">
-      <c r="A11" s="34"/>
-      <c r="B11" s="33" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>2094</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>2095</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>2093</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>2094</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>2095</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>2093</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>2094</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>2095</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>2093</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>2094</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>2095</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>2093</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>2094</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Q11" s="33" t="s">
-        <v>2093</v>
-      </c>
-      <c r="R11" s="33" t="s">
-        <v>2094</v>
-      </c>
-      <c r="S11" s="33" t="s">
-        <v>2095</v>
-      </c>
-      <c r="T11" s="33" t="s">
-        <v>2093</v>
-      </c>
-      <c r="U11" s="33" t="s">
-        <v>2094</v>
-      </c>
-      <c r="V11" s="33" t="s">
-        <v>2095</v>
-      </c>
-      <c r="W11" s="33" t="s">
-        <v>2093</v>
-      </c>
-      <c r="X11" s="33" t="s">
-        <v>2094</v>
-      </c>
-      <c r="Y11" s="33" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Z11" s="33" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AA11" s="33" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AB11" s="33" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AC11" s="33" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AD11" s="33" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AE11" s="33" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AF11" s="33" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AG11" s="33" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AH11" s="33" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AI11" s="33" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AJ11" s="33" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AK11" s="33" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AL11" s="33" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AM11" s="33" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AN11" s="33" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" ht="30">
-      <c r="A12" s="24" t="s">
-        <v>2937</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>2938</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>2939</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>2940</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>2941</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>2942</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>2943</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>2944</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>2945</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>2946</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>2947</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>2948</v>
-      </c>
-      <c r="M12" s="36" t="s">
-        <v>961</v>
-      </c>
-      <c r="N12" s="36" t="s">
-        <v>2949</v>
-      </c>
-      <c r="O12" s="36" t="s">
-        <v>2950</v>
-      </c>
-      <c r="P12" s="36" t="s">
-        <v>2951</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>2952</v>
-      </c>
-      <c r="R12" s="36" t="s">
-        <v>2953</v>
-      </c>
-      <c r="S12" s="36" t="s">
-        <v>2954</v>
-      </c>
-      <c r="T12" s="36" t="s">
-        <v>2955</v>
-      </c>
-      <c r="U12" s="36" t="s">
-        <v>2956</v>
-      </c>
-      <c r="V12" s="36" t="s">
-        <v>2957</v>
-      </c>
-      <c r="W12" s="24" t="s">
-        <v>2958</v>
-      </c>
-      <c r="X12" s="36" t="s">
-        <v>2959</v>
-      </c>
-      <c r="Y12" s="24" t="s">
-        <v>2960</v>
-      </c>
-      <c r="Z12" s="36" t="s">
-        <v>2961</v>
-      </c>
-      <c r="AA12" s="36" t="s">
-        <v>2962</v>
-      </c>
-      <c r="AB12" s="36" t="s">
-        <v>1894</v>
-      </c>
-      <c r="AC12" s="36" t="s">
-        <v>2963</v>
-      </c>
-      <c r="AD12" s="36" t="s">
-        <v>2966</v>
-      </c>
-      <c r="AE12" s="36" t="s">
-        <v>776</v>
-      </c>
-      <c r="AF12" s="36" t="s">
-        <v>2964</v>
-      </c>
-      <c r="AG12" s="36" t="s">
-        <v>2967</v>
-      </c>
-      <c r="AH12" s="37" t="s">
-        <v>2666</v>
-      </c>
-      <c r="AI12" s="36" t="s">
-        <v>2965</v>
-      </c>
-      <c r="AJ12" s="36" t="s">
-        <v>2968</v>
-      </c>
-      <c r="AK12" s="36" t="s">
-        <v>2969</v>
-      </c>
-      <c r="AL12" s="36" t="s">
-        <v>2970</v>
-      </c>
-      <c r="AM12" s="36" t="s">
-        <v>2971</v>
-      </c>
-      <c r="AN12" s="36" t="s">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" ht="15">
-      <c r="A14" s="16" t="s">
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
-      <c r="A15" s="17" t="s">
-        <v>2936</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="AF9:AH10"/>
-    <mergeCell ref="AI9:AK10"/>
-    <mergeCell ref="AL9:AN10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:S9"/>
-    <mergeCell ref="T9:AB9"/>
-    <mergeCell ref="AC9:AE10"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:S1"/>
@@ -11833,72 +11082,895 @@
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AF1:AH2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AN15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
+        <v>2098</v>
+      </c>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36" t="s">
+        <v>2099</v>
+      </c>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36" t="s">
+        <v>2096</v>
+      </c>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
+        <v>2096</v>
+      </c>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36" t="s">
+        <v>2097</v>
+      </c>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36" t="s">
+        <v>2092</v>
+      </c>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
+        <v>2096</v>
+      </c>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
+      <c r="B3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>2584</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>2585</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>2586</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>2587</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>2589</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>2590</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>2591</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>2592</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>2593</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>2594</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>2595</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>2596</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>2597</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>2598</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>2599</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>2600</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>2601</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>2602</v>
+      </c>
+      <c r="Y4" s="33" t="s">
+        <v>2603</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>2605</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>2606</v>
+      </c>
+      <c r="AE4" s="21" t="s">
+        <v>2607</v>
+      </c>
+      <c r="AF4" s="21" t="s">
+        <v>2608</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>2609</v>
+      </c>
+      <c r="AH4" s="33" t="s">
+        <v>2610</v>
+      </c>
+      <c r="AI4" s="21" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
+        <v>2611</v>
+      </c>
+      <c r="AK4" s="21" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AL4" s="21" t="s">
+        <v>2612</v>
+      </c>
+      <c r="AM4" s="21" t="s">
+        <v>2613</v>
+      </c>
+      <c r="AN4" s="21" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36" t="s">
+        <v>2098</v>
+      </c>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36" t="s">
+        <v>2099</v>
+      </c>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36" t="s">
+        <v>2096</v>
+      </c>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36" t="s">
+        <v>2096</v>
+      </c>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36" t="s">
+        <v>2097</v>
+      </c>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36" t="s">
+        <v>2092</v>
+      </c>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36" t="s">
+        <v>2096</v>
+      </c>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="36"/>
+      <c r="AK10" s="36"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="36"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>2942</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>2943</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>2944</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>2948</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>961</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>2949</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>2950</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>2951</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>2952</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>2953</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>2954</v>
+      </c>
+      <c r="T12" s="34" t="s">
+        <v>2955</v>
+      </c>
+      <c r="U12" s="34" t="s">
+        <v>2956</v>
+      </c>
+      <c r="V12" s="34" t="s">
+        <v>2957</v>
+      </c>
+      <c r="W12" s="24" t="s">
+        <v>2958</v>
+      </c>
+      <c r="X12" s="34" t="s">
+        <v>2959</v>
+      </c>
+      <c r="Y12" s="24" t="s">
+        <v>2960</v>
+      </c>
+      <c r="Z12" s="34" t="s">
+        <v>2961</v>
+      </c>
+      <c r="AA12" s="34" t="s">
+        <v>2962</v>
+      </c>
+      <c r="AB12" s="34" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AC12" s="34" t="s">
+        <v>2963</v>
+      </c>
+      <c r="AD12" s="34" t="s">
+        <v>2966</v>
+      </c>
+      <c r="AE12" s="34" t="s">
+        <v>776</v>
+      </c>
+      <c r="AF12" s="34" t="s">
+        <v>2964</v>
+      </c>
+      <c r="AG12" s="34" t="s">
+        <v>2967</v>
+      </c>
+      <c r="AH12" s="35" t="s">
+        <v>2666</v>
+      </c>
+      <c r="AI12" s="34" t="s">
+        <v>2965</v>
+      </c>
+      <c r="AJ12" s="34" t="s">
+        <v>2968</v>
+      </c>
+      <c r="AK12" s="34" t="s">
+        <v>2969</v>
+      </c>
+      <c r="AL12" s="34" t="s">
+        <v>2970</v>
+      </c>
+      <c r="AM12" s="34" t="s">
+        <v>2971</v>
+      </c>
+      <c r="AN12" s="34" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:S9"/>
+    <mergeCell ref="T9:AB9"/>
+    <mergeCell ref="AC9:AE10"/>
+    <mergeCell ref="AF9:AH10"/>
+    <mergeCell ref="AI9:AK10"/>
+    <mergeCell ref="AL9:AN10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="34"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -11936,7 +12008,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.5">
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2568</v>
       </c>
@@ -11977,7 +12049,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.5">
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>2617</v>
       </c>
@@ -12018,7 +12090,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.5">
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>2630</v>
       </c>
@@ -12059,7 +12131,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.5">
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>2642</v>
       </c>
@@ -12100,7 +12172,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.5">
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2769</v>
       </c>
@@ -12141,7 +12213,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.5">
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>2774</v>
       </c>
@@ -12182,7 +12254,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.5">
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>2775</v>
       </c>
@@ -12223,7 +12295,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.5">
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>2776</v>
       </c>
@@ -12264,7 +12336,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.5">
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>2777</v>
       </c>
@@ -12305,7 +12377,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.5">
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>2778</v>
       </c>
@@ -12346,43 +12418,125 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15">
-      <c r="A15" s="16" t="s">
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>2975</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>2976</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>2977</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>2978</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>2979</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>2980</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>2981</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>2982</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>2983</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>2988</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>2989</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>2990</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>2991</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>2992</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>2993</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>2994</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="17" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="17" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="17" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="17" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="17" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="17" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
         <v>2701</v>
       </c>
     </row>
@@ -12402,66 +12556,66 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="34"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -12499,7 +12653,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.5">
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2655</v>
       </c>
@@ -12540,7 +12694,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.5">
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>2667</v>
       </c>
@@ -12581,7 +12735,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.5">
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>2679</v>
       </c>
@@ -12622,7 +12776,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.5">
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>2688</v>
       </c>
@@ -12663,7 +12817,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.5">
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2760</v>
       </c>
@@ -12704,7 +12858,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.5">
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>2779</v>
       </c>
@@ -12745,7 +12899,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.5">
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>2780</v>
       </c>
@@ -12786,7 +12940,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.5">
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>2781</v>
       </c>
@@ -12827,7 +12981,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.5">
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>2782</v>
       </c>
@@ -12868,7 +13022,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.5">
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>2783</v>
       </c>
@@ -12909,42 +13063,42 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>2700</v>
       </c>
@@ -12965,66 +13119,66 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="34"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -13062,7 +13216,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.5">
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2702</v>
       </c>
@@ -13103,7 +13257,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.5">
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>2714</v>
       </c>
@@ -13144,7 +13298,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.5">
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>2725</v>
       </c>
@@ -13185,7 +13339,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.5">
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>2738</v>
       </c>
@@ -13226,7 +13380,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.5">
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2751</v>
       </c>
@@ -13267,7 +13421,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.5">
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>2784</v>
       </c>
@@ -13308,7 +13462,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.5">
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>2785</v>
       </c>
@@ -13349,7 +13503,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.5">
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>2787</v>
       </c>
@@ -13390,7 +13544,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.5">
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>2788</v>
       </c>
@@ -13431,7 +13585,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.5">
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>2789</v>
       </c>
@@ -13472,42 +13626,42 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>2750</v>
       </c>
@@ -13528,163 +13682,163 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34" t="s">
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34" t="s">
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34" t="s">
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="34"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -13803,7 +13957,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -13925,7 +14079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
@@ -14047,7 +14201,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>80</v>
       </c>
@@ -14169,7 +14323,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>119</v>
       </c>
@@ -14291,7 +14445,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>311</v>
       </c>
@@ -14413,7 +14567,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.5">
+    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>158</v>
       </c>
@@ -14535,7 +14689,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.5">
+    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>196</v>
       </c>
@@ -14657,7 +14811,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.5">
+    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>234</v>
       </c>
@@ -14779,7 +14933,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.5">
+    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>273</v>
       </c>
@@ -14901,7 +15055,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.5">
+    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>336</v>
       </c>
@@ -15023,7 +15177,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -15065,7 +15219,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" ht="15">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
@@ -15109,7 +15263,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2509</v>
       </c>
@@ -15153,7 +15307,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2527</v>
       </c>
@@ -15197,7 +15351,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>2510</v>
       </c>
@@ -15241,7 +15395,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>2511</v>
       </c>
@@ -15285,18 +15439,19 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>2513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="AC1:AE2"/>
@@ -15313,170 +15468,169 @@
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34" t="s">
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34" t="s">
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34" t="s">
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="34"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -15595,7 +15749,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>361</v>
       </c>
@@ -15717,7 +15871,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>401</v>
       </c>
@@ -15839,7 +15993,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>441</v>
       </c>
@@ -15961,7 +16115,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>478</v>
       </c>
@@ -16083,7 +16237,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>557</v>
       </c>
@@ -16205,7 +16359,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.5">
+    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>517</v>
       </c>
@@ -16327,7 +16481,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -16369,7 +16523,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" ht="15">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>2508</v>
       </c>
@@ -16413,7 +16567,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>2515</v>
       </c>
@@ -16457,7 +16611,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>2516</v>
       </c>
@@ -16501,7 +16655,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>2510</v>
       </c>
@@ -16545,7 +16699,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>2511</v>
       </c>
@@ -16589,7 +16743,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2517</v>
       </c>
@@ -16633,7 +16787,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2513</v>
       </c>
@@ -16677,7 +16831,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -16719,7 +16873,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -16763,6 +16917,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -16776,173 +16934,169 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34" t="s">
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34" t="s">
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34" t="s">
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="34"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -17061,7 +17215,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>580</v>
       </c>
@@ -17183,7 +17337,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>619</v>
       </c>
@@ -17305,7 +17459,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>658</v>
       </c>
@@ -17427,7 +17581,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>698</v>
       </c>
@@ -17549,7 +17703,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>737</v>
       </c>
@@ -17671,7 +17825,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.5">
+    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>759</v>
       </c>
@@ -17793,7 +17947,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.5">
+    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>797</v>
       </c>
@@ -17915,7 +18069,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.5">
+    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>835</v>
       </c>
@@ -18037,7 +18191,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.5">
+    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>874</v>
       </c>
@@ -18159,7 +18313,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.5">
+    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>912</v>
       </c>
@@ -18281,7 +18435,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -18323,7 +18477,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" ht="15">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
@@ -18367,7 +18521,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
@@ -18411,7 +18565,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2531</v>
       </c>
@@ -18455,7 +18609,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>2654</v>
       </c>
@@ -18499,7 +18653,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>2511</v>
       </c>
@@ -18543,18 +18697,22 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>2529</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -18568,177 +18726,173 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AN28"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" customWidth="1"/>
-    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34" t="s">
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34" t="s">
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34" t="s">
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="34"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -18857,7 +19011,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>937</v>
       </c>
@@ -18979,7 +19133,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>975</v>
       </c>
@@ -19101,7 +19255,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>1010</v>
       </c>
@@ -19223,7 +19377,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>1048</v>
       </c>
@@ -19345,7 +19499,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>1084</v>
       </c>
@@ -19467,7 +19621,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.5">
+    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1440</v>
       </c>
@@ -19589,7 +19743,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.5">
+    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1120</v>
       </c>
@@ -19711,7 +19865,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.5">
+    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1156</v>
       </c>
@@ -19833,7 +19987,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.5">
+    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1193</v>
       </c>
@@ -19955,7 +20109,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.5">
+    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1227</v>
       </c>
@@ -20077,7 +20231,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="28.5">
+    <row r="14" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>1263</v>
       </c>
@@ -20199,7 +20353,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="28.5">
+    <row r="15" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>2102</v>
       </c>
@@ -20321,7 +20475,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="28.5">
+    <row r="16" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>1299</v>
       </c>
@@ -20443,7 +20597,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="28.5">
+    <row r="17" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>1333</v>
       </c>
@@ -20565,7 +20719,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="28.5">
+    <row r="18" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>1372</v>
       </c>
@@ -20687,7 +20841,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="28.5">
+    <row r="19" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>1407</v>
       </c>
@@ -20809,7 +20963,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="28.5">
+    <row r="20" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>2101</v>
       </c>
@@ -20970,43 +21124,47 @@
         <v>0.68 (0.11)</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="15">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>2531</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>2511</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>2513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -21020,173 +21178,169 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34" t="s">
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34" t="s">
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34" t="s">
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="34"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -21305,7 +21459,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1478</v>
       </c>
@@ -21427,7 +21581,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1548</v>
       </c>
@@ -21549,7 +21703,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>1514</v>
       </c>
@@ -21671,7 +21825,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1580</v>
       </c>
@@ -21793,7 +21947,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="15">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>2508</v>
       </c>
@@ -21837,7 +21991,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>2518</v>
       </c>
@@ -21881,7 +22035,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>2532</v>
       </c>
@@ -21925,7 +22079,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>2654</v>
       </c>
@@ -21969,7 +22123,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>2511</v>
       </c>
@@ -22013,7 +22167,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>2512</v>
       </c>
@@ -22057,7 +22211,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>2513</v>
       </c>
@@ -22101,7 +22255,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -22143,7 +22297,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -22185,7 +22339,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -22227,7 +22381,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -22271,6 +22425,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -22284,173 +22442,169 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34" t="s">
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34" t="s">
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34" t="s">
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="34"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -22569,7 +22723,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1617</v>
       </c>
@@ -22691,7 +22845,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1649</v>
       </c>
@@ -22813,7 +22967,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>1681</v>
       </c>
@@ -22935,7 +23089,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>1717</v>
       </c>
@@ -23057,7 +23211,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1751</v>
       </c>
@@ -23179,7 +23333,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -23221,7 +23375,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" ht="15">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>2508</v>
       </c>
@@ -23265,7 +23419,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>2518</v>
       </c>
@@ -23309,7 +23463,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>2530</v>
       </c>
@@ -23353,7 +23507,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>2654</v>
       </c>
@@ -23397,7 +23551,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>2511</v>
       </c>
@@ -23441,7 +23595,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>2512</v>
       </c>
@@ -23485,7 +23639,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2533</v>
       </c>
@@ -23529,7 +23683,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -23571,7 +23725,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -23613,7 +23767,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -23657,6 +23811,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -23670,174 +23828,170 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AC10" sqref="AC10:AE10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34" t="s">
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34" t="s">
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34" t="s">
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="34"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -23956,7 +24110,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1772</v>
       </c>
@@ -24078,7 +24232,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1806</v>
       </c>
@@ -24200,7 +24354,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>1842</v>
       </c>
@@ -24322,7 +24476,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>1880</v>
       </c>
@@ -24444,7 +24598,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1917</v>
       </c>
@@ -24566,7 +24720,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.5">
+    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>2535</v>
       </c>
@@ -24688,7 +24842,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="42.75">
+    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2567</v>
       </c>
@@ -24849,7 +25003,7 @@
         <v>0.63 (0.15)</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -24890,7 +25044,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" ht="15">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>2508</v>
       </c>
@@ -24934,7 +25088,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>2518</v>
       </c>
@@ -24978,7 +25132,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>2530</v>
       </c>
@@ -25022,7 +25176,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>2654</v>
       </c>
@@ -25066,7 +25220,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2534</v>
       </c>
@@ -25110,7 +25264,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2512</v>
       </c>
@@ -25154,7 +25308,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>2533</v>
       </c>
@@ -25198,7 +25352,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -25241,6 +25395,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -25254,173 +25412,169 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34" t="s">
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34" t="s">
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34" t="s">
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="34"/>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -25539,7 +25693,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1954</v>
       </c>
@@ -25661,7 +25815,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1988</v>
       </c>
@@ -25783,7 +25937,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2024</v>
       </c>
@@ -25905,7 +26059,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>2057</v>
       </c>
@@ -26027,7 +26181,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1937</v>
       </c>
@@ -26149,7 +26303,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -26191,7 +26345,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" ht="15">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>2508</v>
       </c>
@@ -26235,7 +26389,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>2518</v>
       </c>
@@ -26279,7 +26433,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>2531</v>
       </c>
@@ -26323,7 +26477,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>2654</v>
       </c>
@@ -26367,7 +26521,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>2534</v>
       </c>
@@ -26411,7 +26565,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>2512</v>
       </c>
@@ -26455,7 +26609,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2533</v>
       </c>
@@ -26499,7 +26653,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -26541,7 +26695,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -26583,7 +26737,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -26627,6 +26781,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -26640,10 +26798,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\D\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DavidTerroso\D\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373A2DDF-BE11-49E9-8225-C71234593CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Preliminar" sheetId="9" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <sheet name="SRF" sheetId="12" r:id="rId12"/>
     <sheet name="PED" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,14 +47,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4082" uniqueCount="2996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4141" uniqueCount="2998">
   <si>
     <t>Run001</t>
   </si>
@@ -9058,13 +9057,19 @@
   </si>
   <si>
     <t>0.030 (0.172)</t>
+  </si>
+  <si>
+    <t>DESB. BG</t>
+  </si>
+  <si>
+    <t>DESPROP. ENTRE FOLDS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9107,8 +9112,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9223,6 +9235,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9264,7 +9282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9370,6 +9388,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9717,45 +9739,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="17"/>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="17"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
@@ -9813,7 +9835,7 @@
       <c r="AM1" s="36"/>
       <c r="AN1" s="36"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="36"/>
       <c r="B2" s="36" t="s">
         <v>2092</v>
@@ -9873,7 +9895,7 @@
       <c r="AM2" s="36"/>
       <c r="AN2" s="36"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -9993,7 +10015,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="15" t="s">
         <v>2217</v>
       </c>
@@ -10115,7 +10137,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="15" t="s">
         <v>2254</v>
       </c>
@@ -10237,7 +10259,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="15" t="s">
         <v>2290</v>
       </c>
@@ -10359,7 +10381,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="15" t="s">
         <v>2327</v>
       </c>
@@ -10481,7 +10503,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="15" t="s">
         <v>2362</v>
       </c>
@@ -10603,7 +10625,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="15" t="s">
         <v>2399</v>
       </c>
@@ -10725,7 +10747,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="28.5">
       <c r="A10" s="15" t="s">
         <v>2437</v>
       </c>
@@ -10847,7 +10869,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="28.5">
       <c r="A11" s="15" t="s">
         <v>2473</v>
       </c>
@@ -10969,15 +10991,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="15">
       <c r="A13" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="15">
       <c r="A14" s="17" t="s">
         <v>2509</v>
       </c>
@@ -10988,7 +11010,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="15">
       <c r="A15" s="17" t="s">
         <v>2528</v>
       </c>
@@ -10999,7 +11021,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="15">
       <c r="A16" s="17" t="s">
         <v>2510</v>
       </c>
@@ -11010,7 +11032,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" s="17" t="s">
         <v>2511</v>
       </c>
@@ -11021,7 +11043,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="17" t="s">
         <v>2512</v>
       </c>
@@ -11032,7 +11054,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19" s="17" t="s">
         <v>2513</v>
       </c>
@@ -11043,7 +11065,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15">
       <c r="A20" s="17" t="s">
         <v>2514</v>
       </c>
@@ -11054,7 +11076,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15">
       <c r="G21" s="18" t="s">
         <v>2473</v>
       </c>
@@ -11064,6 +11086,829 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40">
+      <c r="A1" s="36" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
+        <v>2098</v>
+      </c>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36" t="s">
+        <v>2099</v>
+      </c>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36" t="s">
+        <v>2096</v>
+      </c>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
+        <v>2096</v>
+      </c>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36" t="s">
+        <v>2097</v>
+      </c>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36" t="s">
+        <v>2092</v>
+      </c>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
+        <v>2096</v>
+      </c>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="36"/>
+      <c r="B3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="30">
+      <c r="A4" s="21" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>2584</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>2585</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>2586</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>2587</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>2589</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>2590</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>2591</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>2592</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>2593</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>2594</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>2595</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>2596</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>2597</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>2598</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>2599</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>2600</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>2601</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>2602</v>
+      </c>
+      <c r="Y4" s="33" t="s">
+        <v>2603</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>2605</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>2606</v>
+      </c>
+      <c r="AE4" s="21" t="s">
+        <v>2607</v>
+      </c>
+      <c r="AF4" s="21" t="s">
+        <v>2608</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>2609</v>
+      </c>
+      <c r="AH4" s="33" t="s">
+        <v>2610</v>
+      </c>
+      <c r="AI4" s="21" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
+        <v>2611</v>
+      </c>
+      <c r="AK4" s="21" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AL4" s="21" t="s">
+        <v>2612</v>
+      </c>
+      <c r="AM4" s="21" t="s">
+        <v>2613</v>
+      </c>
+      <c r="AN4" s="21" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="15">
+      <c r="A6" s="16" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" s="17" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" s="17"/>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="36" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36" t="s">
+        <v>2098</v>
+      </c>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36" t="s">
+        <v>2099</v>
+      </c>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36" t="s">
+        <v>2096</v>
+      </c>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36" t="s">
+        <v>2096</v>
+      </c>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36" t="s">
+        <v>2097</v>
+      </c>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36" t="s">
+        <v>2092</v>
+      </c>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36" t="s">
+        <v>2096</v>
+      </c>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="36"/>
+      <c r="AK10" s="36"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="36"/>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="36"/>
+      <c r="B11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="30">
+      <c r="A12" s="24" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>2942</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>2943</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>2944</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>2948</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>961</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>2949</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>2950</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>2951</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>2952</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>2953</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>2954</v>
+      </c>
+      <c r="T12" s="34" t="s">
+        <v>2955</v>
+      </c>
+      <c r="U12" s="34" t="s">
+        <v>2956</v>
+      </c>
+      <c r="V12" s="34" t="s">
+        <v>2957</v>
+      </c>
+      <c r="W12" s="24" t="s">
+        <v>2958</v>
+      </c>
+      <c r="X12" s="34" t="s">
+        <v>2959</v>
+      </c>
+      <c r="Y12" s="24" t="s">
+        <v>2960</v>
+      </c>
+      <c r="Z12" s="34" t="s">
+        <v>2961</v>
+      </c>
+      <c r="AA12" s="34" t="s">
+        <v>2962</v>
+      </c>
+      <c r="AB12" s="34" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AC12" s="34" t="s">
+        <v>2963</v>
+      </c>
+      <c r="AD12" s="34" t="s">
+        <v>2966</v>
+      </c>
+      <c r="AE12" s="34" t="s">
+        <v>776</v>
+      </c>
+      <c r="AF12" s="34" t="s">
+        <v>2964</v>
+      </c>
+      <c r="AG12" s="34" t="s">
+        <v>2967</v>
+      </c>
+      <c r="AH12" s="35" t="s">
+        <v>2666</v>
+      </c>
+      <c r="AI12" s="34" t="s">
+        <v>2965</v>
+      </c>
+      <c r="AJ12" s="34" t="s">
+        <v>2968</v>
+      </c>
+      <c r="AK12" s="34" t="s">
+        <v>2969</v>
+      </c>
+      <c r="AL12" s="34" t="s">
+        <v>2970</v>
+      </c>
+      <c r="AM12" s="34" t="s">
+        <v>2971</v>
+      </c>
+      <c r="AN12" s="34" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="15">
+      <c r="A14" s="16" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="17" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="AF9:AH10"/>
+    <mergeCell ref="AI9:AK10"/>
+    <mergeCell ref="AL9:AN10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:S9"/>
+    <mergeCell ref="T9:AB9"/>
+    <mergeCell ref="AC9:AE10"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:S1"/>
@@ -11082,848 +11927,25 @@
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AF1:AH2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AN15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>2100</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>2091</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
-        <v>2098</v>
-      </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36" t="s">
-        <v>2099</v>
-      </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36" t="s">
-        <v>2092</v>
-      </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36" t="s">
-        <v>2096</v>
-      </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
-        <v>2092</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
-        <v>2096</v>
-      </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
-        <v>2097</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36" t="s">
-        <v>2092</v>
-      </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
-        <v>2096</v>
-      </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36" t="s">
-        <v>2097</v>
-      </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36" t="s">
-        <v>2092</v>
-      </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36" t="s">
-        <v>2096</v>
-      </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>2615</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>2580</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>2581</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>2582</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>2583</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>2584</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>2585</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>2586</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>2587</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>2588</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>2589</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>2590</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>2591</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>2592</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>2593</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>2594</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>2595</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>2596</v>
-      </c>
-      <c r="S4" s="21" t="s">
-        <v>2597</v>
-      </c>
-      <c r="T4" s="21" t="s">
-        <v>2598</v>
-      </c>
-      <c r="U4" s="21" t="s">
-        <v>2599</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>2600</v>
-      </c>
-      <c r="W4" s="33" t="s">
-        <v>2601</v>
-      </c>
-      <c r="X4" s="21" t="s">
-        <v>2602</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>2603</v>
-      </c>
-      <c r="Z4" s="21" t="s">
-        <v>2604</v>
-      </c>
-      <c r="AA4" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB4" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="AC4" s="21" t="s">
-        <v>2605</v>
-      </c>
-      <c r="AD4" s="21" t="s">
-        <v>2606</v>
-      </c>
-      <c r="AE4" s="21" t="s">
-        <v>2607</v>
-      </c>
-      <c r="AF4" s="21" t="s">
-        <v>2608</v>
-      </c>
-      <c r="AG4" s="21" t="s">
-        <v>2609</v>
-      </c>
-      <c r="AH4" s="33" t="s">
-        <v>2610</v>
-      </c>
-      <c r="AI4" s="21" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AJ4" s="21" t="s">
-        <v>2611</v>
-      </c>
-      <c r="AK4" s="21" t="s">
-        <v>1257</v>
-      </c>
-      <c r="AL4" s="21" t="s">
-        <v>2612</v>
-      </c>
-      <c r="AM4" s="21" t="s">
-        <v>2613</v>
-      </c>
-      <c r="AN4" s="21" t="s">
-        <v>2614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
-        <v>2100</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>2091</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36" t="s">
-        <v>2098</v>
-      </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36" t="s">
-        <v>2099</v>
-      </c>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36" t="s">
-        <v>2092</v>
-      </c>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36" t="s">
-        <v>2096</v>
-      </c>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36" t="s">
-        <v>2092</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36" t="s">
-        <v>2096</v>
-      </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36" t="s">
-        <v>2097</v>
-      </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36" t="s">
-        <v>2092</v>
-      </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36" t="s">
-        <v>2096</v>
-      </c>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36" t="s">
-        <v>2097</v>
-      </c>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36" t="s">
-        <v>2092</v>
-      </c>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36" t="s">
-        <v>2096</v>
-      </c>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AI11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AJ11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AK11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AL11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AM11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AN11" s="2" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>2937</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>2938</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>2939</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>2940</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>2941</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>2942</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>2943</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>2944</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>2945</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>2946</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>2947</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>2948</v>
-      </c>
-      <c r="M12" s="34" t="s">
-        <v>961</v>
-      </c>
-      <c r="N12" s="34" t="s">
-        <v>2949</v>
-      </c>
-      <c r="O12" s="34" t="s">
-        <v>2950</v>
-      </c>
-      <c r="P12" s="34" t="s">
-        <v>2951</v>
-      </c>
-      <c r="Q12" s="34" t="s">
-        <v>2952</v>
-      </c>
-      <c r="R12" s="34" t="s">
-        <v>2953</v>
-      </c>
-      <c r="S12" s="34" t="s">
-        <v>2954</v>
-      </c>
-      <c r="T12" s="34" t="s">
-        <v>2955</v>
-      </c>
-      <c r="U12" s="34" t="s">
-        <v>2956</v>
-      </c>
-      <c r="V12" s="34" t="s">
-        <v>2957</v>
-      </c>
-      <c r="W12" s="24" t="s">
-        <v>2958</v>
-      </c>
-      <c r="X12" s="34" t="s">
-        <v>2959</v>
-      </c>
-      <c r="Y12" s="24" t="s">
-        <v>2960</v>
-      </c>
-      <c r="Z12" s="34" t="s">
-        <v>2961</v>
-      </c>
-      <c r="AA12" s="34" t="s">
-        <v>2962</v>
-      </c>
-      <c r="AB12" s="34" t="s">
-        <v>1894</v>
-      </c>
-      <c r="AC12" s="34" t="s">
-        <v>2963</v>
-      </c>
-      <c r="AD12" s="34" t="s">
-        <v>2966</v>
-      </c>
-      <c r="AE12" s="34" t="s">
-        <v>776</v>
-      </c>
-      <c r="AF12" s="34" t="s">
-        <v>2964</v>
-      </c>
-      <c r="AG12" s="34" t="s">
-        <v>2967</v>
-      </c>
-      <c r="AH12" s="35" t="s">
-        <v>2666</v>
-      </c>
-      <c r="AI12" s="34" t="s">
-        <v>2965</v>
-      </c>
-      <c r="AJ12" s="34" t="s">
-        <v>2968</v>
-      </c>
-      <c r="AK12" s="34" t="s">
-        <v>2969</v>
-      </c>
-      <c r="AL12" s="34" t="s">
-        <v>2970</v>
-      </c>
-      <c r="AM12" s="34" t="s">
-        <v>2971</v>
-      </c>
-      <c r="AN12" s="34" t="s">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>2936</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:S9"/>
-    <mergeCell ref="T9:AB9"/>
-    <mergeCell ref="AC9:AE10"/>
-    <mergeCell ref="AF9:AH10"/>
-    <mergeCell ref="AI9:AK10"/>
-    <mergeCell ref="AL9:AN10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
@@ -11948,7 +11970,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="36"/>
       <c r="B2" s="36" t="s">
         <v>2092</v>
@@ -11969,7 +11991,7 @@
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -12008,7 +12030,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="28.5">
       <c r="A4" s="6" t="s">
         <v>2568</v>
       </c>
@@ -12049,7 +12071,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="28.5">
       <c r="A5" s="8" t="s">
         <v>2617</v>
       </c>
@@ -12090,7 +12112,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="28.5">
       <c r="A6" s="10" t="s">
         <v>2630</v>
       </c>
@@ -12131,7 +12153,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="28.5">
       <c r="A7" s="12" t="s">
         <v>2642</v>
       </c>
@@ -12172,7 +12194,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="28.5">
       <c r="A8" s="3" t="s">
         <v>2769</v>
       </c>
@@ -12213,7 +12235,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="28.5">
       <c r="A9" s="25" t="s">
         <v>2774</v>
       </c>
@@ -12254,8 +12276,8 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:14" ht="28.5">
+      <c r="A10" s="37" t="s">
         <v>2775</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -12294,8 +12316,9 @@
       <c r="M10" s="22" t="s">
         <v>2809</v>
       </c>
+      <c r="N10" s="38"/>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="28.5">
       <c r="A11" s="23" t="s">
         <v>2776</v>
       </c>
@@ -12336,7 +12359,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="28.5">
       <c r="A12" s="24" t="s">
         <v>2777</v>
       </c>
@@ -12377,7 +12400,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="28.5">
       <c r="A13" s="3" t="s">
         <v>2778</v>
       </c>
@@ -12418,7 +12441,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="28.5">
       <c r="A14" s="12" t="s">
         <v>2972</v>
       </c>
@@ -12459,7 +12482,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="28.5">
       <c r="A15" s="23" t="s">
         <v>2984</v>
       </c>
@@ -12500,42 +12523,42 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15">
       <c r="A17" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="17" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="17" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="17" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" s="17" t="s">
         <v>2701</v>
       </c>
@@ -12556,19 +12579,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:M22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
@@ -12593,7 +12616,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="36"/>
       <c r="B2" s="36" t="s">
         <v>2096</v>
@@ -12614,7 +12637,7 @@
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -12653,7 +12676,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="28.5">
       <c r="A4" s="6" t="s">
         <v>2655</v>
       </c>
@@ -12694,7 +12717,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="28.5">
       <c r="A5" s="8" t="s">
         <v>2667</v>
       </c>
@@ -12735,7 +12758,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="28.5">
       <c r="A6" s="10" t="s">
         <v>2679</v>
       </c>
@@ -12776,7 +12799,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="28.5">
       <c r="A7" s="12" t="s">
         <v>2688</v>
       </c>
@@ -12817,7 +12840,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="28.5">
       <c r="A8" s="3" t="s">
         <v>2760</v>
       </c>
@@ -12858,7 +12881,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="28.5">
       <c r="A9" s="27" t="s">
         <v>2779</v>
       </c>
@@ -12898,8 +12921,17 @@
       <c r="M9" s="27" t="s">
         <v>2857</v>
       </c>
+      <c r="O9" s="25" t="s">
+        <v>2797</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>2798</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>2799</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="28.5">
       <c r="A10" s="28" t="s">
         <v>2780</v>
       </c>
@@ -12939,8 +12971,17 @@
       <c r="M10" s="28" t="s">
         <v>858</v>
       </c>
+      <c r="O10" s="22" t="s">
+        <v>2807</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>2808</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>2809</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="28.5">
       <c r="A11" s="29" t="s">
         <v>2781</v>
       </c>
@@ -12980,8 +13021,18 @@
       <c r="M11" s="29" t="s">
         <v>2010</v>
       </c>
+      <c r="N11" s="38"/>
+      <c r="O11" s="23" t="s">
+        <v>2818</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>2819</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>2820</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="28.5">
       <c r="A12" s="26" t="s">
         <v>2782</v>
       </c>
@@ -13021,8 +13072,17 @@
       <c r="M12" s="26" t="s">
         <v>550</v>
       </c>
+      <c r="O12" s="24" t="s">
+        <v>2829</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>2830</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>2831</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="28.5">
       <c r="A13" s="3" t="s">
         <v>2783</v>
       </c>
@@ -13062,43 +13122,52 @@
       <c r="M13" s="3" t="s">
         <v>2847</v>
       </c>
+      <c r="O13" s="3" t="s">
+        <v>1939</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>2839</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>1939</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="15">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="17" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="17" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="17" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="17" t="s">
         <v>2700</v>
       </c>
@@ -13119,19 +13188,19 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:M22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
@@ -13156,7 +13225,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21">
       <c r="A2" s="36"/>
       <c r="B2" s="36" t="s">
         <v>2097</v>
@@ -13177,7 +13246,7 @@
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21">
       <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -13216,7 +13285,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="28.5">
       <c r="A4" s="6" t="s">
         <v>2702</v>
       </c>
@@ -13257,7 +13326,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="28.5">
       <c r="A5" s="8" t="s">
         <v>2714</v>
       </c>
@@ -13298,7 +13367,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="28.5">
       <c r="A6" s="10" t="s">
         <v>2725</v>
       </c>
@@ -13339,7 +13408,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="28.5">
       <c r="A7" s="12" t="s">
         <v>2738</v>
       </c>
@@ -13380,7 +13449,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="28.5">
       <c r="A8" s="3" t="s">
         <v>2751</v>
       </c>
@@ -13421,7 +13490,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="28.5">
       <c r="A9" s="8" t="s">
         <v>2784</v>
       </c>
@@ -13461,8 +13530,26 @@
       <c r="M9" s="8" t="s">
         <v>2894</v>
       </c>
+      <c r="O9" s="27" t="s">
+        <v>2855</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>2856</v>
+      </c>
+      <c r="Q9" s="27" t="s">
+        <v>2857</v>
+      </c>
+      <c r="S9" s="25" t="s">
+        <v>2797</v>
+      </c>
+      <c r="T9" s="25" t="s">
+        <v>2798</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>2799</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="28.5">
       <c r="A10" s="30" t="s">
         <v>2785</v>
       </c>
@@ -13502,8 +13589,26 @@
       <c r="M10" s="30" t="s">
         <v>2906</v>
       </c>
+      <c r="O10" s="28" t="s">
+        <v>2862</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>2863</v>
+      </c>
+      <c r="Q10" s="28" t="s">
+        <v>858</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>2807</v>
+      </c>
+      <c r="T10" s="22" t="s">
+        <v>2808</v>
+      </c>
+      <c r="U10" s="22" t="s">
+        <v>2809</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="28.5">
       <c r="A11" s="32" t="s">
         <v>2787</v>
       </c>
@@ -13543,8 +13648,26 @@
       <c r="M11" s="32" t="s">
         <v>2918</v>
       </c>
+      <c r="O11" s="29" t="s">
+        <v>2871</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>2872</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>2010</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>2818</v>
+      </c>
+      <c r="T11" s="23" t="s">
+        <v>2819</v>
+      </c>
+      <c r="U11" s="23" t="s">
+        <v>2820</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="28.5">
       <c r="A12" s="31" t="s">
         <v>2788</v>
       </c>
@@ -13584,8 +13707,27 @@
       <c r="M12" s="31" t="s">
         <v>697</v>
       </c>
+      <c r="N12" s="38"/>
+      <c r="O12" s="26" t="s">
+        <v>2881</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>2882</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>550</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>2829</v>
+      </c>
+      <c r="T12" s="24" t="s">
+        <v>2830</v>
+      </c>
+      <c r="U12" s="24" t="s">
+        <v>2831</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="28.5">
       <c r="A13" s="3" t="s">
         <v>2789</v>
       </c>
@@ -13625,43 +13767,61 @@
       <c r="M13" s="3" t="s">
         <v>2115</v>
       </c>
+      <c r="O13" s="3" t="s">
+        <v>2845</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>2846</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>2847</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>1939</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>2839</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>1939</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="17" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="17" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="17" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="17" t="s">
         <v>2750</v>
       </c>
@@ -13682,44 +13842,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
@@ -13777,7 +13937,7 @@
       <c r="AM1" s="36"/>
       <c r="AN1" s="36"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="36"/>
       <c r="B2" s="36" t="s">
         <v>2092</v>
@@ -13837,7 +13997,7 @@
       <c r="AM2" s="36"/>
       <c r="AN2" s="36"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -13957,7 +14117,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -14079,7 +14239,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
@@ -14201,7 +14361,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>80</v>
       </c>
@@ -14323,7 +14483,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>119</v>
       </c>
@@ -14445,7 +14605,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>311</v>
       </c>
@@ -14567,7 +14727,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="5" t="s">
         <v>158</v>
       </c>
@@ -14689,7 +14849,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="28.5">
       <c r="A10" s="7" t="s">
         <v>196</v>
       </c>
@@ -14811,7 +14971,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="28.5">
       <c r="A11" s="9" t="s">
         <v>234</v>
       </c>
@@ -14933,7 +15093,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="28.5">
       <c r="A12" s="11" t="s">
         <v>273</v>
       </c>
@@ -15055,7 +15215,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="28.5">
       <c r="A13" s="2" t="s">
         <v>336</v>
       </c>
@@ -15177,7 +15337,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -15219,7 +15379,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="15">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
@@ -15263,7 +15423,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2509</v>
       </c>
@@ -15307,7 +15467,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="17" t="s">
         <v>2527</v>
       </c>
@@ -15351,7 +15511,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="17" t="s">
         <v>2510</v>
       </c>
@@ -15395,7 +15555,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="17" t="s">
         <v>2511</v>
       </c>
@@ -15439,23 +15599,18 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40">
       <c r="A21" s="17" t="s">
         <v>2513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -15468,50 +15623,55 @@
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
@@ -15569,7 +15729,7 @@
       <c r="AM1" s="36"/>
       <c r="AN1" s="36"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="36"/>
       <c r="B2" s="36" t="s">
         <v>2092</v>
@@ -15629,7 +15789,7 @@
       <c r="AM2" s="36"/>
       <c r="AN2" s="36"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -15749,7 +15909,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>361</v>
       </c>
@@ -15871,7 +16031,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>401</v>
       </c>
@@ -15993,7 +16153,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>441</v>
       </c>
@@ -16115,7 +16275,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>478</v>
       </c>
@@ -16237,7 +16397,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>557</v>
       </c>
@@ -16359,7 +16519,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="7" t="s">
         <v>517</v>
       </c>
@@ -16481,7 +16641,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -16523,7 +16683,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="15">
       <c r="A11" s="16" t="s">
         <v>2508</v>
       </c>
@@ -16567,7 +16727,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12" s="17" t="s">
         <v>2515</v>
       </c>
@@ -16611,7 +16771,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2516</v>
       </c>
@@ -16655,7 +16815,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2510</v>
       </c>
@@ -16699,7 +16859,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2511</v>
       </c>
@@ -16743,7 +16903,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2517</v>
       </c>
@@ -16787,7 +16947,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="17" t="s">
         <v>2513</v>
       </c>
@@ -16831,7 +16991,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -16873,7 +17033,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -16917,6 +17077,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -16933,51 +17094,50 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
@@ -17035,7 +17195,7 @@
       <c r="AM1" s="36"/>
       <c r="AN1" s="36"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="36"/>
       <c r="B2" s="36" t="s">
         <v>2092</v>
@@ -17095,7 +17255,7 @@
       <c r="AM2" s="36"/>
       <c r="AN2" s="36"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -17215,7 +17375,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>580</v>
       </c>
@@ -17337,7 +17497,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>619</v>
       </c>
@@ -17459,7 +17619,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>658</v>
       </c>
@@ -17581,7 +17741,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>698</v>
       </c>
@@ -17703,7 +17863,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>737</v>
       </c>
@@ -17825,7 +17985,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="5" t="s">
         <v>759</v>
       </c>
@@ -17947,7 +18107,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="28.5">
       <c r="A10" s="7" t="s">
         <v>797</v>
       </c>
@@ -18069,7 +18229,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="28.5">
       <c r="A11" s="9" t="s">
         <v>835</v>
       </c>
@@ -18191,7 +18351,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="28.5">
       <c r="A12" s="11" t="s">
         <v>874</v>
       </c>
@@ -18313,7 +18473,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="28.5">
       <c r="A13" s="2" t="s">
         <v>912</v>
       </c>
@@ -18435,7 +18595,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -18477,7 +18637,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="15">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
@@ -18521,7 +18681,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
@@ -18565,7 +18725,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="17" t="s">
         <v>2531</v>
       </c>
@@ -18609,7 +18769,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="17" t="s">
         <v>2654</v>
       </c>
@@ -18653,7 +18813,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="17" t="s">
         <v>2511</v>
       </c>
@@ -18697,18 +18857,19 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40">
       <c r="A21" s="17" t="s">
         <v>2529</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -18725,55 +18886,54 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN28"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
@@ -18831,7 +18991,7 @@
       <c r="AM1" s="36"/>
       <c r="AN1" s="36"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="36"/>
       <c r="B2" s="36" t="s">
         <v>2092</v>
@@ -18891,7 +19051,7 @@
       <c r="AM2" s="36"/>
       <c r="AN2" s="36"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -19011,7 +19171,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>937</v>
       </c>
@@ -19133,7 +19293,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="5" t="s">
         <v>975</v>
       </c>
@@ -19255,7 +19415,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="5" t="s">
         <v>1010</v>
       </c>
@@ -19377,7 +19537,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="5" t="s">
         <v>1048</v>
       </c>
@@ -19499,7 +19659,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="5" t="s">
         <v>1084</v>
       </c>
@@ -19621,7 +19781,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="2" t="s">
         <v>1440</v>
       </c>
@@ -19743,7 +19903,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="28.5">
       <c r="A10" s="7" t="s">
         <v>1120</v>
       </c>
@@ -19865,7 +20025,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="28.5">
       <c r="A11" s="7" t="s">
         <v>1156</v>
       </c>
@@ -19987,7 +20147,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="28.5">
       <c r="A12" s="7" t="s">
         <v>1193</v>
       </c>
@@ -20109,7 +20269,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="28.5">
       <c r="A13" s="7" t="s">
         <v>1227</v>
       </c>
@@ -20231,7 +20391,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="28.5">
       <c r="A14" s="13" t="s">
         <v>1263</v>
       </c>
@@ -20353,7 +20513,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="28.5">
       <c r="A15" s="3" t="s">
         <v>2102</v>
       </c>
@@ -20475,7 +20635,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="28.5">
       <c r="A16" s="7" t="s">
         <v>1299</v>
       </c>
@@ -20597,7 +20757,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="28.5">
       <c r="A17" s="7" t="s">
         <v>1333</v>
       </c>
@@ -20719,7 +20879,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="28.5">
       <c r="A18" s="7" t="s">
         <v>1372</v>
       </c>
@@ -20841,7 +21001,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="28.5">
       <c r="A19" s="7" t="s">
         <v>1407</v>
       </c>
@@ -20963,7 +21123,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="28.5">
       <c r="A20" s="3" t="s">
         <v>2101</v>
       </c>
@@ -21124,43 +21284,44 @@
         <v>0.68 (0.11)</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="15">
       <c r="A22" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40">
       <c r="A23" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40">
       <c r="A24" s="17" t="s">
         <v>2531</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40">
       <c r="A25" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40">
       <c r="A26" s="17" t="s">
         <v>2511</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40">
       <c r="A27" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40">
       <c r="A28" s="17" t="s">
         <v>2513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -21177,51 +21338,50 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
@@ -21279,7 +21439,7 @@
       <c r="AM1" s="36"/>
       <c r="AN1" s="36"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="36"/>
       <c r="B2" s="36" t="s">
         <v>2092</v>
@@ -21339,7 +21499,7 @@
       <c r="AM2" s="36"/>
       <c r="AN2" s="36"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -21459,7 +21619,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>1478</v>
       </c>
@@ -21581,7 +21741,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>1548</v>
       </c>
@@ -21703,7 +21863,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="5" t="s">
         <v>1514</v>
       </c>
@@ -21825,7 +21985,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="7" t="s">
         <v>1580</v>
       </c>
@@ -21947,7 +22107,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="15">
       <c r="A9" s="16" t="s">
         <v>2508</v>
       </c>
@@ -21991,7 +22151,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40">
       <c r="A10" s="17" t="s">
         <v>2518</v>
       </c>
@@ -22035,7 +22195,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40">
       <c r="A11" s="17" t="s">
         <v>2532</v>
       </c>
@@ -22079,7 +22239,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12" s="17" t="s">
         <v>2654</v>
       </c>
@@ -22123,7 +22283,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2511</v>
       </c>
@@ -22167,7 +22327,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2512</v>
       </c>
@@ -22211,7 +22371,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2513</v>
       </c>
@@ -22255,7 +22415,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -22297,7 +22457,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -22339,7 +22499,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -22381,7 +22541,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -22425,6 +22585,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -22441,51 +22602,50 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
@@ -22543,7 +22703,7 @@
       <c r="AM1" s="36"/>
       <c r="AN1" s="36"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="36"/>
       <c r="B2" s="36" t="s">
         <v>2092</v>
@@ -22603,7 +22763,7 @@
       <c r="AM2" s="36"/>
       <c r="AN2" s="36"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -22723,7 +22883,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>1617</v>
       </c>
@@ -22845,7 +23005,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>1649</v>
       </c>
@@ -22967,7 +23127,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>1681</v>
       </c>
@@ -23089,7 +23249,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>1717</v>
       </c>
@@ -23211,7 +23371,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>1751</v>
       </c>
@@ -23333,7 +23493,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -23375,7 +23535,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="15">
       <c r="A10" s="16" t="s">
         <v>2508</v>
       </c>
@@ -23419,7 +23579,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40">
       <c r="A11" s="17" t="s">
         <v>2518</v>
       </c>
@@ -23463,7 +23623,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12" s="17" t="s">
         <v>2530</v>
       </c>
@@ -23507,7 +23667,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2654</v>
       </c>
@@ -23551,7 +23711,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2511</v>
       </c>
@@ -23595,7 +23755,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2512</v>
       </c>
@@ -23639,7 +23799,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2533</v>
       </c>
@@ -23683,7 +23843,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -23725,7 +23885,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -23767,7 +23927,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -23811,6 +23971,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -23827,52 +23988,51 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10:AE10"/>
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
@@ -23930,7 +24090,7 @@
       <c r="AM1" s="36"/>
       <c r="AN1" s="36"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="36"/>
       <c r="B2" s="36" t="s">
         <v>2092</v>
@@ -23990,7 +24150,7 @@
       <c r="AM2" s="36"/>
       <c r="AN2" s="36"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -24110,7 +24270,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>1772</v>
       </c>
@@ -24232,7 +24392,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>1806</v>
       </c>
@@ -24354,7 +24514,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>1842</v>
       </c>
@@ -24476,7 +24636,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>1880</v>
       </c>
@@ -24598,7 +24758,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>1917</v>
       </c>
@@ -24720,7 +24880,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="8" t="s">
         <v>2535</v>
       </c>
@@ -24842,7 +25002,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="42.75">
       <c r="A10" s="3" t="s">
         <v>2567</v>
       </c>
@@ -25003,7 +25163,7 @@
         <v>0.63 (0.15)</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="28.5">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -25029,22 +25189,42 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
+      <c r="AA11" s="4" t="s">
+        <v>2996</v>
+      </c>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
+      <c r="AC11" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>1945</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>2767</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>2768</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>2759</v>
+      </c>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="85.5">
       <c r="A12" s="16" t="s">
         <v>2508</v>
       </c>
@@ -25073,22 +25253,42 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
+      <c r="AA12" s="4" t="s">
+        <v>2997</v>
+      </c>
       <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
+      <c r="AC12" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>2845</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>2846</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>2847</v>
+      </c>
+      <c r="AI12" s="4" t="s">
+        <v>2174</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>1927</v>
+      </c>
+      <c r="AK12" s="4" t="s">
+        <v>2115</v>
+      </c>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2518</v>
       </c>
@@ -25132,7 +25332,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2530</v>
       </c>
@@ -25176,7 +25376,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2654</v>
       </c>
@@ -25220,7 +25420,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2534</v>
       </c>
@@ -25264,7 +25464,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="17" t="s">
         <v>2512</v>
       </c>
@@ -25308,7 +25508,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="17" t="s">
         <v>2533</v>
       </c>
@@ -25352,7 +25552,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -25395,6 +25595,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -25411,51 +25612,50 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="A1" s="36" t="s">
         <v>2100</v>
       </c>
@@ -25513,7 +25713,7 @@
       <c r="AM1" s="36"/>
       <c r="AN1" s="36"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" s="36"/>
       <c r="B2" s="36" t="s">
         <v>2092</v>
@@ -25573,7 +25773,7 @@
       <c r="AM2" s="36"/>
       <c r="AN2" s="36"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
@@ -25693,7 +25893,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>1954</v>
       </c>
@@ -25815,7 +26015,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>1988</v>
       </c>
@@ -25937,7 +26137,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>2024</v>
       </c>
@@ -26059,7 +26259,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>2057</v>
       </c>
@@ -26181,7 +26381,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>1937</v>
       </c>
@@ -26303,7 +26503,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -26345,7 +26545,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="15">
       <c r="A10" s="16" t="s">
         <v>2508</v>
       </c>
@@ -26389,7 +26589,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40">
       <c r="A11" s="17" t="s">
         <v>2518</v>
       </c>
@@ -26433,7 +26633,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12" s="17" t="s">
         <v>2531</v>
       </c>
@@ -26477,7 +26677,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2654</v>
       </c>
@@ -26521,7 +26721,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2534</v>
       </c>
@@ -26565,7 +26765,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2512</v>
       </c>
@@ -26609,7 +26809,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2533</v>
       </c>
@@ -26653,7 +26853,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -26695,7 +26895,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -26737,7 +26937,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -26781,6 +26981,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -26797,7 +26998,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DavidTerroso\D\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\D\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C27D27-91D5-4745-8115-F060D66A78C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Preliminar" sheetId="9" r:id="rId1"/>
@@ -24,9 +25,11 @@
     <sheet name="MultiClassFinal" sheetId="11" r:id="rId10"/>
     <sheet name="IRF" sheetId="10" r:id="rId11"/>
     <sheet name="SRF" sheetId="12" r:id="rId12"/>
-    <sheet name="PED" sheetId="13" r:id="rId13"/>
+    <sheet name="SRF_new" sheetId="14" r:id="rId13"/>
+    <sheet name="PED" sheetId="13" r:id="rId14"/>
+    <sheet name="PED_new" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,14 +50,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -69,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4141" uniqueCount="2998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4349" uniqueCount="3050">
   <si>
     <t>Run001</t>
   </si>
@@ -9063,13 +9066,169 @@
   </si>
   <si>
     <t>DESPROP. ENTRE FOLDS</t>
+  </si>
+  <si>
+    <t>New data split</t>
+  </si>
+  <si>
+    <t>Run108</t>
+  </si>
+  <si>
+    <t>0.509 (0.444)</t>
+  </si>
+  <si>
+    <t>0.758 (0.160)</t>
+  </si>
+  <si>
+    <t>0.382 (0.486)</t>
+  </si>
+  <si>
+    <t>0.617 (0.456)</t>
+  </si>
+  <si>
+    <t>0.793 (0.197)</t>
+  </si>
+  <si>
+    <t>0.564 (0.497)</t>
+  </si>
+  <si>
+    <t>0.759 (0.414)</t>
+  </si>
+  <si>
+    <t>0.607 (0.324)</t>
+  </si>
+  <si>
+    <t>0.774 (0.419)</t>
+  </si>
+  <si>
+    <t>0.613 (0.450)</t>
+  </si>
+  <si>
+    <t>0.745 (0.202)</t>
+  </si>
+  <si>
+    <t>0.572 (0.495)</t>
+  </si>
+  <si>
+    <t>Run109</t>
+  </si>
+  <si>
+    <t>0.743 (0.383)</t>
+  </si>
+  <si>
+    <t>0.733 (0.173)</t>
+  </si>
+  <si>
+    <t>0.776 (0.390)</t>
+  </si>
+  <si>
+    <t>0.885 (0.100)</t>
+  </si>
+  <si>
+    <t>0.741 (0.440)</t>
+  </si>
+  <si>
+    <t>0.901 (0.260)</t>
+  </si>
+  <si>
+    <t>0.801 (0.087)</t>
+  </si>
+  <si>
+    <t>0.918 (0.275)</t>
+  </si>
+  <si>
+    <t>0.807 (0.352)</t>
+  </si>
+  <si>
+    <t>0.779 (0.156)</t>
+  </si>
+  <si>
+    <t>Run110</t>
+  </si>
+  <si>
+    <t>0.720 (0.439)</t>
+  </si>
+  <si>
+    <t>0.722 (0.169)</t>
+  </si>
+  <si>
+    <t>0.864 (0.299)</t>
+  </si>
+  <si>
+    <t>0.875 (0.132)</t>
+  </si>
+  <si>
+    <t>0.859 (0.349)</t>
+  </si>
+  <si>
+    <t>0.816 (0.341)</t>
+  </si>
+  <si>
+    <t>0.803 (0.141)</t>
+  </si>
+  <si>
+    <t>0.820 (0.384)</t>
+  </si>
+  <si>
+    <t>0.781 (0.386)</t>
+  </si>
+  <si>
+    <t>0.809 (0.150)</t>
+  </si>
+  <si>
+    <t>Run111</t>
+  </si>
+  <si>
+    <t>0.775 (0.394)</t>
+  </si>
+  <si>
+    <t>0.872 (0.074)</t>
+  </si>
+  <si>
+    <t>0.752 (0.432)</t>
+  </si>
+  <si>
+    <t>0.810 (0.341)</t>
+  </si>
+  <si>
+    <t>0.826 (0.159)</t>
+  </si>
+  <si>
+    <t>0.879 (0.307)</t>
+  </si>
+  <si>
+    <t>0.676 (0.220)</t>
+  </si>
+  <si>
+    <t>0.819 (0.358)</t>
+  </si>
+  <si>
+    <t>0.826 (0.152)</t>
+  </si>
+  <si>
+    <t>Iteration30</t>
+  </si>
+  <si>
+    <t>0.77 (0.06)</t>
+  </si>
+  <si>
+    <t>0.77 (0.09)</t>
+  </si>
+  <si>
+    <t>0.85 (0.06)</t>
+  </si>
+  <si>
+    <t>0.79 (0.03)</t>
+  </si>
+  <si>
+    <t>0.74 (0.10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9117,6 +9276,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -9282,7 +9442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9385,13 +9545,23 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9739,164 +9909,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="17"/>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="17"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36" t="s">
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36" t="s">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36" t="s">
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36" t="s">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="36"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -10015,7 +10185,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>2217</v>
       </c>
@@ -10137,7 +10307,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>2254</v>
       </c>
@@ -10259,7 +10429,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>2290</v>
       </c>
@@ -10381,7 +10551,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>2327</v>
       </c>
@@ -10503,7 +10673,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>2362</v>
       </c>
@@ -10625,7 +10795,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.5">
+    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>2399</v>
       </c>
@@ -10747,7 +10917,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.5">
+    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>2437</v>
       </c>
@@ -10869,7 +11039,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.5">
+    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>2473</v>
       </c>
@@ -10991,15 +11161,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:40" ht="15">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="15">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>2509</v>
       </c>
@@ -11010,7 +11180,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="15">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>2528</v>
       </c>
@@ -11021,7 +11191,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="15">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2510</v>
       </c>
@@ -11032,7 +11202,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2511</v>
       </c>
@@ -11043,7 +11213,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>2512</v>
       </c>
@@ -11054,7 +11224,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>2513</v>
       </c>
@@ -11065,7 +11235,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>2514</v>
       </c>
@@ -11076,7 +11246,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G21" s="18" t="s">
         <v>2473</v>
       </c>
@@ -11086,829 +11256,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="36" t="s">
-        <v>2100</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>2091</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
-        <v>2098</v>
-      </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36" t="s">
-        <v>2099</v>
-      </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36" t="s">
-        <v>2092</v>
-      </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36" t="s">
-        <v>2096</v>
-      </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
-        <v>2092</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
-        <v>2096</v>
-      </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
-        <v>2097</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36" t="s">
-        <v>2092</v>
-      </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
-        <v>2096</v>
-      </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36" t="s">
-        <v>2097</v>
-      </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36" t="s">
-        <v>2092</v>
-      </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36" t="s">
-        <v>2096</v>
-      </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="36"/>
-      <c r="B3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" ht="30">
-      <c r="A4" s="21" t="s">
-        <v>2615</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>2580</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>2581</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>2582</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>2583</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>2584</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>2585</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>2586</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>2587</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>2588</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>2589</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>2590</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>2591</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>2592</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>2593</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>2594</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>2595</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>2596</v>
-      </c>
-      <c r="S4" s="21" t="s">
-        <v>2597</v>
-      </c>
-      <c r="T4" s="21" t="s">
-        <v>2598</v>
-      </c>
-      <c r="U4" s="21" t="s">
-        <v>2599</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>2600</v>
-      </c>
-      <c r="W4" s="33" t="s">
-        <v>2601</v>
-      </c>
-      <c r="X4" s="21" t="s">
-        <v>2602</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>2603</v>
-      </c>
-      <c r="Z4" s="21" t="s">
-        <v>2604</v>
-      </c>
-      <c r="AA4" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB4" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="AC4" s="21" t="s">
-        <v>2605</v>
-      </c>
-      <c r="AD4" s="21" t="s">
-        <v>2606</v>
-      </c>
-      <c r="AE4" s="21" t="s">
-        <v>2607</v>
-      </c>
-      <c r="AF4" s="21" t="s">
-        <v>2608</v>
-      </c>
-      <c r="AG4" s="21" t="s">
-        <v>2609</v>
-      </c>
-      <c r="AH4" s="33" t="s">
-        <v>2610</v>
-      </c>
-      <c r="AI4" s="21" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AJ4" s="21" t="s">
-        <v>2611</v>
-      </c>
-      <c r="AK4" s="21" t="s">
-        <v>1257</v>
-      </c>
-      <c r="AL4" s="21" t="s">
-        <v>2612</v>
-      </c>
-      <c r="AM4" s="21" t="s">
-        <v>2613</v>
-      </c>
-      <c r="AN4" s="21" t="s">
-        <v>2614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" ht="15">
-      <c r="A6" s="16" t="s">
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
-      <c r="A7" s="17" t="s">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:40">
-      <c r="A9" s="36" t="s">
-        <v>2100</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>2091</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36" t="s">
-        <v>2098</v>
-      </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36" t="s">
-        <v>2099</v>
-      </c>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36" t="s">
-        <v>2092</v>
-      </c>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36" t="s">
-        <v>2096</v>
-      </c>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-    </row>
-    <row r="10" spans="1:40">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36" t="s">
-        <v>2092</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36" t="s">
-        <v>2096</v>
-      </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36" t="s">
-        <v>2097</v>
-      </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36" t="s">
-        <v>2092</v>
-      </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36" t="s">
-        <v>2096</v>
-      </c>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36" t="s">
-        <v>2097</v>
-      </c>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36" t="s">
-        <v>2092</v>
-      </c>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36" t="s">
-        <v>2096</v>
-      </c>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
-    </row>
-    <row r="11" spans="1:40">
-      <c r="A11" s="36"/>
-      <c r="B11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AI11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AJ11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AK11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AL11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AM11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AN11" s="2" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" ht="30">
-      <c r="A12" s="24" t="s">
-        <v>2937</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>2938</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>2939</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>2940</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>2941</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>2942</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>2943</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>2944</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>2945</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>2946</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>2947</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>2948</v>
-      </c>
-      <c r="M12" s="34" t="s">
-        <v>961</v>
-      </c>
-      <c r="N12" s="34" t="s">
-        <v>2949</v>
-      </c>
-      <c r="O12" s="34" t="s">
-        <v>2950</v>
-      </c>
-      <c r="P12" s="34" t="s">
-        <v>2951</v>
-      </c>
-      <c r="Q12" s="34" t="s">
-        <v>2952</v>
-      </c>
-      <c r="R12" s="34" t="s">
-        <v>2953</v>
-      </c>
-      <c r="S12" s="34" t="s">
-        <v>2954</v>
-      </c>
-      <c r="T12" s="34" t="s">
-        <v>2955</v>
-      </c>
-      <c r="U12" s="34" t="s">
-        <v>2956</v>
-      </c>
-      <c r="V12" s="34" t="s">
-        <v>2957</v>
-      </c>
-      <c r="W12" s="24" t="s">
-        <v>2958</v>
-      </c>
-      <c r="X12" s="34" t="s">
-        <v>2959</v>
-      </c>
-      <c r="Y12" s="24" t="s">
-        <v>2960</v>
-      </c>
-      <c r="Z12" s="34" t="s">
-        <v>2961</v>
-      </c>
-      <c r="AA12" s="34" t="s">
-        <v>2962</v>
-      </c>
-      <c r="AB12" s="34" t="s">
-        <v>1894</v>
-      </c>
-      <c r="AC12" s="34" t="s">
-        <v>2963</v>
-      </c>
-      <c r="AD12" s="34" t="s">
-        <v>2966</v>
-      </c>
-      <c r="AE12" s="34" t="s">
-        <v>776</v>
-      </c>
-      <c r="AF12" s="34" t="s">
-        <v>2964</v>
-      </c>
-      <c r="AG12" s="34" t="s">
-        <v>2967</v>
-      </c>
-      <c r="AH12" s="35" t="s">
-        <v>2666</v>
-      </c>
-      <c r="AI12" s="34" t="s">
-        <v>2965</v>
-      </c>
-      <c r="AJ12" s="34" t="s">
-        <v>2968</v>
-      </c>
-      <c r="AK12" s="34" t="s">
-        <v>2969</v>
-      </c>
-      <c r="AL12" s="34" t="s">
-        <v>2970</v>
-      </c>
-      <c r="AM12" s="34" t="s">
-        <v>2971</v>
-      </c>
-      <c r="AN12" s="34" t="s">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" ht="15">
-      <c r="A14" s="16" t="s">
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
-      <c r="A15" s="17" t="s">
-        <v>2936</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="AF9:AH10"/>
-    <mergeCell ref="AI9:AK10"/>
-    <mergeCell ref="AL9:AN10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:S9"/>
-    <mergeCell ref="T9:AB9"/>
-    <mergeCell ref="AC9:AE10"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:S1"/>
@@ -11927,72 +11274,895 @@
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AF1:AH2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AN15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
+        <v>2098</v>
+      </c>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38" t="s">
+        <v>2099</v>
+      </c>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38" t="s">
+        <v>2096</v>
+      </c>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
+        <v>2096</v>
+      </c>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
+        <v>2097</v>
+      </c>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38" t="s">
+        <v>2092</v>
+      </c>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38" t="s">
+        <v>2096</v>
+      </c>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
+      <c r="B3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>2584</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>2585</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>2586</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>2587</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>2589</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>2590</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>2591</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>2592</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>2593</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>2594</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>2595</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>2596</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>2597</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>2598</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>2599</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>2600</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>2601</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>2602</v>
+      </c>
+      <c r="Y4" s="33" t="s">
+        <v>2603</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>2605</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>2606</v>
+      </c>
+      <c r="AE4" s="21" t="s">
+        <v>2607</v>
+      </c>
+      <c r="AF4" s="21" t="s">
+        <v>2608</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>2609</v>
+      </c>
+      <c r="AH4" s="33" t="s">
+        <v>2610</v>
+      </c>
+      <c r="AI4" s="21" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
+        <v>2611</v>
+      </c>
+      <c r="AK4" s="21" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AL4" s="21" t="s">
+        <v>2612</v>
+      </c>
+      <c r="AM4" s="21" t="s">
+        <v>2613</v>
+      </c>
+      <c r="AN4" s="21" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38" t="s">
+        <v>2098</v>
+      </c>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38" t="s">
+        <v>2099</v>
+      </c>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38" t="s">
+        <v>2096</v>
+      </c>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="38" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38" t="s">
+        <v>2096</v>
+      </c>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38" t="s">
+        <v>2097</v>
+      </c>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38" t="s">
+        <v>2092</v>
+      </c>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38" t="s">
+        <v>2096</v>
+      </c>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="38"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="38"/>
+      <c r="AJ10" s="38"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="38"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="38"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
+      <c r="B11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>2942</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>2943</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>2944</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>2948</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>961</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>2949</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>2950</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>2951</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>2952</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>2953</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>2954</v>
+      </c>
+      <c r="T12" s="34" t="s">
+        <v>2955</v>
+      </c>
+      <c r="U12" s="34" t="s">
+        <v>2956</v>
+      </c>
+      <c r="V12" s="34" t="s">
+        <v>2957</v>
+      </c>
+      <c r="W12" s="24" t="s">
+        <v>2958</v>
+      </c>
+      <c r="X12" s="34" t="s">
+        <v>2959</v>
+      </c>
+      <c r="Y12" s="24" t="s">
+        <v>2960</v>
+      </c>
+      <c r="Z12" s="34" t="s">
+        <v>2961</v>
+      </c>
+      <c r="AA12" s="34" t="s">
+        <v>2962</v>
+      </c>
+      <c r="AB12" s="34" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AC12" s="34" t="s">
+        <v>2963</v>
+      </c>
+      <c r="AD12" s="34" t="s">
+        <v>2966</v>
+      </c>
+      <c r="AE12" s="34" t="s">
+        <v>776</v>
+      </c>
+      <c r="AF12" s="34" t="s">
+        <v>2964</v>
+      </c>
+      <c r="AG12" s="34" t="s">
+        <v>2967</v>
+      </c>
+      <c r="AH12" s="35" t="s">
+        <v>2666</v>
+      </c>
+      <c r="AI12" s="34" t="s">
+        <v>2965</v>
+      </c>
+      <c r="AJ12" s="34" t="s">
+        <v>2968</v>
+      </c>
+      <c r="AK12" s="34" t="s">
+        <v>2969</v>
+      </c>
+      <c r="AL12" s="34" t="s">
+        <v>2970</v>
+      </c>
+      <c r="AM12" s="34" t="s">
+        <v>2971</v>
+      </c>
+      <c r="AN12" s="34" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:S9"/>
+    <mergeCell ref="T9:AB9"/>
+    <mergeCell ref="AC9:AE10"/>
+    <mergeCell ref="AF9:AH10"/>
+    <mergeCell ref="AI9:AK10"/>
+    <mergeCell ref="AL9:AN10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="36"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -12030,7 +12200,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.5">
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2568</v>
       </c>
@@ -12071,7 +12241,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.5">
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>2617</v>
       </c>
@@ -12112,7 +12282,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.5">
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>2630</v>
       </c>
@@ -12153,7 +12323,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.5">
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>2642</v>
       </c>
@@ -12194,7 +12364,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.5">
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2769</v>
       </c>
@@ -12235,7 +12405,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.5">
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>2774</v>
       </c>
@@ -12276,8 +12446,8 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="28.5">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
         <v>2775</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -12316,9 +12486,9 @@
       <c r="M10" s="22" t="s">
         <v>2809</v>
       </c>
-      <c r="N10" s="38"/>
-    </row>
-    <row r="11" spans="1:14" ht="28.5">
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>2776</v>
       </c>
@@ -12359,7 +12529,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.5">
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>2777</v>
       </c>
@@ -12400,7 +12570,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="28.5">
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>2778</v>
       </c>
@@ -12441,7 +12611,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="28.5">
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>2972</v>
       </c>
@@ -12482,7 +12652,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="28.5">
+    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>2984</v>
       </c>
@@ -12523,42 +12693,42 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>2701</v>
       </c>
@@ -12579,66 +12749,66 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="36"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -12676,7 +12846,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="28.5">
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2655</v>
       </c>
@@ -12717,7 +12887,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="28.5">
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>2667</v>
       </c>
@@ -12758,7 +12928,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="28.5">
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>2679</v>
       </c>
@@ -12799,7 +12969,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="28.5">
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>2688</v>
       </c>
@@ -12840,7 +13010,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="28.5">
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2760</v>
       </c>
@@ -12881,7 +13051,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="28.5">
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>2779</v>
       </c>
@@ -12921,17 +13091,8 @@
       <c r="M9" s="27" t="s">
         <v>2857</v>
       </c>
-      <c r="O9" s="25" t="s">
-        <v>2797</v>
-      </c>
-      <c r="P9" s="25" t="s">
-        <v>2798</v>
-      </c>
-      <c r="Q9" s="25" t="s">
-        <v>2799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="28.5">
+    </row>
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>2780</v>
       </c>
@@ -12971,18 +13132,9 @@
       <c r="M10" s="28" t="s">
         <v>858</v>
       </c>
-      <c r="O10" s="22" t="s">
-        <v>2807</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>2808</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>2809</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="28.5">
-      <c r="A11" s="29" t="s">
+    </row>
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
         <v>2781</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -13021,18 +13173,9 @@
       <c r="M11" s="29" t="s">
         <v>2010</v>
       </c>
-      <c r="N11" s="38"/>
-      <c r="O11" s="23" t="s">
-        <v>2818</v>
-      </c>
-      <c r="P11" s="23" t="s">
-        <v>2819</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>2820</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="28.5">
+      <c r="N11" s="37"/>
+    </row>
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>2782</v>
       </c>
@@ -13072,17 +13215,8 @@
       <c r="M12" s="26" t="s">
         <v>550</v>
       </c>
-      <c r="O12" s="24" t="s">
-        <v>2829</v>
-      </c>
-      <c r="P12" s="24" t="s">
-        <v>2830</v>
-      </c>
-      <c r="Q12" s="24" t="s">
-        <v>2831</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="28.5">
+    </row>
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>2783</v>
       </c>
@@ -13122,52 +13256,43 @@
       <c r="M13" s="3" t="s">
         <v>2847</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>1939</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>2839</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>2700</v>
       </c>
@@ -13188,66 +13313,1200 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA26A6EA-D920-4E8C-8D15-613BA56AC96F}">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
+        <v>2099</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
+        <v>2096</v>
+      </c>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
+        <v>2096</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
+      <c r="B3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2658</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2659</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>2660</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>1891</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>2661</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2662</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>2663</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>2664</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>2665</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>2670</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>2671</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>2672</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>2673</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>2674</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>2675</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>2676</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>2677</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>2682</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>2683</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>2684</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>2685</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>2061</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>2686</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>2691</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>2692</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>2693</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>2694</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>2695</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>2696</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>2697</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>2698</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>2699</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2763</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>2130</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>2764</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>2765</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>2766</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>2767</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>3001</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>3002</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>3004</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>3005</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>3006</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>3007</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>3008</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>3009</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>3010</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>3015</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>3016</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>3017</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>3018</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>3019</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>3020</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>3021</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>3022</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>3025</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>3026</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>3027</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>3028</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>3029</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>3030</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>3031</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>3032</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>3033</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>1226</v>
+      </c>
+      <c r="N11" s="39"/>
+    </row>
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>3036</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>3037</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>3038</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>3039</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>3040</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>3041</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>776</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>3042</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>3043</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>1987</v>
+      </c>
+      <c r="N12" s="37"/>
+    </row>
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3045</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>3046</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>3047</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>3048</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
+        <v>2099</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
+        <v>2097</v>
+      </c>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
+      <c r="B3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2706</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>2707</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>2708</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>2709</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2710</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>2711</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>2712</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>2713</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>2717</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>2718</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>2719</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>2720</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>2721</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>2722</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>2723</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>2724</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2727</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>2728</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>2729</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>2730</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>2731</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>2732</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>2733</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>2734</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>2735</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>2736</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>2742</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>2743</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>2744</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>2745</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>2746</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>2747</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>2748</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2753</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2754</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>2756</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>2757</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>2758</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>2203</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>2885</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>2886</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>2887</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>2888</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>2889</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>2890</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>2891</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>2892</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>2893</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>2896</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>2897</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>2898</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>2899</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>2900</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>2901</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>2902</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>2903</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>2904</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>2905</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>2908</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>2909</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>2910</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>2911</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>2912</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>2913</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>2914</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>2915</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>2916</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>2917</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>2920</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>2786</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>2921</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>2922</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>2923</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>2925</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>1778</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>2926</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>2927</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="N12" s="37"/>
+    </row>
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2929</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2930</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>2931</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>2932</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>2933</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>2934</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>2935</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>1927</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410D55D1-75AB-4EE4-9547-F3B1426541B9}">
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="36"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -13285,7 +14544,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="28.5">
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2702</v>
       </c>
@@ -13326,7 +14585,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="28.5">
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>2714</v>
       </c>
@@ -13367,7 +14626,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="28.5">
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>2725</v>
       </c>
@@ -13408,7 +14667,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="28.5">
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>2738</v>
       </c>
@@ -13449,7 +14708,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="28.5">
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2751</v>
       </c>
@@ -13490,340 +14749,125 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="28.5">
-      <c r="A9" s="8" t="s">
-        <v>2784</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>2883</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>2884</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>2885</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>2886</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>2887</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>2888</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>2889</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>2890</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>2891</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>2892</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>2893</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>2894</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>2855</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>2856</v>
-      </c>
-      <c r="Q9" s="27" t="s">
-        <v>2857</v>
-      </c>
-      <c r="S9" s="25" t="s">
-        <v>2797</v>
-      </c>
-      <c r="T9" s="25" t="s">
-        <v>2798</v>
-      </c>
-      <c r="U9" s="25" t="s">
-        <v>2799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="28.5">
-      <c r="A10" s="30" t="s">
-        <v>2785</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>2895</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>2896</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>2897</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>2898</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>2899</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>2900</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>2901</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>2902</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>2903</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>2904</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>2905</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>2906</v>
-      </c>
-      <c r="O10" s="28" t="s">
-        <v>2862</v>
-      </c>
-      <c r="P10" s="28" t="s">
-        <v>2863</v>
-      </c>
-      <c r="Q10" s="28" t="s">
-        <v>858</v>
-      </c>
-      <c r="S10" s="22" t="s">
-        <v>2807</v>
-      </c>
-      <c r="T10" s="22" t="s">
-        <v>2808</v>
-      </c>
-      <c r="U10" s="22" t="s">
-        <v>2809</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="28.5">
-      <c r="A11" s="32" t="s">
-        <v>2787</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>2907</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>2908</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>2909</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>2910</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>2911</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>2912</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>2913</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>2914</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>2915</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>2916</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>2917</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>2918</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>2871</v>
-      </c>
-      <c r="P11" s="29" t="s">
-        <v>2872</v>
-      </c>
-      <c r="Q11" s="29" t="s">
-        <v>2010</v>
-      </c>
-      <c r="S11" s="23" t="s">
-        <v>2818</v>
-      </c>
-      <c r="T11" s="23" t="s">
-        <v>2819</v>
-      </c>
-      <c r="U11" s="23" t="s">
-        <v>2820</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="28.5">
-      <c r="A12" s="31" t="s">
-        <v>2788</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>2919</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>2920</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>2786</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>2921</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>2922</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>2923</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>2924</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>2925</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>1778</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>2926</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>2927</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>697</v>
-      </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="26" t="s">
-        <v>2881</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>2882</v>
-      </c>
-      <c r="Q12" s="26" t="s">
-        <v>550</v>
-      </c>
-      <c r="S12" s="24" t="s">
-        <v>2829</v>
-      </c>
-      <c r="T12" s="24" t="s">
-        <v>2830</v>
-      </c>
-      <c r="U12" s="24" t="s">
-        <v>2831</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="28.5">
-      <c r="A13" s="3" t="s">
-        <v>2789</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>2928</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>2929</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>2930</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>2931</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>2932</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>2933</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>2934</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>2935</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>2174</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>1927</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>2115</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>2845</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>2846</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>2847</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>1939</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>2839</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="42"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="39"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>2750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>2998</v>
       </c>
     </row>
   </sheetData>
@@ -13842,163 +14886,163 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36" t="s">
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36" t="s">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36" t="s">
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36" t="s">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="36"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -14117,7 +15161,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -14239,7 +15283,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
@@ -14361,7 +15405,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>80</v>
       </c>
@@ -14483,7 +15527,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>119</v>
       </c>
@@ -14605,7 +15649,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>311</v>
       </c>
@@ -14727,7 +15771,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.5">
+    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>158</v>
       </c>
@@ -14849,7 +15893,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.5">
+    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>196</v>
       </c>
@@ -14971,7 +16015,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.5">
+    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>234</v>
       </c>
@@ -15093,7 +16137,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.5">
+    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>273</v>
       </c>
@@ -15215,7 +16259,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.5">
+    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>336</v>
       </c>
@@ -15337,7 +16381,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -15379,7 +16423,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" ht="15">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
@@ -15423,7 +16467,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2509</v>
       </c>
@@ -15467,7 +16511,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2527</v>
       </c>
@@ -15511,7 +16555,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>2510</v>
       </c>
@@ -15555,7 +16599,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>2511</v>
       </c>
@@ -15599,18 +16643,22 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>2513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -15624,173 +16672,169 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36" t="s">
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36" t="s">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36" t="s">
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36" t="s">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="36"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -15909,7 +16953,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>361</v>
       </c>
@@ -16031,7 +17075,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>401</v>
       </c>
@@ -16153,7 +17197,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>441</v>
       </c>
@@ -16275,7 +17319,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>478</v>
       </c>
@@ -16397,7 +17441,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>557</v>
       </c>
@@ -16519,7 +17563,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.5">
+    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>517</v>
       </c>
@@ -16641,7 +17685,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -16683,7 +17727,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" ht="15">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>2508</v>
       </c>
@@ -16727,7 +17771,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>2515</v>
       </c>
@@ -16771,7 +17815,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>2516</v>
       </c>
@@ -16815,7 +17859,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>2510</v>
       </c>
@@ -16859,7 +17903,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>2511</v>
       </c>
@@ -16903,7 +17947,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2517</v>
       </c>
@@ -16947,7 +17991,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2513</v>
       </c>
@@ -16991,7 +18035,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -17033,7 +18077,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -17077,11 +18121,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -17094,169 +18133,174 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36" t="s">
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36" t="s">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36" t="s">
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36" t="s">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="36"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -17375,7 +18419,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>580</v>
       </c>
@@ -17497,7 +18541,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>619</v>
       </c>
@@ -17619,7 +18663,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>658</v>
       </c>
@@ -17741,7 +18785,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>698</v>
       </c>
@@ -17863,7 +18907,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>737</v>
       </c>
@@ -17985,7 +19029,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.5">
+    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>759</v>
       </c>
@@ -18107,7 +19151,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.5">
+    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>797</v>
       </c>
@@ -18229,7 +19273,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.5">
+    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>835</v>
       </c>
@@ -18351,7 +19395,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.5">
+    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>874</v>
       </c>
@@ -18473,7 +19517,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.5">
+    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>912</v>
       </c>
@@ -18595,7 +19639,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -18637,7 +19681,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" ht="15">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
@@ -18681,7 +19725,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
@@ -18725,7 +19769,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2531</v>
       </c>
@@ -18769,7 +19813,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>2654</v>
       </c>
@@ -18813,7 +19857,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>2511</v>
       </c>
@@ -18857,23 +19901,18 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>2529</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -18886,173 +19925,178 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AN28"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" customWidth="1"/>
-    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36" t="s">
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36" t="s">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36" t="s">
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36" t="s">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="36"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -19171,7 +20215,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>937</v>
       </c>
@@ -19293,7 +20337,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>975</v>
       </c>
@@ -19415,7 +20459,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>1010</v>
       </c>
@@ -19537,7 +20581,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>1048</v>
       </c>
@@ -19659,7 +20703,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>1084</v>
       </c>
@@ -19781,7 +20825,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.5">
+    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1440</v>
       </c>
@@ -19903,7 +20947,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.5">
+    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1120</v>
       </c>
@@ -20025,7 +21069,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.5">
+    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1156</v>
       </c>
@@ -20147,7 +21191,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.5">
+    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1193</v>
       </c>
@@ -20269,7 +21313,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.5">
+    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1227</v>
       </c>
@@ -20391,7 +21435,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="28.5">
+    <row r="14" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>1263</v>
       </c>
@@ -20513,7 +21557,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="28.5">
+    <row r="15" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>2102</v>
       </c>
@@ -20635,7 +21679,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="28.5">
+    <row r="16" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>1299</v>
       </c>
@@ -20757,7 +21801,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="28.5">
+    <row r="17" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>1333</v>
       </c>
@@ -20879,7 +21923,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="28.5">
+    <row r="18" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>1372</v>
       </c>
@@ -21001,7 +22045,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="28.5">
+    <row r="19" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>1407</v>
       </c>
@@ -21123,7 +22167,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="28.5">
+    <row r="20" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>2101</v>
       </c>
@@ -21284,48 +22328,43 @@
         <v>0.68 (0.11)</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="15">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>2531</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>2511</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>2513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -21338,169 +22377,174 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36" t="s">
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36" t="s">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36" t="s">
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36" t="s">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="36"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -21619,7 +22663,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1478</v>
       </c>
@@ -21741,7 +22785,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1548</v>
       </c>
@@ -21863,7 +22907,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>1514</v>
       </c>
@@ -21985,7 +23029,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1580</v>
       </c>
@@ -22107,7 +23151,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="15">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>2508</v>
       </c>
@@ -22151,7 +23195,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>2518</v>
       </c>
@@ -22195,7 +23239,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>2532</v>
       </c>
@@ -22239,7 +23283,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>2654</v>
       </c>
@@ -22283,7 +23327,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>2511</v>
       </c>
@@ -22327,7 +23371,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>2512</v>
       </c>
@@ -22371,7 +23415,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>2513</v>
       </c>
@@ -22415,7 +23459,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -22457,7 +23501,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -22499,7 +23543,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -22541,7 +23585,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -22585,11 +23629,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -22602,169 +23641,174 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36" t="s">
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36" t="s">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36" t="s">
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36" t="s">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="36"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -22883,7 +23927,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1617</v>
       </c>
@@ -23005,7 +24049,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1649</v>
       </c>
@@ -23127,7 +24171,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>1681</v>
       </c>
@@ -23249,7 +24293,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>1717</v>
       </c>
@@ -23371,7 +24415,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1751</v>
       </c>
@@ -23493,7 +24537,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -23535,7 +24579,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" ht="15">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>2508</v>
       </c>
@@ -23579,7 +24623,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>2518</v>
       </c>
@@ -23623,7 +24667,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>2530</v>
       </c>
@@ -23667,7 +24711,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>2654</v>
       </c>
@@ -23711,7 +24755,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>2511</v>
       </c>
@@ -23755,7 +24799,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>2512</v>
       </c>
@@ -23799,7 +24843,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2533</v>
       </c>
@@ -23843,7 +24887,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -23885,7 +24929,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -23927,7 +24971,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -23971,11 +25015,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -23988,170 +25027,175 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36" t="s">
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36" t="s">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36" t="s">
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36" t="s">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="36"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -24270,7 +25314,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1772</v>
       </c>
@@ -24392,7 +25436,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1806</v>
       </c>
@@ -24514,7 +25558,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>1842</v>
       </c>
@@ -24636,7 +25680,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>1880</v>
       </c>
@@ -24758,7 +25802,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1917</v>
       </c>
@@ -24880,7 +25924,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.5">
+    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>2535</v>
       </c>
@@ -25002,7 +26046,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="42.75">
+    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2567</v>
       </c>
@@ -25163,7 +26207,7 @@
         <v>0.63 (0.15)</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.5">
+    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -25224,7 +26268,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" ht="85.5">
+    <row r="12" spans="1:40" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>2508</v>
       </c>
@@ -25288,7 +26332,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>2518</v>
       </c>
@@ -25332,7 +26376,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>2530</v>
       </c>
@@ -25376,7 +26420,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>2654</v>
       </c>
@@ -25420,7 +26464,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2534</v>
       </c>
@@ -25464,7 +26508,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2512</v>
       </c>
@@ -25508,7 +26552,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>2533</v>
       </c>
@@ -25552,7 +26596,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -25595,11 +26639,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -25612,169 +26651,174 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36" t="s">
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36" t="s">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36" t="s">
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36" t="s">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="36"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -25893,7 +26937,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.5">
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1954</v>
       </c>
@@ -26015,7 +27059,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.5">
+    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1988</v>
       </c>
@@ -26137,7 +27181,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.5">
+    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2024</v>
       </c>
@@ -26259,7 +27303,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.5">
+    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>2057</v>
       </c>
@@ -26381,7 +27425,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.5">
+    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1937</v>
       </c>
@@ -26503,7 +27547,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -26545,7 +27589,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" ht="15">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>2508</v>
       </c>
@@ -26589,7 +27633,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>2518</v>
       </c>
@@ -26633,7 +27677,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>2531</v>
       </c>
@@ -26677,7 +27721,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>2654</v>
       </c>
@@ -26721,7 +27765,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>2534</v>
       </c>
@@ -26765,7 +27809,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>2512</v>
       </c>
@@ -26809,7 +27853,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2533</v>
       </c>
@@ -26853,7 +27897,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -26895,7 +27939,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -26937,7 +27981,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -26981,11 +28025,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -26998,6 +28037,11 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\D\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C27D27-91D5-4745-8115-F060D66A78C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F737FA03-59AE-4ABE-AE79-B597BC8548CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4349" uniqueCount="3050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4414" uniqueCount="3105">
   <si>
     <t>Run001</t>
   </si>
@@ -9222,6 +9222,171 @@
   </si>
   <si>
     <t>0.74 (0.10)</t>
+  </si>
+  <si>
+    <t>Run112</t>
+  </si>
+  <si>
+    <t>0.357 (0.417)</t>
+  </si>
+  <si>
+    <t>0.282 (0.450)</t>
+  </si>
+  <si>
+    <t>0.304 (0.428)</t>
+  </si>
+  <si>
+    <t>0.720 (0.213)</t>
+  </si>
+  <si>
+    <t>0.210 (0.408)</t>
+  </si>
+  <si>
+    <t>0.456 (0.462)</t>
+  </si>
+  <si>
+    <t>0.593 (0.169)</t>
+  </si>
+  <si>
+    <t>0.429 (0.496)</t>
+  </si>
+  <si>
+    <t>0.381 (0.438)</t>
+  </si>
+  <si>
+    <t>0.594 (0.201)</t>
+  </si>
+  <si>
+    <t>0.321 (0.467)</t>
+  </si>
+  <si>
+    <t>Run113</t>
+  </si>
+  <si>
+    <t>0.232 (0.368)</t>
+  </si>
+  <si>
+    <t>0.581 (0.181)</t>
+  </si>
+  <si>
+    <t>0.143 (0.351)</t>
+  </si>
+  <si>
+    <t>0.305 (0.390)</t>
+  </si>
+  <si>
+    <t>0.574 (0.236)</t>
+  </si>
+  <si>
+    <t>0.180 (0.385)</t>
+  </si>
+  <si>
+    <t>0.361 (0.410)</t>
+  </si>
+  <si>
+    <t>0.568 (0.195)</t>
+  </si>
+  <si>
+    <t>0.272 (0.445)</t>
+  </si>
+  <si>
+    <t>0.292 (0.392)</t>
+  </si>
+  <si>
+    <t>0.574 (0.199)</t>
+  </si>
+  <si>
+    <t>Run114</t>
+  </si>
+  <si>
+    <t>0.456 (0.466)</t>
+  </si>
+  <si>
+    <t>0.648 (0.117)</t>
+  </si>
+  <si>
+    <t>0.345 (0.388)</t>
+  </si>
+  <si>
+    <t>0.601 (0.237)</t>
+  </si>
+  <si>
+    <t>0.165 (0.373)</t>
+  </si>
+  <si>
+    <t>0.588 (0.443)</t>
+  </si>
+  <si>
+    <t>0.775 (0.135)</t>
+  </si>
+  <si>
+    <t>0.511 (0.500)</t>
+  </si>
+  <si>
+    <t>0.499 (0.455)</t>
+  </si>
+  <si>
+    <t>0.703 (0.177)</t>
+  </si>
+  <si>
+    <t>0.432 (0.496)</t>
+  </si>
+  <si>
+    <t>Run115</t>
+  </si>
+  <si>
+    <t>0.515 (0.466)</t>
+  </si>
+  <si>
+    <t>0.490 (0.500)</t>
+  </si>
+  <si>
+    <t>0.558 (0.460)</t>
+  </si>
+  <si>
+    <t>0.769 (0.116)</t>
+  </si>
+  <si>
+    <t>0.500 (0.501)</t>
+  </si>
+  <si>
+    <t>0.672 (0.441)</t>
+  </si>
+  <si>
+    <t>0.529 (0.171)</t>
+  </si>
+  <si>
+    <t>0.580 (0.461)</t>
+  </si>
+  <si>
+    <t>0.630 (0.222)</t>
+  </si>
+  <si>
+    <t>Iteration31</t>
+  </si>
+  <si>
+    <t>0.39 (0.11)</t>
+  </si>
+  <si>
+    <t>0.38 (0.11)</t>
+  </si>
+  <si>
+    <t>0.26 (0.14)</t>
+  </si>
+  <si>
+    <t>0.52 (0.12)</t>
+  </si>
+  <si>
+    <t>0.62 (0.09)</t>
+  </si>
+  <si>
+    <t>0.48 (0.15)</t>
+  </si>
+  <si>
+    <t>0.44 (0.11)</t>
+  </si>
+  <si>
+    <t>0.38 (0.14)</t>
   </si>
 </sst>
 </file>
@@ -9549,10 +9714,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9560,6 +9721,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9948,125 +10115,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38" t="s">
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38" t="s">
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38" t="s">
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -11256,12 +11423,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="B2:D2"/>
@@ -11273,6 +11434,12 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11318,125 +11485,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38" t="s">
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38" t="s">
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38" t="s">
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -11691,125 +11858,125 @@
       <c r="A8" s="17"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="41" t="s">
         <v>2100</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41" t="s">
         <v>2098</v>
       </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38" t="s">
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41" t="s">
         <v>2099</v>
       </c>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38" t="s">
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38" t="s">
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="38" t="s">
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38" t="s">
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="41"/>
+      <c r="AL9" s="41" t="s">
         <v>2094</v>
       </c>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="41"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38" t="s">
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38" t="s">
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38" t="s">
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38" t="s">
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38" t="s">
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38" t="s">
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="38"/>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="38"/>
-      <c r="AK10" s="38"/>
-      <c r="AL10" s="38"/>
-      <c r="AM10" s="38"/>
-      <c r="AN10" s="38"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="2" t="s">
         <v>2093</v>
       </c>
@@ -12062,28 +12229,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:S9"/>
-    <mergeCell ref="T9:AB9"/>
-    <mergeCell ref="AC9:AE10"/>
     <mergeCell ref="AF9:AH10"/>
     <mergeCell ref="AI9:AK10"/>
     <mergeCell ref="AL9:AN10"/>
@@ -12096,6 +12241,28 @@
     <mergeCell ref="T10:V10"/>
     <mergeCell ref="W10:Y10"/>
     <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:S9"/>
+    <mergeCell ref="T9:AB9"/>
+    <mergeCell ref="AC9:AE10"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AF1:AH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12116,53 +12283,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -12762,53 +12929,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -13134,7 +13301,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>2781</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -13326,53 +13493,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -13737,10 +13904,9 @@
       <c r="M11" s="29" t="s">
         <v>1226</v>
       </c>
-      <c r="N11" s="39"/>
     </row>
     <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="38" t="s">
         <v>3034</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -13896,53 +14062,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -14309,7 +14475,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="40" t="s">
         <v>2788</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -14448,10 +14614,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410D55D1-75AB-4EE4-9547-F3B1426541B9}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14459,54 +14625,54 @@
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -14544,7 +14710,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2702</v>
       </c>
@@ -14585,7 +14751,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>2714</v>
       </c>
@@ -14626,7 +14792,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>2725</v>
       </c>
@@ -14667,7 +14833,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>2738</v>
       </c>
@@ -14708,7 +14874,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2751</v>
       </c>
@@ -14749,88 +14915,217 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="39"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>3053</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>3054</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>3055</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>3056</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>3057</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>3058</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>3059</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>3060</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>3065</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>3066</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>3067</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>3068</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>3069</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>3070</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>3071</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>3072</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>3073</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>3075</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>3076</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>3077</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>3078</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>3079</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>3080</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>3081</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>3082</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>3083</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>3084</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>3088</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>3089</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>3090</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>3091</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>3092</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>3093</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>3094</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>3095</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>3098</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>3099</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>3100</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>3101</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>3102</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>3103</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>2931</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
@@ -14924,125 +15219,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38" t="s">
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38" t="s">
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38" t="s">
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -16655,6 +16950,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="AC1:AE2"/>
@@ -16671,7 +16967,6 @@
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16716,125 +17011,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38" t="s">
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38" t="s">
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38" t="s">
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -18121,6 +18416,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -18134,10 +18433,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18182,125 +18477,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38" t="s">
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38" t="s">
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38" t="s">
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -19913,6 +20208,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -19926,10 +20225,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19978,125 +20273,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38" t="s">
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38" t="s">
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38" t="s">
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -22365,6 +22660,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -22378,10 +22677,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22426,125 +22721,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38" t="s">
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38" t="s">
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38" t="s">
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -23629,6 +23924,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -23642,10 +23941,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23690,125 +23985,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38" t="s">
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38" t="s">
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38" t="s">
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -25015,6 +25310,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -25028,10 +25327,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25077,125 +25372,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38" t="s">
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38" t="s">
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38" t="s">
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -26639,6 +26934,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -26652,10 +26951,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26700,125 +26995,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38" t="s">
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38" t="s">
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38" t="s">
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -28025,6 +28320,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -28038,10 +28337,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\D\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DavidTerroso\D\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F737FA03-59AE-4ABE-AE79-B597BC8548CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="5" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Preliminar" sheetId="9" r:id="rId1"/>
@@ -28,8 +27,9 @@
     <sheet name="SRF_new" sheetId="14" r:id="rId13"/>
     <sheet name="PED" sheetId="13" r:id="rId14"/>
     <sheet name="PED_new" sheetId="15" r:id="rId15"/>
+    <sheet name="BinaryFinal" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,14 +50,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4414" uniqueCount="3105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4555" uniqueCount="3170">
   <si>
     <t>Run001</t>
   </si>
@@ -9387,13 +9387,208 @@
   </si>
   <si>
     <t>0.38 (0.14)</t>
+  </si>
+  <si>
+    <t>Run076111114_final</t>
+  </si>
+  <si>
+    <t>0.693 (0.396)</t>
+  </si>
+  <si>
+    <t>0.687 (0.183)</t>
+  </si>
+  <si>
+    <t>0.776 (0.342)</t>
+  </si>
+  <si>
+    <t>0.670 (0.196)</t>
+  </si>
+  <si>
+    <t>0.425 (0.453)</t>
+  </si>
+  <si>
+    <t>0.573 (0.234)</t>
+  </si>
+  <si>
+    <t>0.387 (0.488)</t>
+  </si>
+  <si>
+    <t>0.587 (0.397)</t>
+  </si>
+  <si>
+    <t>0.660 (0.217)</t>
+  </si>
+  <si>
+    <t>0.520 (0.502)</t>
+  </si>
+  <si>
+    <t>0.623 (0.431)</t>
+  </si>
+  <si>
+    <t>0.659 (0.282)</t>
+  </si>
+  <si>
+    <t>0.605 (0.490)</t>
+  </si>
+  <si>
+    <t>0.177 (0.331)</t>
+  </si>
+  <si>
+    <t>0.632 (0.183)</t>
+  </si>
+  <si>
+    <t>0.075 (0.264)</t>
+  </si>
+  <si>
+    <t>0.808 (0.337)</t>
+  </si>
+  <si>
+    <t>0.634 (0.261)</t>
+  </si>
+  <si>
+    <t>0.867 (0.339)</t>
+  </si>
+  <si>
+    <t>0.858 (0.312)</t>
+  </si>
+  <si>
+    <t>0.560 (0.269)</t>
+  </si>
+  <si>
+    <t>0.531 (0.486)</t>
+  </si>
+  <si>
+    <t>0.484 (0.228)</t>
+  </si>
+  <si>
+    <t>0.534 (0.499)</t>
+  </si>
+  <si>
+    <t>0.723 (0.381)</t>
+  </si>
+  <si>
+    <t>0.661 (0.223)</t>
+  </si>
+  <si>
+    <t>0.783 (0.358)</t>
+  </si>
+  <si>
+    <t>0.640 (0.243)</t>
+  </si>
+  <si>
+    <t>0.425 (0.466)</t>
+  </si>
+  <si>
+    <t>0.570 (0.226)</t>
+  </si>
+  <si>
+    <t>0.402 (0.490)</t>
+  </si>
+  <si>
+    <t>0.544 (0.388)</t>
+  </si>
+  <si>
+    <t>0.639 (0.211)</t>
+  </si>
+  <si>
+    <t>0.440 (0.497)</t>
+  </si>
+  <si>
+    <t>Used the model from run 76 (IRF), 111 (SRF), 114 (PED) to infer the predictions for the testing set</t>
+  </si>
+  <si>
+    <t>Merging</t>
+  </si>
+  <si>
+    <t>Priority (SRF &gt; IRF &gt; PED)</t>
+  </si>
+  <si>
+    <t>Highest Probability</t>
+  </si>
+  <si>
+    <t>0.697 (0.394)</t>
+  </si>
+  <si>
+    <t>0.688 (0.182)</t>
+  </si>
+  <si>
+    <t>0.787 (0.332)</t>
+  </si>
+  <si>
+    <t>0.663 (0.197)</t>
+  </si>
+  <si>
+    <t>0.428 (0.455)</t>
+  </si>
+  <si>
+    <t>0.586 (0.239)</t>
+  </si>
+  <si>
+    <t>0.628 (0.384)</t>
+  </si>
+  <si>
+    <t>0.660 (0.212)</t>
+  </si>
+  <si>
+    <t>0.598 (0.492)</t>
+  </si>
+  <si>
+    <t>0.631 (0.427)</t>
+  </si>
+  <si>
+    <t>0.646 (0.280)</t>
+  </si>
+  <si>
+    <t>0.623 (0.486)</t>
+  </si>
+  <si>
+    <t>0.178 (0.332)</t>
+  </si>
+  <si>
+    <t>0.636 (0.185)</t>
+  </si>
+  <si>
+    <t>0.810 (0.335)</t>
+  </si>
+  <si>
+    <t>0.632 (0.261)</t>
+  </si>
+  <si>
+    <t>0.864 (0.306)</t>
+  </si>
+  <si>
+    <t>0.537 (0.277)</t>
+  </si>
+  <si>
+    <t>0.733 (0.375)</t>
+  </si>
+  <si>
+    <t>0.661 (0.221)</t>
+  </si>
+  <si>
+    <t>0.766 (0.423)</t>
+  </si>
+  <si>
+    <t>0.792 (0.351)</t>
+  </si>
+  <si>
+    <t>0.627 (0.247)</t>
+  </si>
+  <si>
+    <t>0.844 (0.363)</t>
+  </si>
+  <si>
+    <t>0.427 (0.467)</t>
+  </si>
+  <si>
+    <t>0.578 (0.230)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9442,6 +9637,19 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -9567,7 +9775,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -9603,11 +9811,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9728,6 +10048,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10076,164 +10438,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="17"/>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="17"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="43" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41" t="s">
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41" t="s">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41" t="s">
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41" t="s">
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41" t="s">
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41" t="s">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41" t="s">
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -10352,7 +10714,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="15" t="s">
         <v>2217</v>
       </c>
@@ -10474,7 +10836,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="15" t="s">
         <v>2254</v>
       </c>
@@ -10596,7 +10958,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="15" t="s">
         <v>2290</v>
       </c>
@@ -10718,7 +11080,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="15" t="s">
         <v>2327</v>
       </c>
@@ -10840,7 +11202,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="15" t="s">
         <v>2362</v>
       </c>
@@ -10962,7 +11324,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="15" t="s">
         <v>2399</v>
       </c>
@@ -11084,7 +11446,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="28.5">
       <c r="A10" s="15" t="s">
         <v>2437</v>
       </c>
@@ -11206,7 +11568,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="28.5">
       <c r="A11" s="15" t="s">
         <v>2473</v>
       </c>
@@ -11328,15 +11690,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="15">
       <c r="A13" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="15">
       <c r="A14" s="17" t="s">
         <v>2509</v>
       </c>
@@ -11347,7 +11709,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="15">
       <c r="A15" s="17" t="s">
         <v>2528</v>
       </c>
@@ -11358,7 +11720,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="15">
       <c r="A16" s="17" t="s">
         <v>2510</v>
       </c>
@@ -11369,7 +11731,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" s="17" t="s">
         <v>2511</v>
       </c>
@@ -11380,7 +11742,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="17" t="s">
         <v>2512</v>
       </c>
@@ -11391,7 +11753,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19" s="17" t="s">
         <v>2513</v>
       </c>
@@ -11402,7 +11764,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15">
       <c r="A20" s="17" t="s">
         <v>2514</v>
       </c>
@@ -11413,7 +11775,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15">
       <c r="G21" s="18" t="s">
         <v>2473</v>
       </c>
@@ -11423,829 +11785,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AN15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>2100</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>2091</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
-        <v>2098</v>
-      </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41" t="s">
-        <v>2099</v>
-      </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41" t="s">
-        <v>2092</v>
-      </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41" t="s">
-        <v>2096</v>
-      </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41" t="s">
-        <v>2092</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
-        <v>2096</v>
-      </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
-        <v>2097</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41" t="s">
-        <v>2092</v>
-      </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41" t="s">
-        <v>2096</v>
-      </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41" t="s">
-        <v>2097</v>
-      </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41" t="s">
-        <v>2092</v>
-      </c>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
-        <v>2096</v>
-      </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>2615</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>2580</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>2581</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>2582</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>2583</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>2584</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>2585</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>2586</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>2587</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>2588</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>2589</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>2590</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>2591</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>2592</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>2593</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>2594</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>2595</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>2596</v>
-      </c>
-      <c r="S4" s="21" t="s">
-        <v>2597</v>
-      </c>
-      <c r="T4" s="21" t="s">
-        <v>2598</v>
-      </c>
-      <c r="U4" s="21" t="s">
-        <v>2599</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>2600</v>
-      </c>
-      <c r="W4" s="33" t="s">
-        <v>2601</v>
-      </c>
-      <c r="X4" s="21" t="s">
-        <v>2602</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>2603</v>
-      </c>
-      <c r="Z4" s="21" t="s">
-        <v>2604</v>
-      </c>
-      <c r="AA4" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB4" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="AC4" s="21" t="s">
-        <v>2605</v>
-      </c>
-      <c r="AD4" s="21" t="s">
-        <v>2606</v>
-      </c>
-      <c r="AE4" s="21" t="s">
-        <v>2607</v>
-      </c>
-      <c r="AF4" s="21" t="s">
-        <v>2608</v>
-      </c>
-      <c r="AG4" s="21" t="s">
-        <v>2609</v>
-      </c>
-      <c r="AH4" s="33" t="s">
-        <v>2610</v>
-      </c>
-      <c r="AI4" s="21" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AJ4" s="21" t="s">
-        <v>2611</v>
-      </c>
-      <c r="AK4" s="21" t="s">
-        <v>1257</v>
-      </c>
-      <c r="AL4" s="21" t="s">
-        <v>2612</v>
-      </c>
-      <c r="AM4" s="21" t="s">
-        <v>2613</v>
-      </c>
-      <c r="AN4" s="21" t="s">
-        <v>2614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>2100</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>2091</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41" t="s">
-        <v>2098</v>
-      </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41" t="s">
-        <v>2099</v>
-      </c>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41" t="s">
-        <v>2092</v>
-      </c>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41" t="s">
-        <v>2096</v>
-      </c>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="41" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="41"/>
-      <c r="AL9" s="41" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AM9" s="41"/>
-      <c r="AN9" s="41"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41" t="s">
-        <v>2092</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41" t="s">
-        <v>2096</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41" t="s">
-        <v>2097</v>
-      </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41" t="s">
-        <v>2092</v>
-      </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41" t="s">
-        <v>2096</v>
-      </c>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41" t="s">
-        <v>2097</v>
-      </c>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41" t="s">
-        <v>2092</v>
-      </c>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41" t="s">
-        <v>2096</v>
-      </c>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AI11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AJ11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AK11" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="AL11" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AM11" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="AN11" s="2" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>2937</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>2938</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>2939</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>2940</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>2941</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>2942</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>2943</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>2944</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>2945</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>2946</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>2947</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>2948</v>
-      </c>
-      <c r="M12" s="34" t="s">
-        <v>961</v>
-      </c>
-      <c r="N12" s="34" t="s">
-        <v>2949</v>
-      </c>
-      <c r="O12" s="34" t="s">
-        <v>2950</v>
-      </c>
-      <c r="P12" s="34" t="s">
-        <v>2951</v>
-      </c>
-      <c r="Q12" s="34" t="s">
-        <v>2952</v>
-      </c>
-      <c r="R12" s="34" t="s">
-        <v>2953</v>
-      </c>
-      <c r="S12" s="34" t="s">
-        <v>2954</v>
-      </c>
-      <c r="T12" s="34" t="s">
-        <v>2955</v>
-      </c>
-      <c r="U12" s="34" t="s">
-        <v>2956</v>
-      </c>
-      <c r="V12" s="34" t="s">
-        <v>2957</v>
-      </c>
-      <c r="W12" s="24" t="s">
-        <v>2958</v>
-      </c>
-      <c r="X12" s="34" t="s">
-        <v>2959</v>
-      </c>
-      <c r="Y12" s="24" t="s">
-        <v>2960</v>
-      </c>
-      <c r="Z12" s="34" t="s">
-        <v>2961</v>
-      </c>
-      <c r="AA12" s="34" t="s">
-        <v>2962</v>
-      </c>
-      <c r="AB12" s="34" t="s">
-        <v>1894</v>
-      </c>
-      <c r="AC12" s="34" t="s">
-        <v>2963</v>
-      </c>
-      <c r="AD12" s="34" t="s">
-        <v>2966</v>
-      </c>
-      <c r="AE12" s="34" t="s">
-        <v>776</v>
-      </c>
-      <c r="AF12" s="34" t="s">
-        <v>2964</v>
-      </c>
-      <c r="AG12" s="34" t="s">
-        <v>2967</v>
-      </c>
-      <c r="AH12" s="35" t="s">
-        <v>2666</v>
-      </c>
-      <c r="AI12" s="34" t="s">
-        <v>2965</v>
-      </c>
-      <c r="AJ12" s="34" t="s">
-        <v>2968</v>
-      </c>
-      <c r="AK12" s="34" t="s">
-        <v>2969</v>
-      </c>
-      <c r="AL12" s="34" t="s">
-        <v>2970</v>
-      </c>
-      <c r="AM12" s="34" t="s">
-        <v>2971</v>
-      </c>
-      <c r="AN12" s="34" t="s">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>2936</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="AF9:AH10"/>
-    <mergeCell ref="AI9:AK10"/>
-    <mergeCell ref="AL9:AN10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:S9"/>
-    <mergeCell ref="T9:AB9"/>
-    <mergeCell ref="AC9:AE10"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:S1"/>
@@ -12264,72 +11803,895 @@
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AF1:AH2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40">
+      <c r="A1" s="43" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
+        <v>2098</v>
+      </c>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43" t="s">
+        <v>2099</v>
+      </c>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43" t="s">
+        <v>2096</v>
+      </c>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43" t="s">
+        <v>2096</v>
+      </c>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43" t="s">
+        <v>2097</v>
+      </c>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43" t="s">
+        <v>2092</v>
+      </c>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43" t="s">
+        <v>2096</v>
+      </c>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="43"/>
+      <c r="B3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="30">
+      <c r="A4" s="21" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>2584</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>2585</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>2586</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>2587</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>2589</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>2590</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>2591</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>2592</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>2593</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>2594</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>2595</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>2596</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>2597</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>2598</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>2599</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>2600</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>2601</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>2602</v>
+      </c>
+      <c r="Y4" s="33" t="s">
+        <v>2603</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>2605</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>2606</v>
+      </c>
+      <c r="AE4" s="21" t="s">
+        <v>2607</v>
+      </c>
+      <c r="AF4" s="21" t="s">
+        <v>2608</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>2609</v>
+      </c>
+      <c r="AH4" s="33" t="s">
+        <v>2610</v>
+      </c>
+      <c r="AI4" s="21" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
+        <v>2611</v>
+      </c>
+      <c r="AK4" s="21" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AL4" s="21" t="s">
+        <v>2612</v>
+      </c>
+      <c r="AM4" s="21" t="s">
+        <v>2613</v>
+      </c>
+      <c r="AN4" s="21" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="15">
+      <c r="A6" s="16" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" s="17" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" s="17"/>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="43" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43" t="s">
+        <v>2098</v>
+      </c>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43" t="s">
+        <v>2099</v>
+      </c>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43" t="s">
+        <v>2096</v>
+      </c>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="43"/>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43" t="s">
+        <v>2096</v>
+      </c>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43" t="s">
+        <v>2097</v>
+      </c>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43" t="s">
+        <v>2092</v>
+      </c>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43" t="s">
+        <v>2096</v>
+      </c>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="43"/>
+      <c r="AN10" s="43"/>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="43"/>
+      <c r="B11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="30">
+      <c r="A12" s="24" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>2942</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>2943</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>2944</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>2948</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>961</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>2949</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>2950</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>2951</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>2952</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>2953</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>2954</v>
+      </c>
+      <c r="T12" s="34" t="s">
+        <v>2955</v>
+      </c>
+      <c r="U12" s="34" t="s">
+        <v>2956</v>
+      </c>
+      <c r="V12" s="34" t="s">
+        <v>2957</v>
+      </c>
+      <c r="W12" s="24" t="s">
+        <v>2958</v>
+      </c>
+      <c r="X12" s="34" t="s">
+        <v>2959</v>
+      </c>
+      <c r="Y12" s="24" t="s">
+        <v>2960</v>
+      </c>
+      <c r="Z12" s="34" t="s">
+        <v>2961</v>
+      </c>
+      <c r="AA12" s="34" t="s">
+        <v>2962</v>
+      </c>
+      <c r="AB12" s="34" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AC12" s="34" t="s">
+        <v>2963</v>
+      </c>
+      <c r="AD12" s="34" t="s">
+        <v>2966</v>
+      </c>
+      <c r="AE12" s="34" t="s">
+        <v>776</v>
+      </c>
+      <c r="AF12" s="34" t="s">
+        <v>2964</v>
+      </c>
+      <c r="AG12" s="34" t="s">
+        <v>2967</v>
+      </c>
+      <c r="AH12" s="35" t="s">
+        <v>2666</v>
+      </c>
+      <c r="AI12" s="34" t="s">
+        <v>2965</v>
+      </c>
+      <c r="AJ12" s="34" t="s">
+        <v>2968</v>
+      </c>
+      <c r="AK12" s="34" t="s">
+        <v>2969</v>
+      </c>
+      <c r="AL12" s="34" t="s">
+        <v>2970</v>
+      </c>
+      <c r="AM12" s="34" t="s">
+        <v>2971</v>
+      </c>
+      <c r="AN12" s="34" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="15">
+      <c r="A14" s="16" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="17" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:S9"/>
+    <mergeCell ref="T9:AB9"/>
+    <mergeCell ref="AC9:AE10"/>
+    <mergeCell ref="AF9:AH10"/>
+    <mergeCell ref="AI9:AK10"/>
+    <mergeCell ref="AL9:AN10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="A10" sqref="A10:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="43" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -12367,7 +12729,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="28.5">
       <c r="A4" s="6" t="s">
         <v>2568</v>
       </c>
@@ -12408,7 +12770,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="28.5">
       <c r="A5" s="8" t="s">
         <v>2617</v>
       </c>
@@ -12449,7 +12811,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="28.5">
       <c r="A6" s="10" t="s">
         <v>2630</v>
       </c>
@@ -12490,7 +12852,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="28.5">
       <c r="A7" s="12" t="s">
         <v>2642</v>
       </c>
@@ -12531,7 +12893,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="28.5">
       <c r="A8" s="3" t="s">
         <v>2769</v>
       </c>
@@ -12572,7 +12934,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="28.5">
       <c r="A9" s="25" t="s">
         <v>2774</v>
       </c>
@@ -12613,7 +12975,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="28.5">
       <c r="A10" s="36" t="s">
         <v>2775</v>
       </c>
@@ -12655,7 +13017,7 @@
       </c>
       <c r="N10" s="37"/>
     </row>
-    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="28.5">
       <c r="A11" s="23" t="s">
         <v>2776</v>
       </c>
@@ -12696,7 +13058,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="28.5">
       <c r="A12" s="24" t="s">
         <v>2777</v>
       </c>
@@ -12737,7 +13099,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="28.5">
       <c r="A13" s="3" t="s">
         <v>2778</v>
       </c>
@@ -12778,7 +13140,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="28.5">
       <c r="A14" s="12" t="s">
         <v>2972</v>
       </c>
@@ -12819,7 +13181,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="28.5">
       <c r="A15" s="23" t="s">
         <v>2984</v>
       </c>
@@ -12860,42 +13222,42 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15">
       <c r="A17" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="17" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="17" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="17" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" s="17" t="s">
         <v>2701</v>
       </c>
@@ -12916,66 +13278,66 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="43" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -13013,7 +13375,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="28.5">
       <c r="A4" s="6" t="s">
         <v>2655</v>
       </c>
@@ -13054,7 +13416,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="28.5">
       <c r="A5" s="8" t="s">
         <v>2667</v>
       </c>
@@ -13095,7 +13457,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="28.5">
       <c r="A6" s="10" t="s">
         <v>2679</v>
       </c>
@@ -13136,7 +13498,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="28.5">
       <c r="A7" s="12" t="s">
         <v>2688</v>
       </c>
@@ -13177,7 +13539,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="28.5">
       <c r="A8" s="3" t="s">
         <v>2760</v>
       </c>
@@ -13218,7 +13580,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="28.5">
       <c r="A9" s="27" t="s">
         <v>2779</v>
       </c>
@@ -13259,7 +13621,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="28.5">
       <c r="A10" s="28" t="s">
         <v>2780</v>
       </c>
@@ -13300,7 +13662,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="28.5">
       <c r="A11" s="39" t="s">
         <v>2781</v>
       </c>
@@ -13342,7 +13704,7 @@
       </c>
       <c r="N11" s="37"/>
     </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="28.5">
       <c r="A12" s="26" t="s">
         <v>2782</v>
       </c>
@@ -13383,7 +13745,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="28.5">
       <c r="A13" s="3" t="s">
         <v>2783</v>
       </c>
@@ -13424,42 +13786,42 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="17" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="17" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="17" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="17" t="s">
         <v>2700</v>
       </c>
@@ -13480,66 +13842,66 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA26A6EA-D920-4E8C-8D15-613BA56AC96F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="43" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -13577,7 +13939,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="28.5">
       <c r="A4" s="6" t="s">
         <v>2655</v>
       </c>
@@ -13618,7 +13980,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="28.5">
       <c r="A5" s="8" t="s">
         <v>2667</v>
       </c>
@@ -13659,7 +14021,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="28.5">
       <c r="A6" s="10" t="s">
         <v>2679</v>
       </c>
@@ -13700,7 +14062,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="28.5">
       <c r="A7" s="12" t="s">
         <v>2688</v>
       </c>
@@ -13741,7 +14103,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="28.5">
       <c r="A8" s="3" t="s">
         <v>2760</v>
       </c>
@@ -13782,7 +14144,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="28.5">
       <c r="A9" s="27" t="s">
         <v>2999</v>
       </c>
@@ -13823,7 +14185,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="28.5">
       <c r="A10" s="28" t="s">
         <v>3012</v>
       </c>
@@ -13864,7 +14226,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="28.5">
       <c r="A11" s="29" t="s">
         <v>3023</v>
       </c>
@@ -13905,7 +14267,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="28.5">
       <c r="A12" s="38" t="s">
         <v>3034</v>
       </c>
@@ -13947,7 +14309,7 @@
       </c>
       <c r="N12" s="37"/>
     </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="28.5">
       <c r="A13" s="3" t="s">
         <v>3044</v>
       </c>
@@ -13988,47 +14350,47 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="17" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="17" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="17" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="17" t="s">
         <v>2700</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="17" t="s">
         <v>2998</v>
       </c>
@@ -14049,66 +14411,66 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="O9" sqref="O9:Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="43" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -14146,7 +14508,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="28.5">
       <c r="A4" s="6" t="s">
         <v>2702</v>
       </c>
@@ -14187,7 +14549,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="28.5">
       <c r="A5" s="8" t="s">
         <v>2714</v>
       </c>
@@ -14228,7 +14590,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="28.5">
       <c r="A6" s="10" t="s">
         <v>2725</v>
       </c>
@@ -14269,7 +14631,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="28.5">
       <c r="A7" s="12" t="s">
         <v>2738</v>
       </c>
@@ -14310,7 +14672,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="28.5">
       <c r="A8" s="3" t="s">
         <v>2751</v>
       </c>
@@ -14351,7 +14713,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="28.5">
       <c r="A9" s="8" t="s">
         <v>2784</v>
       </c>
@@ -14392,7 +14754,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="28.5">
       <c r="A10" s="30" t="s">
         <v>2785</v>
       </c>
@@ -14433,7 +14795,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="28.5">
       <c r="A11" s="32" t="s">
         <v>2787</v>
       </c>
@@ -14474,7 +14836,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="28.5">
       <c r="A12" s="40" t="s">
         <v>2788</v>
       </c>
@@ -14516,7 +14878,7 @@
       </c>
       <c r="N12" s="37"/>
     </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="28.5">
       <c r="A13" s="3" t="s">
         <v>2789</v>
       </c>
@@ -14557,42 +14919,42 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="17" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="17" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="17" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="17" t="s">
         <v>2750</v>
       </c>
@@ -14613,66 +14975,66 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410D55D1-75AB-4EE4-9547-F3B1426541B9}">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="43" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43" t="s">
         <v>2098</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43" t="s">
         <v>2099</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -14710,7 +15072,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="28.5">
       <c r="A4" s="6" t="s">
         <v>2702</v>
       </c>
@@ -14751,7 +15113,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="28.5">
       <c r="A5" s="8" t="s">
         <v>2714</v>
       </c>
@@ -14792,7 +15154,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="28.5">
       <c r="A6" s="10" t="s">
         <v>2725</v>
       </c>
@@ -14833,7 +15195,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="28.5">
       <c r="A7" s="12" t="s">
         <v>2738</v>
       </c>
@@ -14874,7 +15236,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="28.5">
       <c r="A8" s="3" t="s">
         <v>2751</v>
       </c>
@@ -14915,7 +15277,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="28.5">
       <c r="A9" s="8" t="s">
         <v>3050</v>
       </c>
@@ -14956,7 +15318,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="28.5">
       <c r="A10" s="30" t="s">
         <v>3062</v>
       </c>
@@ -14997,8 +15359,8 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:14" ht="28.5">
+      <c r="A11" s="44" t="s">
         <v>3074</v>
       </c>
       <c r="B11" s="32" t="s">
@@ -15037,8 +15399,9 @@
       <c r="M11" s="32" t="s">
         <v>3085</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N11" s="37"/>
+    </row>
+    <row r="12" spans="1:14" ht="28.5">
       <c r="A12" s="42" t="s">
         <v>3086</v>
       </c>
@@ -15079,7 +15442,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="28.5">
       <c r="A13" s="3" t="s">
         <v>3096</v>
       </c>
@@ -15120,47 +15483,47 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="17" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="17" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="17" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="17" t="s">
         <v>2750</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="17" t="s">
         <v>2998</v>
       </c>
@@ -15177,167 +15540,720 @@
     <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="41" width="6.625" customWidth="1"/>
+    <col min="42" max="54" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="A1" s="43" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="43" t="s">
+        <v>2098</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="46" t="s">
+        <v>2099</v>
+      </c>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="49" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="49" t="s">
+        <v>2096</v>
+      </c>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="49" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="49" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="51"/>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="43"/>
+      <c r="B2" s="55" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43" t="s">
+        <v>2096</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43" t="s">
+        <v>2097</v>
+      </c>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43" t="s">
+        <v>2092</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="46" t="s">
+        <v>2096</v>
+      </c>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="46" t="s">
+        <v>2097</v>
+      </c>
+      <c r="S2" s="47"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="46" t="s">
+        <v>2092</v>
+      </c>
+      <c r="V2" s="47"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="46" t="s">
+        <v>2096</v>
+      </c>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="46" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="54"/>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" s="43"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="41" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2093</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>2094</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2095</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>2093</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2094</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>2095</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2093</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2095</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>2093</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>2094</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>2095</v>
+      </c>
+      <c r="R3" s="41" t="s">
+        <v>2093</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>2094</v>
+      </c>
+      <c r="T3" s="41" t="s">
+        <v>2095</v>
+      </c>
+      <c r="U3" s="41" t="s">
+        <v>2093</v>
+      </c>
+      <c r="V3" s="41" t="s">
+        <v>2094</v>
+      </c>
+      <c r="W3" s="41" t="s">
+        <v>2095</v>
+      </c>
+      <c r="X3" s="41" t="s">
+        <v>2093</v>
+      </c>
+      <c r="Y3" s="41" t="s">
+        <v>2094</v>
+      </c>
+      <c r="Z3" s="41" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AA3" s="41" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AB3" s="41" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AC3" s="41" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AD3" s="41" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AE3" s="41" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AF3" s="41" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AG3" s="41" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AH3" s="41" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AI3" s="41" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AJ3" s="41" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AK3" s="41" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AL3" s="41" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AM3" s="41" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AN3" s="41" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AO3" s="41" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="28.5">
+      <c r="A4" s="45" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>3106</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>3107</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>3108</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>3109</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>877</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>3110</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>3111</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>3112</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>3113</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>3114</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>3115</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>3116</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>3117</v>
+      </c>
+      <c r="Q4" s="45" t="s">
+        <v>3118</v>
+      </c>
+      <c r="R4" s="45" t="s">
+        <v>3119</v>
+      </c>
+      <c r="S4" s="45" t="s">
+        <v>3120</v>
+      </c>
+      <c r="T4" s="45" t="s">
+        <v>3121</v>
+      </c>
+      <c r="U4" s="45" t="s">
+        <v>3122</v>
+      </c>
+      <c r="V4" s="45" t="s">
+        <v>3123</v>
+      </c>
+      <c r="W4" s="45" t="s">
+        <v>3124</v>
+      </c>
+      <c r="X4" s="45" t="s">
+        <v>3125</v>
+      </c>
+      <c r="Y4" s="45" t="s">
+        <v>3126</v>
+      </c>
+      <c r="Z4" s="45" t="s">
+        <v>1392</v>
+      </c>
+      <c r="AA4" s="45" t="s">
+        <v>3127</v>
+      </c>
+      <c r="AB4" s="45" t="s">
+        <v>3128</v>
+      </c>
+      <c r="AC4" s="45" t="s">
+        <v>3129</v>
+      </c>
+      <c r="AD4" s="45" t="s">
+        <v>3130</v>
+      </c>
+      <c r="AE4" s="45" t="s">
+        <v>3131</v>
+      </c>
+      <c r="AF4" s="45" t="s">
+        <v>3037</v>
+      </c>
+      <c r="AG4" s="45" t="s">
+        <v>3132</v>
+      </c>
+      <c r="AH4" s="45" t="s">
+        <v>3133</v>
+      </c>
+      <c r="AI4" s="45" t="s">
+        <v>791</v>
+      </c>
+      <c r="AJ4" s="45" t="s">
+        <v>3134</v>
+      </c>
+      <c r="AK4" s="45" t="s">
+        <v>3135</v>
+      </c>
+      <c r="AL4" s="45" t="s">
+        <v>3136</v>
+      </c>
+      <c r="AM4" s="45" t="s">
+        <v>3137</v>
+      </c>
+      <c r="AN4" s="45" t="s">
+        <v>3138</v>
+      </c>
+      <c r="AO4" s="45" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="28.5">
+      <c r="A6" s="45" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>3145</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>2888</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>3146</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>3147</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>3148</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>3149</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>3112</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>3150</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>3151</v>
+      </c>
+      <c r="N6" s="45" t="s">
+        <v>3152</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>3153</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>3154</v>
+      </c>
+      <c r="Q6" s="45" t="s">
+        <v>3155</v>
+      </c>
+      <c r="R6" s="45" t="s">
+        <v>3156</v>
+      </c>
+      <c r="S6" s="45" t="s">
+        <v>3157</v>
+      </c>
+      <c r="T6" s="45" t="s">
+        <v>3121</v>
+      </c>
+      <c r="U6" s="45" t="s">
+        <v>3158</v>
+      </c>
+      <c r="V6" s="45" t="s">
+        <v>3159</v>
+      </c>
+      <c r="W6" s="45" t="s">
+        <v>955</v>
+      </c>
+      <c r="X6" s="45" t="s">
+        <v>3160</v>
+      </c>
+      <c r="Y6" s="45" t="s">
+        <v>3161</v>
+      </c>
+      <c r="Z6" s="45" t="s">
+        <v>2954</v>
+      </c>
+      <c r="AA6" s="45" t="s">
+        <v>3127</v>
+      </c>
+      <c r="AB6" s="45" t="s">
+        <v>3128</v>
+      </c>
+      <c r="AC6" s="45" t="s">
+        <v>3129</v>
+      </c>
+      <c r="AD6" s="45" t="s">
+        <v>3162</v>
+      </c>
+      <c r="AE6" s="45" t="s">
+        <v>3163</v>
+      </c>
+      <c r="AF6" s="45" t="s">
+        <v>3164</v>
+      </c>
+      <c r="AG6" s="45" t="s">
+        <v>3165</v>
+      </c>
+      <c r="AH6" s="45" t="s">
+        <v>3166</v>
+      </c>
+      <c r="AI6" s="45" t="s">
+        <v>3167</v>
+      </c>
+      <c r="AJ6" s="45" t="s">
+        <v>3168</v>
+      </c>
+      <c r="AK6" s="45" t="s">
+        <v>3169</v>
+      </c>
+      <c r="AL6" s="45" t="s">
+        <v>3136</v>
+      </c>
+      <c r="AM6" s="45" t="s">
+        <v>3137</v>
+      </c>
+      <c r="AN6" s="45" t="s">
+        <v>3138</v>
+      </c>
+      <c r="AO6" s="45" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="15">
+      <c r="A8" s="16" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="17" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="15">
+      <c r="B10" s="16"/>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="B11" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AG1:AI2"/>
+    <mergeCell ref="AD1:AF2"/>
+    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="AJ1:AL2"/>
+    <mergeCell ref="AM1:AO2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="L1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="43" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41" t="s">
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41" t="s">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41" t="s">
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41" t="s">
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41" t="s">
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41" t="s">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41" t="s">
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -15456,7 +16372,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -15578,7 +16494,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
@@ -15700,7 +16616,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>80</v>
       </c>
@@ -15822,7 +16738,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>119</v>
       </c>
@@ -15944,7 +16860,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>311</v>
       </c>
@@ -16066,7 +16982,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="5" t="s">
         <v>158</v>
       </c>
@@ -16188,7 +17104,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="28.5">
       <c r="A10" s="7" t="s">
         <v>196</v>
       </c>
@@ -16310,7 +17226,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="28.5">
       <c r="A11" s="9" t="s">
         <v>234</v>
       </c>
@@ -16432,7 +17348,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="28.5">
       <c r="A12" s="11" t="s">
         <v>273</v>
       </c>
@@ -16554,7 +17470,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="28.5">
       <c r="A13" s="2" t="s">
         <v>336</v>
       </c>
@@ -16676,7 +17592,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -16718,7 +17634,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="15">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
@@ -16762,7 +17678,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2509</v>
       </c>
@@ -16806,7 +17722,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="17" t="s">
         <v>2527</v>
       </c>
@@ -16850,7 +17766,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="17" t="s">
         <v>2510</v>
       </c>
@@ -16894,7 +17810,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="17" t="s">
         <v>2511</v>
       </c>
@@ -16938,23 +17854,18 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40">
       <c r="A21" s="17" t="s">
         <v>2513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -16967,169 +17878,174 @@
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="AF1:AH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="43" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41" t="s">
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41" t="s">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41" t="s">
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41" t="s">
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41" t="s">
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41" t="s">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41" t="s">
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -17248,7 +18164,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>361</v>
       </c>
@@ -17370,7 +18286,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>401</v>
       </c>
@@ -17492,7 +18408,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>441</v>
       </c>
@@ -17614,7 +18530,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>478</v>
       </c>
@@ -17736,7 +18652,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>557</v>
       </c>
@@ -17858,7 +18774,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="7" t="s">
         <v>517</v>
       </c>
@@ -17980,7 +18896,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -18022,7 +18938,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="15">
       <c r="A11" s="16" t="s">
         <v>2508</v>
       </c>
@@ -18066,7 +18982,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12" s="17" t="s">
         <v>2515</v>
       </c>
@@ -18110,7 +19026,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2516</v>
       </c>
@@ -18154,7 +19070,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2510</v>
       </c>
@@ -18198,7 +19114,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2511</v>
       </c>
@@ -18242,7 +19158,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2517</v>
       </c>
@@ -18286,7 +19202,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="17" t="s">
         <v>2513</v>
       </c>
@@ -18330,7 +19246,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -18372,7 +19288,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -18416,6 +19332,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -18432,170 +19349,169 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="43" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41" t="s">
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41" t="s">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41" t="s">
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41" t="s">
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41" t="s">
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41" t="s">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41" t="s">
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -18714,7 +19630,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>580</v>
       </c>
@@ -18836,7 +19752,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>619</v>
       </c>
@@ -18958,7 +19874,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>658</v>
       </c>
@@ -19080,7 +19996,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>698</v>
       </c>
@@ -19202,7 +20118,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>737</v>
       </c>
@@ -19324,7 +20240,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="5" t="s">
         <v>759</v>
       </c>
@@ -19446,7 +20362,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="28.5">
       <c r="A10" s="7" t="s">
         <v>797</v>
       </c>
@@ -19568,7 +20484,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="28.5">
       <c r="A11" s="9" t="s">
         <v>835</v>
       </c>
@@ -19690,7 +20606,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="28.5">
       <c r="A12" s="11" t="s">
         <v>874</v>
       </c>
@@ -19812,7 +20728,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="28.5">
       <c r="A13" s="2" t="s">
         <v>912</v>
       </c>
@@ -19934,7 +20850,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -19976,7 +20892,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="15">
       <c r="A15" s="16" t="s">
         <v>2508</v>
       </c>
@@ -20020,7 +20936,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2518</v>
       </c>
@@ -20064,7 +20980,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="17" t="s">
         <v>2531</v>
       </c>
@@ -20108,7 +21024,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="17" t="s">
         <v>2654</v>
       </c>
@@ -20152,7 +21068,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="17" t="s">
         <v>2511</v>
       </c>
@@ -20196,18 +21112,19 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40">
       <c r="A20" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40">
       <c r="A21" s="17" t="s">
         <v>2529</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -20224,174 +21141,173 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN28"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="43" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41" t="s">
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41" t="s">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41" t="s">
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41" t="s">
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41" t="s">
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41" t="s">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41" t="s">
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -20510,7 +21426,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>937</v>
       </c>
@@ -20632,7 +21548,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="5" t="s">
         <v>975</v>
       </c>
@@ -20754,7 +21670,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="5" t="s">
         <v>1010</v>
       </c>
@@ -20876,7 +21792,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="5" t="s">
         <v>1048</v>
       </c>
@@ -20998,7 +21914,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="5" t="s">
         <v>1084</v>
       </c>
@@ -21120,7 +22036,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="2" t="s">
         <v>1440</v>
       </c>
@@ -21242,7 +22158,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="28.5">
       <c r="A10" s="7" t="s">
         <v>1120</v>
       </c>
@@ -21364,7 +22280,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="28.5">
       <c r="A11" s="7" t="s">
         <v>1156</v>
       </c>
@@ -21486,7 +22402,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="28.5">
       <c r="A12" s="7" t="s">
         <v>1193</v>
       </c>
@@ -21608,7 +22524,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="28.5">
       <c r="A13" s="7" t="s">
         <v>1227</v>
       </c>
@@ -21730,7 +22646,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="28.5">
       <c r="A14" s="13" t="s">
         <v>1263</v>
       </c>
@@ -21852,7 +22768,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="28.5">
       <c r="A15" s="3" t="s">
         <v>2102</v>
       </c>
@@ -21974,7 +22890,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="28.5">
       <c r="A16" s="7" t="s">
         <v>1299</v>
       </c>
@@ -22096,7 +23012,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="28.5">
       <c r="A17" s="7" t="s">
         <v>1333</v>
       </c>
@@ -22218,7 +23134,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="28.5">
       <c r="A18" s="7" t="s">
         <v>1372</v>
       </c>
@@ -22340,7 +23256,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="28.5">
       <c r="A19" s="7" t="s">
         <v>1407</v>
       </c>
@@ -22462,204 +23378,205 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="28.5">
       <c r="A20" s="3" t="s">
         <v>2101</v>
       </c>
-      <c r="B20" s="3" t="str" cm="1">
-        <f t="array" ref="B20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(B10:B14,B16:B19)), FIND(" (", _xlfn.VSTACK(B10:B14,B16:B19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(B10:B14,B16:B19)), FIND(" (", _xlfn.VSTACK(B10:B14,B16:B19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.66 (0.07)</v>
-      </c>
-      <c r="C20" s="3" t="str" cm="1">
-        <f t="array" ref="C20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(C10:C14,C16:C19)), FIND(" (", _xlfn.VSTACK(C10:C14,C16:C19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(C10:C14,C16:C19)), FIND(" (", _xlfn.VSTACK(C10:C14,C16:C19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.51 (0.04)</v>
-      </c>
-      <c r="D20" s="3" t="str" cm="1">
-        <f t="array" ref="D20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(D10:D14,D16:D19)), FIND(" (", _xlfn.VSTACK(D10:D14,D16:D19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(D10:D14,D16:D19)), FIND(" (", _xlfn.VSTACK(D10:D14,D16:D19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.72 (0.11)</v>
-      </c>
-      <c r="E20" s="3" t="str" cm="1">
-        <f t="array" ref="E20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(E10:E14,E16:E19)), FIND(" (", _xlfn.VSTACK(E10:E14,E16:E19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(E10:E14,E16:E19)), FIND(" (", _xlfn.VSTACK(E10:E14,E16:E19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.76 (0.07)</v>
-      </c>
-      <c r="F20" s="3" t="str" cm="1">
-        <f t="array" ref="F20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(F10:F14,F16:F19)), FIND(" (", _xlfn.VSTACK(F10:F14,F16:F19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(F10:F14,F16:F19)), FIND(" (", _xlfn.VSTACK(F10:F14,F16:F19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.71 (0.03)</v>
-      </c>
-      <c r="G20" s="3" t="str" cm="1">
-        <f t="array" ref="G20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(G10:G14,G16:G19)), FIND(" (", _xlfn.VSTACK(G10:G14,G16:G19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(G10:G14,G16:G19)), FIND(" (", _xlfn.VSTACK(G10:G14,G16:G19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.78 (0.10)</v>
-      </c>
-      <c r="H20" s="3" t="str" cm="1">
-        <f t="array" ref="H20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(H10:H14,H16:H19)), FIND(" (", _xlfn.VSTACK(H10:H14,H16:H19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(H10:H14,H16:H19)), FIND(" (", _xlfn.VSTACK(H10:H14,H16:H19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.61 (0.10)</v>
-      </c>
-      <c r="I20" s="3" t="str" cm="1">
-        <f t="array" ref="I20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(I10:I14,I16:I19)), FIND(" (", _xlfn.VSTACK(I10:I14,I16:I19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(I10:I14,I16:I19)), FIND(" (", _xlfn.VSTACK(I10:I14,I16:I19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.60 (0.02)</v>
-      </c>
-      <c r="J20" s="3" t="str" cm="1">
-        <f t="array" ref="J20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(J10:J14,J16:J19)), FIND(" (", _xlfn.VSTACK(J10:J14,J16:J19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(J10:J14,J16:J19)), FIND(" (", _xlfn.VSTACK(J10:J14,J16:J19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.61 (0.12)</v>
-      </c>
-      <c r="K20" s="3" t="str" cm="1">
-        <f t="array" ref="K20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(K10:K14,K16:K19)), FIND(" (", _xlfn.VSTACK(K10:K14,K16:K19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(K10:K14,K16:K19)), FIND(" (", _xlfn.VSTACK(K10:K14,K16:K19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.63 (0.07)</v>
-      </c>
-      <c r="L20" s="3" t="str" cm="1">
-        <f t="array" ref="L20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(L10:L14,L16:L19)), FIND(" (", _xlfn.VSTACK(L10:L14,L16:L19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(L10:L14,L16:L19)), FIND(" (", _xlfn.VSTACK(L10:L14,L16:L19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.59 (0.02)</v>
-      </c>
-      <c r="M20" s="3" t="str" cm="1">
-        <f t="array" ref="M20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(M10:M14,M16:M19)), FIND(" (", _xlfn.VSTACK(M10:M14,M16:M19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(M10:M14,M16:M19)), FIND(" (", _xlfn.VSTACK(M10:M14,M16:M19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.64 (0.10)</v>
-      </c>
-      <c r="N20" s="3" t="str" cm="1">
-        <f t="array" ref="N20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(N10:N14,N16:N19)), FIND(" (", _xlfn.VSTACK(N10:N14,N16:N19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(N10:N14,N16:N19)), FIND(" (", _xlfn.VSTACK(N10:N14,N16:N19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.83 (0.07)</v>
-      </c>
-      <c r="O20" s="3" t="str" cm="1">
-        <f t="array" ref="O20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(O10:O14,O16:O19)), FIND(" (", _xlfn.VSTACK(O10:O14,O16:O19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(O10:O14,O16:O19)), FIND(" (", _xlfn.VSTACK(O10:O14,O16:O19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.86 (0.01)</v>
-      </c>
-      <c r="P20" s="3" t="str" cm="1">
-        <f t="array" ref="P20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(P10:P14,P16:P19)), FIND(" (", _xlfn.VSTACK(P10:P14,P16:P19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(P10:P14,P16:P19)), FIND(" (", _xlfn.VSTACK(P10:P14,P16:P19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.82 (0.09)</v>
-      </c>
-      <c r="Q20" s="3" t="str" cm="1">
-        <f t="array" ref="Q20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Q10:Q14,Q16:Q19)), FIND(" (", _xlfn.VSTACK(Q10:Q14,Q16:Q19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Q10:Q14,Q16:Q19)), FIND(" (", _xlfn.VSTACK(Q10:Q14,Q16:Q19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.74 (0.04)</v>
-      </c>
-      <c r="R20" s="3" t="str" cm="1">
-        <f t="array" ref="R20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(R10:R14,R16:R19)), FIND(" (", _xlfn.VSTACK(R10:R14,R16:R19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(R10:R14,R16:R19)), FIND(" (", _xlfn.VSTACK(R10:R14,R16:R19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.59 (0.02)</v>
-      </c>
-      <c r="S20" s="3" t="str" cm="1">
-        <f t="array" ref="S20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(S10:S14,S16:S19)), FIND(" (", _xlfn.VSTACK(S10:S14,S16:S19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(S10:S14,S16:S19)), FIND(" (", _xlfn.VSTACK(S10:S14,S16:S19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.81 (0.07)</v>
-      </c>
-      <c r="T20" s="3" t="str" cm="1">
-        <f t="array" ref="T20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(T10:T14,T16:T19)), FIND(" (", _xlfn.VSTACK(T10:T14,T16:T19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(T10:T14,T16:T19)), FIND(" (", _xlfn.VSTACK(T10:T14,T16:T19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.80 (0.06)</v>
-      </c>
-      <c r="U20" s="3" t="str" cm="1">
-        <f t="array" ref="U20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(U10:U14,U16:U19)), FIND(" (", _xlfn.VSTACK(U10:U14,U16:U19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(U10:U14,U16:U19)), FIND(" (", _xlfn.VSTACK(U10:U14,U16:U19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.68 (0.03)</v>
-      </c>
-      <c r="V20" s="3" t="str" cm="1">
-        <f t="array" ref="V20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(V10:V14,V16:V19)), FIND(" (", _xlfn.VSTACK(V10:V14,V16:V19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(V10:V14,V16:V19)), FIND(" (", _xlfn.VSTACK(V10:V14,V16:V19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.83 (0.07)</v>
-      </c>
-      <c r="W20" s="3" t="str" cm="1">
-        <f t="array" ref="W20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(W10:W14,W16:W19)), FIND(" (", _xlfn.VSTACK(W10:W14,W16:W19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(W10:W14,W16:W19)), FIND(" (", _xlfn.VSTACK(W10:W14,W16:W19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.85 (0.02)</v>
-      </c>
-      <c r="X20" s="3" t="str" cm="1">
-        <f t="array" ref="X20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(X10:X14,X16:X19)), FIND(" (", _xlfn.VSTACK(X10:X14,X16:X19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(X10:X14,X16:X19)), FIND(" (", _xlfn.VSTACK(X10:X14,X16:X19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.65 (0.08)</v>
-      </c>
-      <c r="Y20" s="3" t="str" cm="1">
-        <f t="array" ref="Y20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Y10:Y14,Y16:Y19)), FIND(" (", _xlfn.VSTACK(Y10:Y14,Y16:Y19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Y10:Y14,Y16:Y19)), FIND(" (", _xlfn.VSTACK(Y10:Y14,Y16:Y19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.88 (0.02)</v>
-      </c>
-      <c r="Z20" s="3" t="str" cm="1">
-        <f t="array" ref="Z20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Z10:Z14,Z16:Z19)), FIND(" (", _xlfn.VSTACK(Z10:Z14,Z16:Z19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Z10:Z14,Z16:Z19)), FIND(" (", _xlfn.VSTACK(Z10:Z14,Z16:Z19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.76 (0.05)</v>
-      </c>
-      <c r="AA20" s="3" t="str" cm="1">
-        <f t="array" ref="AA20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AA10:AA14,AA16:AA19)), FIND(" (", _xlfn.VSTACK(AA10:AA14,AA16:AA19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AA10:AA14,AA16:AA19)), FIND(" (", _xlfn.VSTACK(AA10:AA14,AA16:AA19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.58 (0.03)</v>
-      </c>
-      <c r="AB20" s="3" t="str" cm="1">
-        <f t="array" ref="AB20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AB10:AB14,AB16:AB19)), FIND(" (", _xlfn.VSTACK(AB10:AB14,AB16:AB19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AB10:AB14,AB16:AB19)), FIND(" (", _xlfn.VSTACK(AB10:AB14,AB16:AB19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.84 (0.07)</v>
-      </c>
-      <c r="AC20" s="3" t="str" cm="1">
-        <f t="array" ref="AC20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AC10:AC14,AC16:AC19)), FIND(" (", _xlfn.VSTACK(AC10:AC14,AC16:AC19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AC10:AC14,AC16:AC19)), FIND(" (", _xlfn.VSTACK(AC10:AC14,AC16:AC19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.71 (0.06)</v>
-      </c>
-      <c r="AD20" s="3" t="str" cm="1">
-        <f t="array" ref="AD20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AD10:AD14,AD16:AD19)), FIND(" (", _xlfn.VSTACK(AD10:AD14,AD16:AD19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AD10:AD14,AD16:AD19)), FIND(" (", _xlfn.VSTACK(AD10:AD14,AD16:AD19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.58 (0.03)</v>
-      </c>
-      <c r="AE20" s="3" t="str" cm="1">
-        <f t="array" ref="AE20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AE10:AE14,AE16:AE19)), FIND(" (", _xlfn.VSTACK(AE10:AE14,AE16:AE19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AE10:AE14,AE16:AE19)), FIND(" (", _xlfn.VSTACK(AE10:AE14,AE16:AE19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.75 (0.08)</v>
-      </c>
-      <c r="AF20" s="3" t="str" cm="1">
-        <f t="array" ref="AF20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AF10:AF14,AF16:AF19)), FIND(" (", _xlfn.VSTACK(AF10:AF14,AF16:AF19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AF10:AF14,AF16:AF19)), FIND(" (", _xlfn.VSTACK(AF10:AF14,AF16:AF19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.81 (0.04)</v>
-      </c>
-      <c r="AG20" s="3" t="str" cm="1">
-        <f t="array" ref="AG20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AG10:AG14,AG16:AG19)), FIND(" (", _xlfn.VSTACK(AG10:AG14,AG16:AG19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AG10:AG14,AG16:AG19)), FIND(" (", _xlfn.VSTACK(AG10:AG14,AG16:AG19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.72 (0.03)</v>
-      </c>
-      <c r="AH20" s="3" t="str" cm="1">
-        <f t="array" ref="AH20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AH10:AH14,AH16:AH19)), FIND(" (", _xlfn.VSTACK(AH10:AH14,AH16:AH19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AH10:AH14,AH16:AH19)), FIND(" (", _xlfn.VSTACK(AH10:AH14,AH16:AH19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.83 (0.06)</v>
-      </c>
-      <c r="AI20" s="3" t="str" cm="1">
-        <f t="array" ref="AI20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AI10:AI14,AI16:AI19)), FIND(" (", _xlfn.VSTACK(AI10:AI14,AI16:AI19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AI10:AI14,AI16:AI19)), FIND(" (", _xlfn.VSTACK(AI10:AI14,AI16:AI19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.69 (0.07)</v>
-      </c>
-      <c r="AJ20" s="3" t="str" cm="1">
-        <f t="array" ref="AJ20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AJ10:AJ14,AJ16:AJ19)), FIND(" (", _xlfn.VSTACK(AJ10:AJ14,AJ16:AJ19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AJ10:AJ14,AJ16:AJ19)), FIND(" (", _xlfn.VSTACK(AJ10:AJ14,AJ16:AJ19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.59 (0.02)</v>
-      </c>
-      <c r="AK20" s="3" t="str" cm="1">
-        <f t="array" ref="AK20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AK10:AK14,AK16:AK19)), FIND(" (", _xlfn.VSTACK(AK10:AK14,AK16:AK19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AK10:AK14,AK16:AK19)), FIND(" (", _xlfn.VSTACK(AK10:AK14,AK16:AK19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.72 (0.09)</v>
-      </c>
-      <c r="AL20" s="3" t="str" cm="1">
-        <f t="array" ref="AL20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AL10:AL14,AL16:AL19)), FIND(" (", _xlfn.VSTACK(AL10:AL14,AL16:AL19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AL10:AL14,AL16:AL19)), FIND(" (", _xlfn.VSTACK(AL10:AL14,AL16:AL19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.66 (0.06)</v>
-      </c>
-      <c r="AM20" s="3" t="str" cm="1">
-        <f t="array" ref="AM20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AM10:AM14,AM16:AM19)), FIND(" (", _xlfn.VSTACK(AM10:AM14,AM16:AM19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AM10:AM14,AM16:AM19)), FIND(" (", _xlfn.VSTACK(AM10:AM14,AM16:AM19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.64 (0.02)</v>
-      </c>
-      <c r="AN20" s="3" t="str" cm="1">
-        <f t="array" ref="AN20">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AN10:AN14,AN16:AN19)), FIND(" (", _xlfn.VSTACK(AN10:AN14,AN16:AN19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AN10:AN14,AN16:AN19)), FIND(" (", _xlfn.VSTACK(AN10:AN14,AN16:AN19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.68 (0.11)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(B10:B14,B16:B19)), FIND(" (", _xlfn.VSTACK(B10:B14,B16:B19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(B10:B14,B16:B19)), FIND(" (", _xlfn.VSTACK(B10:B14,B16:B19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="C20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(C10:C14,C16:C19)), FIND(" (", _xlfn.VSTACK(C10:C14,C16:C19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(C10:C14,C16:C19)), FIND(" (", _xlfn.VSTACK(C10:C14,C16:C19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="D20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(D10:D14,D16:D19)), FIND(" (", _xlfn.VSTACK(D10:D14,D16:D19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(D10:D14,D16:D19)), FIND(" (", _xlfn.VSTACK(D10:D14,D16:D19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="E20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(E10:E14,E16:E19)), FIND(" (", _xlfn.VSTACK(E10:E14,E16:E19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(E10:E14,E16:E19)), FIND(" (", _xlfn.VSTACK(E10:E14,E16:E19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="F20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(F10:F14,F16:F19)), FIND(" (", _xlfn.VSTACK(F10:F14,F16:F19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(F10:F14,F16:F19)), FIND(" (", _xlfn.VSTACK(F10:F14,F16:F19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="G20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(G10:G14,G16:G19)), FIND(" (", _xlfn.VSTACK(G10:G14,G16:G19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(G10:G14,G16:G19)), FIND(" (", _xlfn.VSTACK(G10:G14,G16:G19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="H20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(H10:H14,H16:H19)), FIND(" (", _xlfn.VSTACK(H10:H14,H16:H19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(H10:H14,H16:H19)), FIND(" (", _xlfn.VSTACK(H10:H14,H16:H19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="I20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(I10:I14,I16:I19)), FIND(" (", _xlfn.VSTACK(I10:I14,I16:I19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(I10:I14,I16:I19)), FIND(" (", _xlfn.VSTACK(I10:I14,I16:I19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="J20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(J10:J14,J16:J19)), FIND(" (", _xlfn.VSTACK(J10:J14,J16:J19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(J10:J14,J16:J19)), FIND(" (", _xlfn.VSTACK(J10:J14,J16:J19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="K20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(K10:K14,K16:K19)), FIND(" (", _xlfn.VSTACK(K10:K14,K16:K19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(K10:K14,K16:K19)), FIND(" (", _xlfn.VSTACK(K10:K14,K16:K19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="L20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(L10:L14,L16:L19)), FIND(" (", _xlfn.VSTACK(L10:L14,L16:L19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(L10:L14,L16:L19)), FIND(" (", _xlfn.VSTACK(L10:L14,L16:L19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="M20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(M10:M14,M16:M19)), FIND(" (", _xlfn.VSTACK(M10:M14,M16:M19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(M10:M14,M16:M19)), FIND(" (", _xlfn.VSTACK(M10:M14,M16:M19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="N20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(N10:N14,N16:N19)), FIND(" (", _xlfn.VSTACK(N10:N14,N16:N19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(N10:N14,N16:N19)), FIND(" (", _xlfn.VSTACK(N10:N14,N16:N19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="O20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(O10:O14,O16:O19)), FIND(" (", _xlfn.VSTACK(O10:O14,O16:O19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(O10:O14,O16:O19)), FIND(" (", _xlfn.VSTACK(O10:O14,O16:O19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="P20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(P10:P14,P16:P19)), FIND(" (", _xlfn.VSTACK(P10:P14,P16:P19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(P10:P14,P16:P19)), FIND(" (", _xlfn.VSTACK(P10:P14,P16:P19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="Q20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Q10:Q14,Q16:Q19)), FIND(" (", _xlfn.VSTACK(Q10:Q14,Q16:Q19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Q10:Q14,Q16:Q19)), FIND(" (", _xlfn.VSTACK(Q10:Q14,Q16:Q19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="R20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(R10:R14,R16:R19)), FIND(" (", _xlfn.VSTACK(R10:R14,R16:R19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(R10:R14,R16:R19)), FIND(" (", _xlfn.VSTACK(R10:R14,R16:R19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="S20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(S10:S14,S16:S19)), FIND(" (", _xlfn.VSTACK(S10:S14,S16:S19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(S10:S14,S16:S19)), FIND(" (", _xlfn.VSTACK(S10:S14,S16:S19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="T20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(T10:T14,T16:T19)), FIND(" (", _xlfn.VSTACK(T10:T14,T16:T19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(T10:T14,T16:T19)), FIND(" (", _xlfn.VSTACK(T10:T14,T16:T19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="U20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(U10:U14,U16:U19)), FIND(" (", _xlfn.VSTACK(U10:U14,U16:U19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(U10:U14,U16:U19)), FIND(" (", _xlfn.VSTACK(U10:U14,U16:U19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="V20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(V10:V14,V16:V19)), FIND(" (", _xlfn.VSTACK(V10:V14,V16:V19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(V10:V14,V16:V19)), FIND(" (", _xlfn.VSTACK(V10:V14,V16:V19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="W20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(W10:W14,W16:W19)), FIND(" (", _xlfn.VSTACK(W10:W14,W16:W19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(W10:W14,W16:W19)), FIND(" (", _xlfn.VSTACK(W10:W14,W16:W19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="X20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(X10:X14,X16:X19)), FIND(" (", _xlfn.VSTACK(X10:X14,X16:X19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(X10:X14,X16:X19)), FIND(" (", _xlfn.VSTACK(X10:X14,X16:X19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="Y20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Y10:Y14,Y16:Y19)), FIND(" (", _xlfn.VSTACK(Y10:Y14,Y16:Y19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Y10:Y14,Y16:Y19)), FIND(" (", _xlfn.VSTACK(Y10:Y14,Y16:Y19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="Z20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Z10:Z14,Z16:Z19)), FIND(" (", _xlfn.VSTACK(Z10:Z14,Z16:Z19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Z10:Z14,Z16:Z19)), FIND(" (", _xlfn.VSTACK(Z10:Z14,Z16:Z19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AA20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AA10:AA14,AA16:AA19)), FIND(" (", _xlfn.VSTACK(AA10:AA14,AA16:AA19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AA10:AA14,AA16:AA19)), FIND(" (", _xlfn.VSTACK(AA10:AA14,AA16:AA19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AB20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AB10:AB14,AB16:AB19)), FIND(" (", _xlfn.VSTACK(AB10:AB14,AB16:AB19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AB10:AB14,AB16:AB19)), FIND(" (", _xlfn.VSTACK(AB10:AB14,AB16:AB19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AC20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AC10:AC14,AC16:AC19)), FIND(" (", _xlfn.VSTACK(AC10:AC14,AC16:AC19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AC10:AC14,AC16:AC19)), FIND(" (", _xlfn.VSTACK(AC10:AC14,AC16:AC19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AD20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AD20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AD10:AD14,AD16:AD19)), FIND(" (", _xlfn.VSTACK(AD10:AD14,AD16:AD19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AD10:AD14,AD16:AD19)), FIND(" (", _xlfn.VSTACK(AD10:AD14,AD16:AD19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AE20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AE20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AE10:AE14,AE16:AE19)), FIND(" (", _xlfn.VSTACK(AE10:AE14,AE16:AE19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AE10:AE14,AE16:AE19)), FIND(" (", _xlfn.VSTACK(AE10:AE14,AE16:AE19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AF20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AF20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AF10:AF14,AF16:AF19)), FIND(" (", _xlfn.VSTACK(AF10:AF14,AF16:AF19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AF10:AF14,AF16:AF19)), FIND(" (", _xlfn.VSTACK(AF10:AF14,AF16:AF19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AG20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AG20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AG10:AG14,AG16:AG19)), FIND(" (", _xlfn.VSTACK(AG10:AG14,AG16:AG19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AG10:AG14,AG16:AG19)), FIND(" (", _xlfn.VSTACK(AG10:AG14,AG16:AG19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AH20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AH10:AH14,AH16:AH19)), FIND(" (", _xlfn.VSTACK(AH10:AH14,AH16:AH19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AH10:AH14,AH16:AH19)), FIND(" (", _xlfn.VSTACK(AH10:AH14,AH16:AH19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AI20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AI20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AI10:AI14,AI16:AI19)), FIND(" (", _xlfn.VSTACK(AI10:AI14,AI16:AI19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AI10:AI14,AI16:AI19)), FIND(" (", _xlfn.VSTACK(AI10:AI14,AI16:AI19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AJ20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AJ20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AJ10:AJ14,AJ16:AJ19)), FIND(" (", _xlfn.VSTACK(AJ10:AJ14,AJ16:AJ19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AJ10:AJ14,AJ16:AJ19)), FIND(" (", _xlfn.VSTACK(AJ10:AJ14,AJ16:AJ19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AK20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AK20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AK10:AK14,AK16:AK19)), FIND(" (", _xlfn.VSTACK(AK10:AK14,AK16:AK19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AK10:AK14,AK16:AK19)), FIND(" (", _xlfn.VSTACK(AK10:AK14,AK16:AK19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AL20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AL20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AL10:AL14,AL16:AL19)), FIND(" (", _xlfn.VSTACK(AL10:AL14,AL16:AL19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AL10:AL14,AL16:AL19)), FIND(" (", _xlfn.VSTACK(AL10:AL14,AL16:AL19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AM20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AM20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AM10:AM14,AM16:AM19)), FIND(" (", _xlfn.VSTACK(AM10:AM14,AM16:AM19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AM10:AM14,AM16:AM19)), FIND(" (", _xlfn.VSTACK(AM10:AM14,AM16:AM19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AN20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AN20" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AN10:AN14,AN16:AN19)), FIND(" (", _xlfn.VSTACK(AN10:AN14,AN16:AN19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AN10:AN14,AN16:AN19)), FIND(" (", _xlfn.VSTACK(AN10:AN14,AN16:AN19)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" ht="15">
       <c r="A22" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40">
       <c r="A23" s="17" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40">
       <c r="A24" s="17" t="s">
         <v>2531</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40">
       <c r="A25" s="17" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40">
       <c r="A26" s="17" t="s">
         <v>2511</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40">
       <c r="A27" s="17" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40">
       <c r="A28" s="17" t="s">
         <v>2513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -22676,170 +23593,169 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="43" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41" t="s">
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41" t="s">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41" t="s">
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41" t="s">
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41" t="s">
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41" t="s">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41" t="s">
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -22958,7 +23874,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>1478</v>
       </c>
@@ -23080,7 +23996,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>1548</v>
       </c>
@@ -23202,7 +24118,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="5" t="s">
         <v>1514</v>
       </c>
@@ -23324,7 +24240,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="7" t="s">
         <v>1580</v>
       </c>
@@ -23446,7 +24362,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="15">
       <c r="A9" s="16" t="s">
         <v>2508</v>
       </c>
@@ -23490,7 +24406,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40">
       <c r="A10" s="17" t="s">
         <v>2518</v>
       </c>
@@ -23534,7 +24450,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40">
       <c r="A11" s="17" t="s">
         <v>2532</v>
       </c>
@@ -23578,7 +24494,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12" s="17" t="s">
         <v>2654</v>
       </c>
@@ -23622,7 +24538,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2511</v>
       </c>
@@ -23666,7 +24582,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2512</v>
       </c>
@@ -23710,7 +24626,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2513</v>
       </c>
@@ -23754,7 +24670,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -23796,7 +24712,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -23838,7 +24754,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -23880,7 +24796,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -23924,6 +24840,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -23940,170 +24857,169 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="43" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41" t="s">
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41" t="s">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41" t="s">
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41" t="s">
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41" t="s">
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41" t="s">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41" t="s">
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -24222,7 +25138,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>1617</v>
       </c>
@@ -24344,7 +25260,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>1649</v>
       </c>
@@ -24466,7 +25382,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>1681</v>
       </c>
@@ -24588,7 +25504,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>1717</v>
       </c>
@@ -24710,7 +25626,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>1751</v>
       </c>
@@ -24832,7 +25748,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -24874,7 +25790,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="15">
       <c r="A10" s="16" t="s">
         <v>2508</v>
       </c>
@@ -24918,7 +25834,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40">
       <c r="A11" s="17" t="s">
         <v>2518</v>
       </c>
@@ -24962,7 +25878,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12" s="17" t="s">
         <v>2530</v>
       </c>
@@ -25006,7 +25922,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2654</v>
       </c>
@@ -25050,7 +25966,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2511</v>
       </c>
@@ -25094,7 +26010,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2512</v>
       </c>
@@ -25138,7 +26054,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2533</v>
       </c>
@@ -25182,7 +26098,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -25224,7 +26140,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -25266,7 +26182,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -25310,6 +26226,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -25326,171 +26243,170 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4"/>
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="43" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41" t="s">
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41" t="s">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41" t="s">
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41" t="s">
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41" t="s">
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41" t="s">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41" t="s">
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -25609,7 +26525,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>1772</v>
       </c>
@@ -25731,7 +26647,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>1806</v>
       </c>
@@ -25853,7 +26769,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>1842</v>
       </c>
@@ -25975,7 +26891,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>1880</v>
       </c>
@@ -26097,7 +27013,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>1917</v>
       </c>
@@ -26219,7 +27135,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="8" t="s">
         <v>2535</v>
       </c>
@@ -26341,168 +27257,168 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="42.75">
       <c r="A10" s="3" t="s">
         <v>2567</v>
       </c>
-      <c r="B10" s="3" t="str" cm="1">
-        <f t="array" ref="B10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(B4,B6:B7,B9)), FIND(" (", _xlfn.VSTACK(B4,B6:B7,B9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(B4,B6:B7,B9)), FIND(" (", _xlfn.VSTACK(B4,B6:B7,B9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.60 (0.15)</v>
-      </c>
-      <c r="C10" s="3" t="str" cm="1">
-        <f t="array" ref="C10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(C4,C6:C7,C9)), FIND(" (", _xlfn.VSTACK(C4,C6:C7,C9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(C4,C6:C7,C9)), FIND(" (", _xlfn.VSTACK(C4,C6:C7,C9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.61 (0.08)</v>
-      </c>
-      <c r="D10" s="3" t="str" cm="1">
-        <f t="array" ref="D10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(D4,D6:D7,D9)), FIND(" (", _xlfn.VSTACK(D4,D6:D7,D9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(D4,D6:D7,D9)), FIND(" (", _xlfn.VSTACK(D4,D6:D7,D9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.60 (0.20)</v>
-      </c>
-      <c r="E10" s="3" t="str" cm="1">
-        <f t="array" ref="E10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(E4,E6:E7,E9)), FIND(" (", _xlfn.VSTACK(E4,E6:E7,E9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(E4,E6:E7,E9)), FIND(" (", _xlfn.VSTACK(E4,E6:E7,E9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.78 (0.07)</v>
-      </c>
-      <c r="F10" s="3" t="str" cm="1">
-        <f t="array" ref="F10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(F4,F6:F7,F9)), FIND(" (", _xlfn.VSTACK(F4,F6:F7,F9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(F4,F6:F7,F9)), FIND(" (", _xlfn.VSTACK(F4,F6:F7,F9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.74 (0.08)</v>
-      </c>
-      <c r="G10" s="3" t="str" cm="1">
-        <f t="array" ref="G10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(G4,G6:G7,G9)), FIND(" (", _xlfn.VSTACK(G4,G6:G7,G9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(G4,G6:G7,G9)), FIND(" (", _xlfn.VSTACK(G4,G6:G7,G9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.79 (0.08)</v>
-      </c>
-      <c r="H10" s="3" t="str" cm="1">
-        <f t="array" ref="H10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(H4,H6:H7,H9)), FIND(" (", _xlfn.VSTACK(H4,H6:H7,H9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(H4,H6:H7,H9)), FIND(" (", _xlfn.VSTACK(H4,H6:H7,H9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.68 (0.09)</v>
-      </c>
-      <c r="I10" s="3" t="str" cm="1">
-        <f t="array" ref="I10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(I4,I6:I7,I9)), FIND(" (", _xlfn.VSTACK(I4,I6:I7,I9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(I4,I6:I7,I9)), FIND(" (", _xlfn.VSTACK(I4,I6:I7,I9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.59 (0.03)</v>
-      </c>
-      <c r="J10" s="3" t="str" cm="1">
-        <f t="array" ref="J10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(J4,J6:J7,J9)), FIND(" (", _xlfn.VSTACK(J4,J6:J7,J9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(J4,J6:J7,J9)), FIND(" (", _xlfn.VSTACK(J4,J6:J7,J9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.71 (0.10)</v>
-      </c>
-      <c r="K10" s="3" t="str" cm="1">
-        <f t="array" ref="K10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(K4,K6:K7,K9)), FIND(" (", _xlfn.VSTACK(K4,K6:K7,K9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(K4,K6:K7,K9)), FIND(" (", _xlfn.VSTACK(K4,K6:K7,K9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.71 (0.09)</v>
-      </c>
-      <c r="L10" s="3" t="str" cm="1">
-        <f t="array" ref="L10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(L4,L6:L7,L9)), FIND(" (", _xlfn.VSTACK(L4,L6:L7,L9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(L4,L6:L7,L9)), FIND(" (", _xlfn.VSTACK(L4,L6:L7,L9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.65 (0.05)</v>
-      </c>
-      <c r="M10" s="3" t="str" cm="1">
-        <f t="array" ref="M10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(M4,M6:M7,M9)), FIND(" (", _xlfn.VSTACK(M4,M6:M7,M9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(M4,M6:M7,M9)), FIND(" (", _xlfn.VSTACK(M4,M6:M7,M9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.76 (0.12)</v>
-      </c>
-      <c r="N10" s="3" t="str" cm="1">
-        <f t="array" ref="N10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(N4,N6:N7,N9)), FIND(" (", _xlfn.VSTACK(N4,N6:N7,N9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(N4,N6:N7,N9)), FIND(" (", _xlfn.VSTACK(N4,N6:N7,N9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.85 (0.04)</v>
-      </c>
-      <c r="O10" s="3" t="str" cm="1">
-        <f t="array" ref="O10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(O4,O6:O7,O9)), FIND(" (", _xlfn.VSTACK(O4,O6:O7,O9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(O4,O6:O7,O9)), FIND(" (", _xlfn.VSTACK(O4,O6:O7,O9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.85 (0.04)</v>
-      </c>
-      <c r="P10" s="3" t="str" cm="1">
-        <f t="array" ref="P10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(P4,P6:P7,P9)), FIND(" (", _xlfn.VSTACK(P4,P6:P7,P9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(P4,P6:P7,P9)), FIND(" (", _xlfn.VSTACK(P4,P6:P7,P9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.85 (0.08)</v>
-      </c>
-      <c r="Q10" s="3" t="str" cm="1">
-        <f t="array" ref="Q10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Q4,Q6:Q7,Q9)), FIND(" (", _xlfn.VSTACK(Q4,Q6:Q7,Q9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Q4,Q6:Q7,Q9)), FIND(" (", _xlfn.VSTACK(Q4,Q6:Q7,Q9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.77 (0.10)</v>
-      </c>
-      <c r="R10" s="3" t="str" cm="1">
-        <f t="array" ref="R10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(R4,R6:R7,R9)), FIND(" (", _xlfn.VSTACK(R4,R6:R7,R9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(R4,R6:R7,R9)), FIND(" (", _xlfn.VSTACK(R4,R6:R7,R9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.65 (0.07)</v>
-      </c>
-      <c r="S10" s="3" t="str" cm="1">
-        <f t="array" ref="S10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(S4,S6:S7,S9)), FIND(" (", _xlfn.VSTACK(S4,S6:S7,S9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(S4,S6:S7,S9)), FIND(" (", _xlfn.VSTACK(S4,S6:S7,S9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.81 (0.12)</v>
-      </c>
-      <c r="T10" s="3" t="str" cm="1">
-        <f t="array" ref="T10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(T4,T6:T7,T9)), FIND(" (", _xlfn.VSTACK(T4,T6:T7,T9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(T4,T6:T7,T9)), FIND(" (", _xlfn.VSTACK(T4,T6:T7,T9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.74 (0.19)</v>
-      </c>
-      <c r="U10" s="3" t="str" cm="1">
-        <f t="array" ref="U10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(U4,U6:U7,U9)), FIND(" (", _xlfn.VSTACK(U4,U6:U7,U9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(U4,U6:U7,U9)), FIND(" (", _xlfn.VSTACK(U4,U6:U7,U9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.58 (0.08)</v>
-      </c>
-      <c r="V10" s="3" t="str" cm="1">
-        <f t="array" ref="V10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(V4,V6:V7,V9)), FIND(" (", _xlfn.VSTACK(V4,V6:V7,V9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(V4,V6:V7,V9)), FIND(" (", _xlfn.VSTACK(V4,V6:V7,V9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.78 (0.23)</v>
-      </c>
-      <c r="W10" s="3" t="str" cm="1">
-        <f t="array" ref="W10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(W4,W6:W7,W9)), FIND(" (", _xlfn.VSTACK(W4,W6:W7,W9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(W4,W6:W7,W9)), FIND(" (", _xlfn.VSTACK(W4,W6:W7,W9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.80 (0.14)</v>
-      </c>
-      <c r="X10" s="3" t="str" cm="1">
-        <f t="array" ref="X10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(X4,X6:X7,X9)), FIND(" (", _xlfn.VSTACK(X4,X6:X7,X9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(X4,X6:X7,X9)), FIND(" (", _xlfn.VSTACK(X4,X6:X7,X9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.62 (0.09)</v>
-      </c>
-      <c r="Y10" s="3" t="str" cm="1">
-        <f t="array" ref="Y10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Y4,Y6:Y7,Y9)), FIND(" (", _xlfn.VSTACK(Y4,Y6:Y7,Y9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Y4,Y6:Y7,Y9)), FIND(" (", _xlfn.VSTACK(Y4,Y6:Y7,Y9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.82 (0.16)</v>
-      </c>
-      <c r="Z10" s="3" t="str" cm="1">
-        <f t="array" ref="Z10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Z4,Z6:Z7,Z9)), FIND(" (", _xlfn.VSTACK(Z4,Z6:Z7,Z9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Z4,Z6:Z7,Z9)), FIND(" (", _xlfn.VSTACK(Z4,Z6:Z7,Z9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.75 (0.15)</v>
-      </c>
-      <c r="AA10" s="3" t="str" cm="1">
-        <f t="array" ref="AA10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AA4,AA6:AA7,AA9)), FIND(" (", _xlfn.VSTACK(AA4,AA6:AA7,AA9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AA4,AA6:AA7,AA9)), FIND(" (", _xlfn.VSTACK(AA4,AA6:AA7,AA9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.55 (0.09)</v>
-      </c>
-      <c r="AB10" s="3" t="str" cm="1">
-        <f t="array" ref="AB10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AB4,AB6:AB7,AB9)), FIND(" (", _xlfn.VSTACK(AB4,AB6:AB7,AB9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AB4,AB6:AB7,AB9)), FIND(" (", _xlfn.VSTACK(AB4,AB6:AB7,AB9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.79 (0.21)</v>
-      </c>
-      <c r="AC10" s="3" t="str" cm="1">
-        <f t="array" ref="AC10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AC4,AC6:AC7,AC9)), FIND(" (", _xlfn.VSTACK(AC4,AC6:AC7,AC9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AC4,AC6:AC7,AC9)), FIND(" (", _xlfn.VSTACK(AC4,AC6:AC7,AC9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.67 (0.10)</v>
-      </c>
-      <c r="AD10" s="3" t="str" cm="1">
-        <f t="array" ref="AD10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AD4,AD6:AD7,AD9)), FIND(" (", _xlfn.VSTACK(AD4,AD6:AD7,AD9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AD4,AD6:AD7,AD9)), FIND(" (", _xlfn.VSTACK(AD4,AD6:AD7,AD9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.60 (0.02)</v>
-      </c>
-      <c r="AE10" s="3" t="str" cm="1">
-        <f t="array" ref="AE10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AE4,AE6:AE7,AE9)), FIND(" (", _xlfn.VSTACK(AE4,AE6:AE7,AE9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AE4,AE6:AE7,AE9)), FIND(" (", _xlfn.VSTACK(AE4,AE6:AE7,AE9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.69 (0.14)</v>
-      </c>
-      <c r="AF10" s="3" t="str" cm="1">
-        <f t="array" ref="AF10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AF4,AF6:AF7,AF9)), FIND(" (", _xlfn.VSTACK(AF4,AF6:AF7,AF9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AF4,AF6:AF7,AF9)), FIND(" (", _xlfn.VSTACK(AF4,AF6:AF7,AF9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.80 (0.09)</v>
-      </c>
-      <c r="AG10" s="3" t="str" cm="1">
-        <f t="array" ref="AG10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AG4,AG6:AG7,AG9)), FIND(" (", _xlfn.VSTACK(AG4,AG6:AG7,AG9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AG4,AG6:AG7,AG9)), FIND(" (", _xlfn.VSTACK(AG4,AG6:AG7,AG9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.75 (0.03)</v>
-      </c>
-      <c r="AH10" s="3" t="str" cm="1">
-        <f t="array" ref="AH10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AH4,AH6:AH7,AH9)), FIND(" (", _xlfn.VSTACK(AH4,AH6:AH7,AH9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AH4,AH6:AH7,AH9)), FIND(" (", _xlfn.VSTACK(AH4,AH6:AH7,AH9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.81 (0.10)</v>
-      </c>
-      <c r="AI10" s="3" t="str" cm="1">
-        <f t="array" ref="AI10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AI4,AI6:AI7,AI9)), FIND(" (", _xlfn.VSTACK(AI4,AI6:AI7,AI9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AI4,AI6:AI7,AI9)), FIND(" (", _xlfn.VSTACK(AI4,AI6:AI7,AI9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.72 (0.07)</v>
-      </c>
-      <c r="AJ10" s="3" t="str" cm="1">
-        <f t="array" ref="AJ10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AJ4,AJ6:AJ7,AJ9)), FIND(" (", _xlfn.VSTACK(AJ4,AJ6:AJ7,AJ9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AJ4,AJ6:AJ7,AJ9)), FIND(" (", _xlfn.VSTACK(AJ4,AJ6:AJ7,AJ9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.59 (0.03)</v>
-      </c>
-      <c r="AK10" s="3" t="str" cm="1">
-        <f t="array" ref="AK10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AK4,AK6:AK7,AK9)), FIND(" (", _xlfn.VSTACK(AK4,AK6:AK7,AK9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AK4,AK6:AK7,AK9)), FIND(" (", _xlfn.VSTACK(AK4,AK6:AK7,AK9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.75 (0.09)</v>
-      </c>
-      <c r="AL10" s="3" t="str" cm="1">
-        <f t="array" ref="AL10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AL4,AL6:AL7,AL9)), FIND(" (", _xlfn.VSTACK(AL4,AL6:AL7,AL9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AL4,AL6:AL7,AL9)), FIND(" (", _xlfn.VSTACK(AL4,AL6:AL7,AL9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.63 (0.08)</v>
-      </c>
-      <c r="AM10" s="3" t="str" cm="1">
-        <f t="array" ref="AM10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AM4,AM6:AM7,AM9)), FIND(" (", _xlfn.VSTACK(AM4,AM6:AM7,AM9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AM4,AM6:AM7,AM9)), FIND(" (", _xlfn.VSTACK(AM4,AM6:AM7,AM9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.64 (0.01)</v>
-      </c>
-      <c r="AN10" s="3" t="str" cm="1">
-        <f t="array" ref="AN10">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AN4,AN6:AN7,AN9)), FIND(" (", _xlfn.VSTACK(AN4,AN6:AN7,AN9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AN4,AN6:AN7,AN9)), FIND(" (", _xlfn.VSTACK(AN4,AN6:AN7,AN9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
-        <v>0.63 (0.15)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(B4,B6:B7,B9)), FIND(" (", _xlfn.VSTACK(B4,B6:B7,B9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(B4,B6:B7,B9)), FIND(" (", _xlfn.VSTACK(B4,B6:B7,B9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="C10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(C4,C6:C7,C9)), FIND(" (", _xlfn.VSTACK(C4,C6:C7,C9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(C4,C6:C7,C9)), FIND(" (", _xlfn.VSTACK(C4,C6:C7,C9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="D10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(D4,D6:D7,D9)), FIND(" (", _xlfn.VSTACK(D4,D6:D7,D9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(D4,D6:D7,D9)), FIND(" (", _xlfn.VSTACK(D4,D6:D7,D9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="E10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(E4,E6:E7,E9)), FIND(" (", _xlfn.VSTACK(E4,E6:E7,E9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(E4,E6:E7,E9)), FIND(" (", _xlfn.VSTACK(E4,E6:E7,E9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="F10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(F4,F6:F7,F9)), FIND(" (", _xlfn.VSTACK(F4,F6:F7,F9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(F4,F6:F7,F9)), FIND(" (", _xlfn.VSTACK(F4,F6:F7,F9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="G10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(G4,G6:G7,G9)), FIND(" (", _xlfn.VSTACK(G4,G6:G7,G9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(G4,G6:G7,G9)), FIND(" (", _xlfn.VSTACK(G4,G6:G7,G9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="H10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(H4,H6:H7,H9)), FIND(" (", _xlfn.VSTACK(H4,H6:H7,H9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(H4,H6:H7,H9)), FIND(" (", _xlfn.VSTACK(H4,H6:H7,H9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="I10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(I4,I6:I7,I9)), FIND(" (", _xlfn.VSTACK(I4,I6:I7,I9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(I4,I6:I7,I9)), FIND(" (", _xlfn.VSTACK(I4,I6:I7,I9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="J10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(J4,J6:J7,J9)), FIND(" (", _xlfn.VSTACK(J4,J6:J7,J9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(J4,J6:J7,J9)), FIND(" (", _xlfn.VSTACK(J4,J6:J7,J9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="K10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(K4,K6:K7,K9)), FIND(" (", _xlfn.VSTACK(K4,K6:K7,K9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(K4,K6:K7,K9)), FIND(" (", _xlfn.VSTACK(K4,K6:K7,K9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="L10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(L4,L6:L7,L9)), FIND(" (", _xlfn.VSTACK(L4,L6:L7,L9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(L4,L6:L7,L9)), FIND(" (", _xlfn.VSTACK(L4,L6:L7,L9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="M10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(M4,M6:M7,M9)), FIND(" (", _xlfn.VSTACK(M4,M6:M7,M9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(M4,M6:M7,M9)), FIND(" (", _xlfn.VSTACK(M4,M6:M7,M9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="N10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(N4,N6:N7,N9)), FIND(" (", _xlfn.VSTACK(N4,N6:N7,N9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(N4,N6:N7,N9)), FIND(" (", _xlfn.VSTACK(N4,N6:N7,N9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="O10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(O4,O6:O7,O9)), FIND(" (", _xlfn.VSTACK(O4,O6:O7,O9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(O4,O6:O7,O9)), FIND(" (", _xlfn.VSTACK(O4,O6:O7,O9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="P10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(P4,P6:P7,P9)), FIND(" (", _xlfn.VSTACK(P4,P6:P7,P9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(P4,P6:P7,P9)), FIND(" (", _xlfn.VSTACK(P4,P6:P7,P9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="Q10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Q4,Q6:Q7,Q9)), FIND(" (", _xlfn.VSTACK(Q4,Q6:Q7,Q9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Q4,Q6:Q7,Q9)), FIND(" (", _xlfn.VSTACK(Q4,Q6:Q7,Q9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="R10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(R4,R6:R7,R9)), FIND(" (", _xlfn.VSTACK(R4,R6:R7,R9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(R4,R6:R7,R9)), FIND(" (", _xlfn.VSTACK(R4,R6:R7,R9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="S10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(S4,S6:S7,S9)), FIND(" (", _xlfn.VSTACK(S4,S6:S7,S9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(S4,S6:S7,S9)), FIND(" (", _xlfn.VSTACK(S4,S6:S7,S9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="T10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(T4,T6:T7,T9)), FIND(" (", _xlfn.VSTACK(T4,T6:T7,T9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(T4,T6:T7,T9)), FIND(" (", _xlfn.VSTACK(T4,T6:T7,T9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="U10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(U4,U6:U7,U9)), FIND(" (", _xlfn.VSTACK(U4,U6:U7,U9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(U4,U6:U7,U9)), FIND(" (", _xlfn.VSTACK(U4,U6:U7,U9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="V10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(V4,V6:V7,V9)), FIND(" (", _xlfn.VSTACK(V4,V6:V7,V9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(V4,V6:V7,V9)), FIND(" (", _xlfn.VSTACK(V4,V6:V7,V9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="W10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(W4,W6:W7,W9)), FIND(" (", _xlfn.VSTACK(W4,W6:W7,W9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(W4,W6:W7,W9)), FIND(" (", _xlfn.VSTACK(W4,W6:W7,W9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="X10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(X4,X6:X7,X9)), FIND(" (", _xlfn.VSTACK(X4,X6:X7,X9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(X4,X6:X7,X9)), FIND(" (", _xlfn.VSTACK(X4,X6:X7,X9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="Y10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Y4,Y6:Y7,Y9)), FIND(" (", _xlfn.VSTACK(Y4,Y6:Y7,Y9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Y4,Y6:Y7,Y9)), FIND(" (", _xlfn.VSTACK(Y4,Y6:Y7,Y9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="Z10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Z4,Z6:Z7,Z9)), FIND(" (", _xlfn.VSTACK(Z4,Z6:Z7,Z9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(Z4,Z6:Z7,Z9)), FIND(" (", _xlfn.VSTACK(Z4,Z6:Z7,Z9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AA10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AA4,AA6:AA7,AA9)), FIND(" (", _xlfn.VSTACK(AA4,AA6:AA7,AA9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AA4,AA6:AA7,AA9)), FIND(" (", _xlfn.VSTACK(AA4,AA6:AA7,AA9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AB10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AB4,AB6:AB7,AB9)), FIND(" (", _xlfn.VSTACK(AB4,AB6:AB7,AB9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AB4,AB6:AB7,AB9)), FIND(" (", _xlfn.VSTACK(AB4,AB6:AB7,AB9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AC10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AC4,AC6:AC7,AC9)), FIND(" (", _xlfn.VSTACK(AC4,AC6:AC7,AC9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AC4,AC6:AC7,AC9)), FIND(" (", _xlfn.VSTACK(AC4,AC6:AC7,AC9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AD10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AD10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AD4,AD6:AD7,AD9)), FIND(" (", _xlfn.VSTACK(AD4,AD6:AD7,AD9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AD4,AD6:AD7,AD9)), FIND(" (", _xlfn.VSTACK(AD4,AD6:AD7,AD9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AE10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AE10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AE4,AE6:AE7,AE9)), FIND(" (", _xlfn.VSTACK(AE4,AE6:AE7,AE9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AE4,AE6:AE7,AE9)), FIND(" (", _xlfn.VSTACK(AE4,AE6:AE7,AE9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AF10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AF10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AF4,AF6:AF7,AF9)), FIND(" (", _xlfn.VSTACK(AF4,AF6:AF7,AF9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AF4,AF6:AF7,AF9)), FIND(" (", _xlfn.VSTACK(AF4,AF6:AF7,AF9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AG10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AG10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AG4,AG6:AG7,AG9)), FIND(" (", _xlfn.VSTACK(AG4,AG6:AG7,AG9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AG4,AG6:AG7,AG9)), FIND(" (", _xlfn.VSTACK(AG4,AG6:AG7,AG9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AH10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AH4,AH6:AH7,AH9)), FIND(" (", _xlfn.VSTACK(AH4,AH6:AH7,AH9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AH4,AH6:AH7,AH9)), FIND(" (", _xlfn.VSTACK(AH4,AH6:AH7,AH9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AI10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AI10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AI4,AI6:AI7,AI9)), FIND(" (", _xlfn.VSTACK(AI4,AI6:AI7,AI9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AI4,AI6:AI7,AI9)), FIND(" (", _xlfn.VSTACK(AI4,AI6:AI7,AI9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AJ10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AJ10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AJ4,AJ6:AJ7,AJ9)), FIND(" (", _xlfn.VSTACK(AJ4,AJ6:AJ7,AJ9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AJ4,AJ6:AJ7,AJ9)), FIND(" (", _xlfn.VSTACK(AJ4,AJ6:AJ7,AJ9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AK10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AK10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AK4,AK6:AK7,AK9)), FIND(" (", _xlfn.VSTACK(AK4,AK6:AK7,AK9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AK4,AK6:AK7,AK9)), FIND(" (", _xlfn.VSTACK(AK4,AK6:AK7,AK9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AL10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AL10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AL4,AL6:AL7,AL9)), FIND(" (", _xlfn.VSTACK(AL4,AL6:AL7,AL9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AL4,AL6:AL7,AL9)), FIND(" (", _xlfn.VSTACK(AL4,AL6:AL7,AL9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AM10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AM10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AM4,AM6:AM7,AM9)), FIND(" (", _xlfn.VSTACK(AM4,AM6:AM7,AM9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AM4,AM6:AM7,AM9)), FIND(" (", _xlfn.VSTACK(AM4,AM6:AM7,AM9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AN10" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="AN10" ca="1">REPLACE(TEXT(AVERAGE(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AN4,AN6:AN7,AN9)), FIND(" (", _xlfn.VSTACK(AN4,AN6:AN7,AN9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; " (" &amp; REPLACE(TEXT(_xlfn.STDEV.S(VALUE(REPLACE(LEFT((_xlfn.VSTACK(AN4,AN6:AN7,AN9)), FIND(" (", _xlfn.VSTACK(AN4,AN6:AN7,AN9)) - 1),2,1,","))),"0,00"),2,1,".") &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="28.5">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -26563,7 +27479,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="85.5">
       <c r="A12" s="16" t="s">
         <v>2508</v>
       </c>
@@ -26627,7 +27543,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2518</v>
       </c>
@@ -26671,7 +27587,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2530</v>
       </c>
@@ -26715,7 +27631,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2654</v>
       </c>
@@ -26759,7 +27675,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2534</v>
       </c>
@@ -26803,7 +27719,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="17" t="s">
         <v>2512</v>
       </c>
@@ -26847,7 +27763,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="17" t="s">
         <v>2533</v>
       </c>
@@ -26891,7 +27807,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -26934,6 +27850,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -26950,170 +27867,169 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="43" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41" t="s">
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41" t="s">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41" t="s">
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41" t="s">
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41" t="s">
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41" t="s">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41" t="s">
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -27232,7 +28148,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>1954</v>
       </c>
@@ -27354,7 +28270,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>1988</v>
       </c>
@@ -27476,7 +28392,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>2024</v>
       </c>
@@ -27598,7 +28514,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>2057</v>
       </c>
@@ -27720,7 +28636,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="28.5">
       <c r="A8" s="2" t="s">
         <v>1937</v>
       </c>
@@ -27842,7 +28758,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -27884,7 +28800,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="15">
       <c r="A10" s="16" t="s">
         <v>2508</v>
       </c>
@@ -27928,7 +28844,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40">
       <c r="A11" s="17" t="s">
         <v>2518</v>
       </c>
@@ -27972,7 +28888,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12" s="17" t="s">
         <v>2531</v>
       </c>
@@ -28016,7 +28932,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="A13" s="17" t="s">
         <v>2654</v>
       </c>
@@ -28060,7 +28976,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="A14" s="17" t="s">
         <v>2534</v>
       </c>
@@ -28104,7 +29020,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="A15" s="17" t="s">
         <v>2512</v>
       </c>
@@ -28148,7 +29064,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="A16" s="17" t="s">
         <v>2533</v>
       </c>
@@ -28192,7 +29108,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -28234,7 +29150,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -28276,7 +29192,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -28320,6 +29236,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="AF1:AH2"/>
     <mergeCell ref="AI1:AK2"/>
@@ -28336,7 +29253,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -9917,9 +9917,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -10049,14 +10047,14 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10085,10 +10083,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10477,125 +10475,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="45" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43" t="s">
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43" t="s">
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43" t="s">
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43" t="s">
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45" t="s">
         <v>2094</v>
       </c>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45" t="s">
         <v>2092</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45" t="s">
         <v>2096</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45" t="s">
         <v>2097</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45" t="s">
         <v>2092</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45" t="s">
         <v>2096</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43" t="s">
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
         <v>2097</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45" t="s">
         <v>2092</v>
       </c>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43" t="s">
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45" t="s">
         <v>2096</v>
       </c>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43" t="s">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45" t="s">
         <v>2097</v>
       </c>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="43"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="2" t="s">
         <v>2093</v>
       </c>
@@ -11785,12 +11783,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="B2:D2"/>
@@ -11802,6 +11794,12 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AE2"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11813,7 +11811,7 @@
   <dimension ref="A1:AN15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11847,125 +11845,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>2100</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="45" t="s">
         <v>2091</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45" t="s">
         <v>2098</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45" t="s">
         <v>2099</v>
       </c>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43" t="s">
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45" t="s">
         <v>2092</v>
       </c>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43" t="s">
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45" t="s">
         <v>2096</v>
       </c>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43" t="s">
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45" t="s">
         <v>2097</v>
       </c>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43" t="s">
+      <c r="AJ1" s="45"/>
+      <c r